--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D47DD5FF-3530-4EF1-9251-4DC17A352B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BECAD40-870A-42C2-B9E4-88AAA35DB73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1791,7 +1803,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2637,11 +2649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H135" sqref="H135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5183,6 +5195,9 @@
       <c r="D90" s="6" t="s">
         <v>545</v>
       </c>
+      <c r="E90" t="s">
+        <v>526</v>
+      </c>
       <c r="F90" t="s">
         <v>11</v>
       </c>
@@ -5213,7 +5228,7 @@
         <v>545</v>
       </c>
       <c r="E91" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -5243,9 +5258,6 @@
       </c>
       <c r="D92" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="E92" t="s">
-        <v>527</v>
       </c>
       <c r="F92" t="s">
         <v>11</v>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BECAD40-870A-42C2-B9E4-88AAA35DB73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C7A0D9-C8EF-4678-A28D-505D4C994CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="655">
   <si>
     <t>structured_name</t>
   </si>
@@ -1577,9 +1577,6 @@
     <t>Identifier for machine-readable PROV model of analysis provenance</t>
   </si>
   <si>
-    <t>Study.name</t>
-  </si>
-  <si>
     <t>Study.institute</t>
   </si>
   <si>
@@ -1622,9 +1619,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>Subset of NucleicAcidProcessing.library_generation_method</t>
-  </si>
-  <si>
     <t>SeqProtocol.sequencing_length</t>
   </si>
   <si>
@@ -1691,9 +1685,6 @@
     <t>DataPro</t>
   </si>
   <si>
-    <t>Unmapped</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -1709,9 +1700,6 @@
     <t>sub_cell_type</t>
   </si>
   <si>
-    <t>UMI</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -1728,9 +1716,6 @@
   </si>
   <si>
     <t>genotype_graph</t>
-  </si>
-  <si>
-    <t>samples_group</t>
   </si>
   <si>
     <t>Number of subjects in the study</t>
@@ -1761,9 +1746,6 @@
     <t>Sub cell type</t>
   </si>
   <si>
-    <t>Checked if unique mlecular identifiers are included in the reads</t>
-  </si>
-  <si>
     <t>Subject name</t>
   </si>
   <si>
@@ -1779,9 +1761,6 @@
     <t>Sample name as allocated by VDJbase</t>
   </si>
   <si>
-    <t>Sample anme</t>
-  </si>
-  <si>
     <t>Number of reads</t>
   </si>
   <si>
@@ -1798,6 +1777,243 @@
   </si>
   <si>
     <t>Sample group</t>
+  </si>
+  <si>
+    <t>Study name</t>
+  </si>
+  <si>
+    <t>Sample name</t>
+  </si>
+  <si>
+    <t>sample_group</t>
+  </si>
+  <si>
+    <t>YML attribute</t>
+  </si>
+  <si>
+    <t>Accession id</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Institute</t>
+  </si>
+  <si>
+    <t>Number of Samples</t>
+  </si>
+  <si>
+    <t>Number of Subjects</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Researcher</t>
+  </si>
+  <si>
+    <t>GenoDetection</t>
+  </si>
+  <si>
+    <t>prepro_tool</t>
+  </si>
+  <si>
+    <t>aligner_tool</t>
+  </si>
+  <si>
+    <t>aligner_ver</t>
+  </si>
+  <si>
+    <t>geno_tool</t>
+  </si>
+  <si>
+    <t>geno_ver</t>
+  </si>
+  <si>
+    <t>haplotype_tool</t>
+  </si>
+  <si>
+    <t>haplotype_ver</t>
+  </si>
+  <si>
+    <t>single_assignment</t>
+  </si>
+  <si>
+    <t>Preprocessing tool</t>
+  </si>
+  <si>
+    <t>Aligner tool</t>
+  </si>
+  <si>
+    <t>Single assignment</t>
+  </si>
+  <si>
+    <t>Aligner version</t>
+  </si>
+  <si>
+    <t>Genotyping tool</t>
+  </si>
+  <si>
+    <t>Genotyping tool version</t>
+  </si>
+  <si>
+    <t>Haplotyping tool</t>
+  </si>
+  <si>
+    <t>Haplotyping tool version</t>
+  </si>
+  <si>
+    <t>sample_basis</t>
+  </si>
+  <si>
+    <t>Sample basis</t>
+  </si>
+  <si>
+    <t>TIgGER</t>
+  </si>
+  <si>
+    <t>PRESTO</t>
+  </si>
+  <si>
+    <t>IgBLAST</t>
+  </si>
+  <si>
+    <t>RabHIT</t>
+  </si>
+  <si>
+    <t>Geno pipeline name</t>
+  </si>
+  <si>
+    <t>Pipeline v. a034f5</t>
+  </si>
+  <si>
+    <t>Germline</t>
+  </si>
+  <si>
+    <t>Genotype Detections.name</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Pre-processing</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Alignment Tool</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Aligner Version</t>
+  </si>
+  <si>
+    <t>aligner_reference_v</t>
+  </si>
+  <si>
+    <t>aligner_reference_d</t>
+  </si>
+  <si>
+    <t>aligner_reference_j</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Alignment reference v</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Alignment reference d</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Alignment reference j</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Genotyper Tool</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Genotyper Version</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Haplotyper Tool</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Haplotyper Version</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Single Assignment</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Repertoire or Germline</t>
+  </si>
+  <si>
+    <t>Samples.Chain</t>
+  </si>
+  <si>
+    <t>Samples.Reads</t>
+  </si>
+  <si>
+    <t>Samples.Sample Group</t>
+  </si>
+  <si>
+    <t>Sequence Protocol.Primer 3 location</t>
+  </si>
+  <si>
+    <t>Sequence Protocol.Primer 5 location</t>
+  </si>
+  <si>
+    <t>Sequence Protocol.Sequencing_length</t>
+  </si>
+  <si>
+    <t>Sequence Protocol.Sequencing_platform</t>
+  </si>
+  <si>
+    <t>Sequence Protocol.Helix</t>
+  </si>
+  <si>
+    <t>SeqProtocol.UMI</t>
+  </si>
+  <si>
+    <t>Sequence Protocol.UMI</t>
+  </si>
+  <si>
+    <t>Subjects.Age</t>
+  </si>
+  <si>
+    <t>Subjects.Cohort</t>
+  </si>
+  <si>
+    <t>Subjects.Ethnic</t>
+  </si>
+  <si>
+    <t>Subjects.Sec</t>
+  </si>
+  <si>
+    <t>Subjects.Health Status</t>
+  </si>
+  <si>
+    <t>Subjects.Original name</t>
+  </si>
+  <si>
+    <t>Subjects.Country</t>
+  </si>
+  <si>
+    <t>Tissue Processing.Cell Type</t>
+  </si>
+  <si>
+    <t>Tissue Processing.Isotype</t>
+  </si>
+  <si>
+    <t>Tissue Processing.Species</t>
+  </si>
+  <si>
+    <t>Tissue Processing.Tissue</t>
+  </si>
+  <si>
+    <t>Tissue Processing.Sub Cell Type</t>
+  </si>
+  <si>
+    <t>Aligner ref J</t>
+  </si>
+  <si>
+    <t>IMGT full - version 2021-06-06</t>
+  </si>
+  <si>
+    <t>Aligner ref V</t>
+  </si>
+  <si>
+    <t>Aligner ref D</t>
   </si>
 </sst>
 </file>
@@ -2650,10 +2866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2662,12 +2878,13 @@
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" customWidth="1"/>
-    <col min="9" max="9" width="148.28515625" customWidth="1"/>
-    <col min="10" max="10" width="58.42578125" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="148.28515625" customWidth="1"/>
+    <col min="11" max="11" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2678,31 +2895,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>543</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2713,22 +2933,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="b">
+        <v>242</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2739,22 +2959,22 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="b">
+        <v>242</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2765,22 +2985,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="b">
+        <v>242</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2791,28 +3011,31 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="b">
+        <v>580</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2823,28 +3046,25 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="E6" t="s">
-        <v>509</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="b">
+        <v>540</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2855,22 +3075,22 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="b">
+        <v>540</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2881,22 +3101,22 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="b">
+        <v>540</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2907,25 +3127,25 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="b">
+        <v>540</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>42</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -2936,25 +3156,25 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="b">
+        <v>540</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2965,25 +3185,25 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="b">
+        <v>540</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>52</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2994,28 +3214,31 @@
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="b">
+        <v>581</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -3026,25 +3249,25 @@
         <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="b">
+        <v>540</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3055,25 +3278,25 @@
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="b">
+        <v>540</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>67</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>68</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -3084,28 +3307,31 @@
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="b">
+        <v>582</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>72</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>73</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -3116,28 +3342,31 @@
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="b">
+        <v>586</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -3148,28 +3377,31 @@
         <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="b">
+        <v>585</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>82</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>83</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3180,19 +3412,19 @@
         <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
+        <v>540</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3203,25 +3435,25 @@
         <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="b">
+        <v>540</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -3232,25 +3464,25 @@
         <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="b">
+        <v>540</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -3261,28 +3493,31 @@
         <v>98</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E21" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="b">
+        <v>644</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>99</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>100</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -3293,22 +3528,22 @@
         <v>98</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F22" t="s">
+        <v>542</v>
+      </c>
+      <c r="G22" t="s">
         <v>104</v>
       </c>
-      <c r="G22" t="b">
+      <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>105</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -3319,22 +3554,22 @@
         <v>98</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="b">
+        <v>542</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>109</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3345,22 +3580,22 @@
         <v>98</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="b">
+        <v>542</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>109</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -3371,19 +3606,19 @@
         <v>98</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="b">
+        <v>542</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -3394,19 +3629,19 @@
         <v>98</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="b">
+        <v>542</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -3417,28 +3652,31 @@
         <v>98</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="b">
+        <v>642</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="b">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>118</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>119</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -3449,25 +3687,25 @@
         <v>98</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F28" t="s">
+        <v>542</v>
+      </c>
+      <c r="G28" t="s">
         <v>123</v>
       </c>
-      <c r="G28" t="b">
+      <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>124</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>125</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -3478,25 +3716,25 @@
         <v>98</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F29" t="s">
+        <v>542</v>
+      </c>
+      <c r="G29" t="s">
         <v>123</v>
       </c>
-      <c r="G29" t="b">
+      <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>128</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="J29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -3507,22 +3745,22 @@
         <v>98</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="b">
+        <v>542</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>132</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>133</v>
       </c>
@@ -3533,22 +3771,22 @@
         <v>98</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="b">
+        <v>542</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>132</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -3559,25 +3797,25 @@
         <v>98</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="b">
+        <v>542</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="b">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>137</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -3588,19 +3826,22 @@
         <v>98</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="b">
+        <v>639</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -3611,28 +3852,31 @@
         <v>98</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E34" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="b">
+        <v>645</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>144</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>145</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -3643,28 +3887,31 @@
         <v>98</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E35" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="b">
+        <v>641</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>149</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>150</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -3675,25 +3922,25 @@
         <v>98</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="b">
+        <v>542</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>154</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>155</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -3704,25 +3951,25 @@
         <v>98</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="b">
+        <v>542</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>159</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>160</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -3733,25 +3980,25 @@
         <v>98</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="b">
+        <v>542</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>164</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>165</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -3762,25 +4009,25 @@
         <v>98</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="b">
+        <v>542</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" t="b">
         <v>0</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>169</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>170</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -3791,28 +4038,31 @@
         <v>98</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
+        <v>640</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
         <v>174</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>175</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -3823,22 +4073,22 @@
         <v>98</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
+        <v>542</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
         <v>179</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -3849,25 +4099,28 @@
         <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E42" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+        <v>643</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
         <v>179</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>182</v>
       </c>
@@ -3878,25 +4131,25 @@
         <v>98</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
+        <v>542</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
         <v>184</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>185</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>187</v>
       </c>
@@ -3907,25 +4160,25 @@
         <v>98</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
+        <v>542</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
         <v>189</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>190</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>192</v>
       </c>
@@ -3936,25 +4189,25 @@
         <v>98</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
+        <v>542</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
         <v>194</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>195</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>197</v>
       </c>
@@ -3965,25 +4218,25 @@
         <v>98</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
+        <v>542</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>199</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>200</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>202</v>
       </c>
@@ -3994,25 +4247,25 @@
         <v>98</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
+        <v>542</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
         <v>204</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>205</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>207</v>
       </c>
@@ -4023,25 +4276,25 @@
         <v>98</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
+        <v>542</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
         <v>209</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>210</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>212</v>
       </c>
@@ -4052,19 +4305,19 @@
         <v>98</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="b">
+        <v>542</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" t="b">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>215</v>
       </c>
@@ -4075,19 +4328,19 @@
         <v>98</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="b">
+        <v>542</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" t="b">
         <v>0</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -4098,19 +4351,19 @@
         <v>98</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
+        <v>542</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -4121,19 +4374,19 @@
         <v>98</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
+        <v>542</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>224</v>
       </c>
@@ -4144,19 +4397,19 @@
         <v>98</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
+        <v>542</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>227</v>
       </c>
@@ -4167,19 +4420,19 @@
         <v>98</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
+        <v>542</v>
+      </c>
+      <c r="G54" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>230</v>
       </c>
@@ -4190,25 +4443,25 @@
         <v>98</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
+        <v>542</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>232</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>233</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>235</v>
       </c>
@@ -4221,20 +4474,20 @@
       <c r="D56" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>238</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>240</v>
       </c>
@@ -4247,23 +4500,23 @@
       <c r="D57" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>243</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>244</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>246</v>
       </c>
@@ -4276,23 +4529,23 @@
       <c r="D58" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>248</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>249</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>251</v>
       </c>
@@ -4305,20 +4558,20 @@
       <c r="D59" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>253</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -4332,22 +4585,25 @@
         <v>242</v>
       </c>
       <c r="E60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
+        <v>649</v>
+      </c>
+      <c r="G60" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>253</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>256</v>
       </c>
@@ -4360,23 +4616,23 @@
       <c r="D61" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>258</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>259</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>261</v>
       </c>
@@ -4389,23 +4645,23 @@
       <c r="D62" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>263</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>264</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>266</v>
       </c>
@@ -4419,25 +4675,25 @@
         <v>242</v>
       </c>
       <c r="E63" t="s">
-        <v>539</v>
-      </c>
-      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
         <v>123</v>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>268</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>269</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>270</v>
       </c>
@@ -4450,20 +4706,20 @@
       <c r="D64" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>272</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>273</v>
       </c>
@@ -4476,20 +4732,20 @@
       <c r="D65" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G65" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
         <v>272</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>275</v>
       </c>
@@ -4502,23 +4758,23 @@
       <c r="D66" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
         <v>277</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>278</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>280</v>
       </c>
@@ -4531,23 +4787,23 @@
       <c r="D67" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
         <v>282</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>283</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>285</v>
       </c>
@@ -4558,28 +4814,28 @@
         <v>287</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E68" t="s">
-        <v>521</v>
-      </c>
-      <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
         <v>288</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>289</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -4590,22 +4846,22 @@
         <v>287</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
+        <v>516</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
         <v>293</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -4616,25 +4872,28 @@
         <v>287</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E70" t="s">
         <v>517</v>
       </c>
-      <c r="E70" t="s">
-        <v>518</v>
-      </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
+        <v>646</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
         <v>293</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>296</v>
       </c>
@@ -4645,28 +4904,31 @@
         <v>287</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E71" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
+        <v>647</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
         <v>298</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>299</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>301</v>
       </c>
@@ -4677,22 +4939,22 @@
         <v>287</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
+        <v>516</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
         <v>303</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>304</v>
       </c>
@@ -4703,25 +4965,28 @@
         <v>287</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E73" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
+        <v>648</v>
+      </c>
+      <c r="G73" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
         <v>303</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>306</v>
       </c>
@@ -4732,22 +4997,22 @@
         <v>287</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F74" t="s">
+        <v>516</v>
+      </c>
+      <c r="G74" t="s">
         <v>104</v>
       </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
         <v>308</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>310</v>
       </c>
@@ -4758,25 +5023,25 @@
         <v>287</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F75" t="s">
+        <v>516</v>
+      </c>
+      <c r="G75" t="s">
         <v>312</v>
       </c>
-      <c r="G75" t="b">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
         <v>313</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>314</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1000000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>315</v>
       </c>
@@ -4787,25 +5052,25 @@
         <v>287</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F76" t="s">
+        <v>516</v>
+      </c>
+      <c r="G76" t="s">
         <v>312</v>
       </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
         <v>317</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>318</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>50000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>319</v>
       </c>
@@ -4816,25 +5081,25 @@
         <v>287</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F77" t="s">
+        <v>516</v>
+      </c>
+      <c r="G77" t="s">
         <v>104</v>
       </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
         <v>321</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>322</v>
       </c>
-      <c r="J77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>323</v>
       </c>
@@ -4845,25 +5110,25 @@
         <v>287</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
         <v>325</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>326</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>328</v>
       </c>
@@ -4874,25 +5139,25 @@
         <v>287</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
         <v>330</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>331</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>333</v>
       </c>
@@ -4903,25 +5168,25 @@
         <v>287</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
+        <v>516</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>335</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>338</v>
       </c>
@@ -4932,28 +5197,31 @@
         <v>340</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E81" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
+        <v>636</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
         <v>341</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>344</v>
       </c>
@@ -4964,25 +5232,25 @@
         <v>340</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
+        <v>543</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
         <v>346</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>347</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>349</v>
       </c>
@@ -4993,25 +5261,25 @@
         <v>340</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F83" t="s">
+        <v>543</v>
+      </c>
+      <c r="G83" t="s">
         <v>123</v>
       </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>351</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>352</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>353</v>
       </c>
@@ -5022,22 +5290,22 @@
         <v>340</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
+        <v>543</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
         <v>355</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>356</v>
       </c>
@@ -5048,22 +5316,22 @@
         <v>340</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
+        <v>543</v>
+      </c>
+      <c r="G85" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>355</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>358</v>
       </c>
@@ -5074,25 +5342,31 @@
         <v>340</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
+      </c>
+      <c r="E86" t="s">
+        <v>637</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
+        <v>638</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
         <v>360</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>361</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>363</v>
       </c>
@@ -5103,25 +5377,25 @@
         <v>340</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
+        <v>543</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
         <v>365</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>366</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>368</v>
       </c>
@@ -5132,25 +5406,25 @@
         <v>340</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
+        <v>543</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
         <v>370</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>371</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>373</v>
       </c>
@@ -5161,28 +5435,31 @@
         <v>340</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E89" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
+        <v>629</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>375</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>378</v>
       </c>
@@ -5193,28 +5470,31 @@
         <v>340</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E90" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
+        <v>632</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
         <v>380</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>381</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>383</v>
       </c>
@@ -5225,28 +5505,31 @@
         <v>340</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E91" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
+        <v>633</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
         <v>385</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>386</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>388</v>
       </c>
@@ -5257,25 +5540,25 @@
         <v>340</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
+        <v>543</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
         <v>390</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>393</v>
       </c>
@@ -5286,25 +5569,25 @@
         <v>340</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
+        <v>543</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
         <v>395</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>398</v>
       </c>
@@ -5315,25 +5598,25 @@
         <v>400</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
+        <v>543</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
         <v>401</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>402</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>404</v>
       </c>
@@ -5344,25 +5627,25 @@
         <v>400</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F95" t="s">
+        <v>543</v>
+      </c>
+      <c r="G95" t="s">
         <v>312</v>
       </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>406</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>407</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>10365118</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>408</v>
       </c>
@@ -5373,28 +5656,31 @@
         <v>400</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E96" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
+        <v>635</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
         <v>410</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>411</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>413</v>
       </c>
@@ -5405,25 +5691,25 @@
         <v>400</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
+        <v>543</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>415</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>416</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>418</v>
       </c>
@@ -5434,25 +5720,25 @@
         <v>400</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>420</v>
+        <v>543</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
       </c>
       <c r="I98" t="s">
         <v>420</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" t="s">
+        <v>420</v>
+      </c>
+      <c r="K98" s="2">
         <v>42720</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>421</v>
       </c>
@@ -5463,25 +5749,25 @@
         <v>400</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="s">
+        <v>543</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>423</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>424</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>426</v>
       </c>
@@ -5492,22 +5778,22 @@
         <v>400</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="s">
+        <v>543</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
         <v>428</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>430</v>
       </c>
@@ -5518,25 +5804,25 @@
         <v>400</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
+        <v>543</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
         <v>432</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>433</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>435</v>
       </c>
@@ -5547,25 +5833,25 @@
         <v>400</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="s">
+        <v>543</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
         <v>437</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>438</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>440</v>
       </c>
@@ -5576,28 +5862,31 @@
         <v>400</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E103" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F103" t="s">
+        <v>634</v>
+      </c>
+      <c r="G103" t="s">
         <v>312</v>
       </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
         <v>442</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>443</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>444</v>
       </c>
@@ -5608,25 +5897,25 @@
         <v>400</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" t="s">
+        <v>543</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
         <v>446</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>447</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>449</v>
       </c>
@@ -5637,25 +5926,25 @@
         <v>400</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="s">
+        <v>543</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
         <v>451</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>452</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>454</v>
       </c>
@@ -5666,25 +5955,25 @@
         <v>400</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="F106" t="s">
+        <v>543</v>
+      </c>
+      <c r="G106" t="s">
         <v>312</v>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" t="s">
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
         <v>456</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>457</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>458</v>
       </c>
@@ -5695,22 +5984,22 @@
         <v>460</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" t="s">
+        <v>544</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
         <v>461</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>463</v>
       </c>
@@ -5721,22 +6010,22 @@
         <v>460</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F108" t="s">
+        <v>544</v>
+      </c>
+      <c r="G108" t="s">
         <v>104</v>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" t="s">
+      <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
         <v>465</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="J108" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>467</v>
       </c>
@@ -5747,25 +6036,25 @@
         <v>460</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" t="s">
+        <v>544</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
         <v>469</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>470</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>472</v>
       </c>
@@ -5776,25 +6065,25 @@
         <v>460</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="s">
+        <v>544</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
         <v>474</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>475</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>477</v>
       </c>
@@ -5805,25 +6094,25 @@
         <v>460</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="s">
+        <v>544</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
         <v>479</v>
       </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>480</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>482</v>
       </c>
@@ -5834,25 +6123,25 @@
         <v>460</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="s">
+        <v>544</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
         <v>484</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>485</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>487</v>
       </c>
@@ -5863,25 +6152,25 @@
         <v>460</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="s">
+        <v>544</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
         <v>489</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>490</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>492</v>
       </c>
@@ -5892,25 +6181,25 @@
         <v>460</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="s">
+        <v>544</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
         <v>494</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>495</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>497</v>
       </c>
@@ -5921,19 +6210,19 @@
         <v>460</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
+        <v>544</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>500</v>
       </c>
@@ -5944,25 +6233,25 @@
         <v>460</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="s">
+        <v>544</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
         <v>502</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>503</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>505</v>
       </c>
@@ -5973,334 +6262,681 @@
         <v>460</v>
       </c>
       <c r="D117" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
+        <v>507</v>
+      </c>
+      <c r="J117" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>546</v>
       </c>
-      <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="s">
-        <v>507</v>
-      </c>
-      <c r="I117" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="D118" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E118" t="s">
+        <v>546</v>
+      </c>
+      <c r="F118" t="s">
+        <v>584</v>
+      </c>
+      <c r="G118" t="s">
+        <v>312</v>
+      </c>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>558</v>
+      </c>
+      <c r="J118" t="s">
+        <v>556</v>
+      </c>
+      <c r="L118" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>547</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D119" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E119" t="s">
+        <v>547</v>
+      </c>
+      <c r="F119" t="s">
+        <v>583</v>
+      </c>
+      <c r="G119" t="s">
+        <v>312</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>559</v>
+      </c>
+      <c r="J119" t="s">
+        <v>557</v>
+      </c>
+      <c r="L119" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>548</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E120" t="s">
+        <v>548</v>
+      </c>
+      <c r="G120" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>561</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="L120" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>549</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D121" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E121" t="s">
+        <v>549</v>
+      </c>
+      <c r="F121" t="s">
+        <v>650</v>
+      </c>
+      <c r="G121" t="s">
+        <v>11</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>563</v>
+      </c>
+      <c r="J121" t="s">
+        <v>564</v>
+      </c>
+      <c r="L121" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>550</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="E118" t="s">
-        <v>549</v>
-      </c>
-      <c r="F118" t="s">
+      <c r="E122" t="s">
+        <v>550</v>
+      </c>
+      <c r="G122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>565</v>
+      </c>
+      <c r="J122" t="s">
+        <v>566</v>
+      </c>
+      <c r="L122" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>551</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E123" t="s">
+        <v>551</v>
+      </c>
+      <c r="G123" t="s">
         <v>312</v>
       </c>
-      <c r="G118" t="b">
+      <c r="H123" t="b">
         <v>0</v>
       </c>
-      <c r="H118" t="s">
-        <v>563</v>
-      </c>
-      <c r="I118" t="s">
-        <v>561</v>
-      </c>
-      <c r="K118" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+      <c r="I123" t="s">
+        <v>567</v>
+      </c>
+      <c r="J123" t="s">
+        <v>568</v>
+      </c>
+      <c r="L123" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>550</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="D124" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" t="s">
         <v>550</v>
       </c>
-      <c r="F119" t="s">
-        <v>312</v>
-      </c>
-      <c r="G119" t="b">
+      <c r="G124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" t="b">
         <v>0</v>
       </c>
-      <c r="H119" t="s">
-        <v>564</v>
-      </c>
-      <c r="I119" t="s">
-        <v>562</v>
-      </c>
-      <c r="K119" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>551</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="E120" t="s">
-        <v>551</v>
-      </c>
-      <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="s">
-        <v>566</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="K120" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>552</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="E121" t="s">
-        <v>552</v>
-      </c>
-      <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="s">
-        <v>568</v>
-      </c>
-      <c r="I121" t="s">
+      <c r="I124" t="s">
+        <v>577</v>
+      </c>
+      <c r="J124" t="s">
         <v>569</v>
       </c>
-      <c r="K121" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+      <c r="L124" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>553</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="E122" t="s">
-        <v>553</v>
-      </c>
-      <c r="F122" t="s">
-        <v>104</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" t="s">
-        <v>553</v>
-      </c>
-      <c r="I122" t="s">
-        <v>570</v>
-      </c>
-      <c r="K122" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>554</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E123" t="s">
-        <v>554</v>
-      </c>
-      <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="s">
-        <v>571</v>
-      </c>
-      <c r="I123" t="s">
-        <v>572</v>
-      </c>
-      <c r="K123" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>555</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="E124" t="s">
-        <v>555</v>
-      </c>
-      <c r="F124" t="s">
-        <v>312</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="s">
-        <v>573</v>
-      </c>
-      <c r="I124" t="s">
-        <v>574</v>
-      </c>
-      <c r="K124" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>554</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E125" t="s">
+        <v>553</v>
+      </c>
+      <c r="F125" t="s">
+        <v>630</v>
+      </c>
+      <c r="G125" t="s">
+        <v>312</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>560</v>
+      </c>
+      <c r="J125" t="s">
+        <v>570</v>
+      </c>
+      <c r="L125" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>554</v>
-      </c>
-      <c r="F125" t="s">
-        <v>11</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>576</v>
-      </c>
-      <c r="I125" t="s">
-        <v>575</v>
-      </c>
-      <c r="K125" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>557</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E126" t="s">
-        <v>557</v>
-      </c>
-      <c r="F126" t="s">
-        <v>312</v>
-      </c>
-      <c r="G126" t="b">
+        <v>554</v>
+      </c>
+      <c r="G126" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" t="b">
         <v>0</v>
       </c>
-      <c r="H126" t="s">
-        <v>565</v>
-      </c>
       <c r="I126" t="s">
-        <v>577</v>
-      </c>
-      <c r="K126" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="J126" t="s">
+        <v>572</v>
+      </c>
+      <c r="L126" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E127" t="s">
-        <v>558</v>
-      </c>
-      <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="b">
+        <v>555</v>
+      </c>
+      <c r="G127" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" t="b">
         <v>0</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
+        <v>573</v>
+      </c>
+      <c r="J127" t="s">
+        <v>574</v>
+      </c>
+      <c r="L127" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>578</v>
-      </c>
-      <c r="I127" t="s">
-        <v>579</v>
-      </c>
-      <c r="K127" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>559</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E128" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="b">
+        <v>631</v>
+      </c>
+      <c r="G128" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" t="b">
         <v>0</v>
       </c>
-      <c r="H128" t="s">
-        <v>580</v>
-      </c>
       <c r="I128" t="s">
-        <v>581</v>
-      </c>
-      <c r="K128" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+      <c r="J128" t="s">
+        <v>575</v>
+      </c>
+      <c r="L128" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>560</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>242</v>
+        <v>550</v>
+      </c>
+      <c r="D129" t="s">
+        <v>540</v>
       </c>
       <c r="E129" t="s">
-        <v>560</v>
-      </c>
-      <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="b">
+        <v>550</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" t="b">
         <v>0</v>
       </c>
-      <c r="H129" t="s">
-        <v>582</v>
-      </c>
       <c r="I129" t="s">
-        <v>582</v>
-      </c>
-      <c r="K129" t="s">
-        <v>540</v>
+        <v>576</v>
+      </c>
+      <c r="J129" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>550</v>
+      </c>
+      <c r="D130" t="s">
+        <v>587</v>
+      </c>
+      <c r="E130" t="s">
+        <v>550</v>
+      </c>
+      <c r="F130" t="s">
+        <v>613</v>
+      </c>
+      <c r="G130" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>610</v>
+      </c>
+      <c r="J130" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>588</v>
+      </c>
+      <c r="D131" t="s">
+        <v>587</v>
+      </c>
+      <c r="E131" t="s">
+        <v>588</v>
+      </c>
+      <c r="F131" t="s">
+        <v>614</v>
+      </c>
+      <c r="G131" t="s">
+        <v>11</v>
+      </c>
+      <c r="H131" t="b">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>596</v>
+      </c>
+      <c r="J131" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>589</v>
+      </c>
+      <c r="D132" t="s">
+        <v>587</v>
+      </c>
+      <c r="E132" t="s">
+        <v>589</v>
+      </c>
+      <c r="F132" t="s">
+        <v>615</v>
+      </c>
+      <c r="G132" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>597</v>
+      </c>
+      <c r="J132" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>590</v>
+      </c>
+      <c r="D133" t="s">
+        <v>587</v>
+      </c>
+      <c r="E133" t="s">
+        <v>590</v>
+      </c>
+      <c r="F133" t="s">
+        <v>616</v>
+      </c>
+      <c r="G133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>599</v>
+      </c>
+      <c r="J133">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>617</v>
+      </c>
+      <c r="D134" t="s">
+        <v>587</v>
+      </c>
+      <c r="E134" t="s">
+        <v>617</v>
+      </c>
+      <c r="F134" t="s">
+        <v>620</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" t="b">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>653</v>
+      </c>
+      <c r="J134" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>618</v>
+      </c>
+      <c r="D135" t="s">
+        <v>587</v>
+      </c>
+      <c r="E135" t="s">
+        <v>618</v>
+      </c>
+      <c r="F135" t="s">
+        <v>621</v>
+      </c>
+      <c r="G135" t="s">
+        <v>11</v>
+      </c>
+      <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>654</v>
+      </c>
+      <c r="J135" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>619</v>
+      </c>
+      <c r="D136" t="s">
+        <v>587</v>
+      </c>
+      <c r="E136" t="s">
+        <v>619</v>
+      </c>
+      <c r="F136" t="s">
+        <v>622</v>
+      </c>
+      <c r="G136" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>651</v>
+      </c>
+      <c r="J136" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>591</v>
+      </c>
+      <c r="D137" t="s">
+        <v>587</v>
+      </c>
+      <c r="E137" t="s">
+        <v>591</v>
+      </c>
+      <c r="F137" t="s">
+        <v>623</v>
+      </c>
+      <c r="G137" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" t="b">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>600</v>
+      </c>
+      <c r="J137" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>592</v>
+      </c>
+      <c r="D138" t="s">
+        <v>587</v>
+      </c>
+      <c r="E138" t="s">
+        <v>592</v>
+      </c>
+      <c r="F138" t="s">
+        <v>624</v>
+      </c>
+      <c r="G138" t="s">
+        <v>11</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>601</v>
+      </c>
+      <c r="J138">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>593</v>
+      </c>
+      <c r="D139" t="s">
+        <v>587</v>
+      </c>
+      <c r="E139" t="s">
+        <v>593</v>
+      </c>
+      <c r="F139" t="s">
+        <v>625</v>
+      </c>
+      <c r="G139" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>602</v>
+      </c>
+      <c r="J139" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>594</v>
+      </c>
+      <c r="D140" t="s">
+        <v>587</v>
+      </c>
+      <c r="E140" t="s">
+        <v>594</v>
+      </c>
+      <c r="F140" t="s">
+        <v>626</v>
+      </c>
+      <c r="G140" t="s">
+        <v>11</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>603</v>
+      </c>
+      <c r="J140">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>595</v>
+      </c>
+      <c r="D141" t="s">
+        <v>587</v>
+      </c>
+      <c r="E141" t="s">
+        <v>595</v>
+      </c>
+      <c r="F141" t="s">
+        <v>627</v>
+      </c>
+      <c r="G141" t="s">
+        <v>104</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>598</v>
+      </c>
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>604</v>
+      </c>
+      <c r="D142" t="s">
+        <v>587</v>
+      </c>
+      <c r="E142" t="s">
+        <v>604</v>
+      </c>
+      <c r="F142" t="s">
+        <v>628</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>605</v>
+      </c>
+      <c r="J142" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C7A0D9-C8EF-4678-A28D-505D4C994CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7631EFF-EACF-4F55-A466-A979D6F7C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="659">
   <si>
     <t>structured_name</t>
   </si>
@@ -1730,9 +1730,6 @@
     <t>Samples</t>
   </si>
   <si>
-    <t>Reads</t>
-  </si>
-  <si>
     <t>Study Ref</t>
   </si>
   <si>
@@ -1761,9 +1758,6 @@
     <t>Sample name as allocated by VDJbase</t>
   </si>
   <si>
-    <t>Number of reads</t>
-  </si>
-  <si>
     <t>Genotype report</t>
   </si>
   <si>
@@ -1890,9 +1884,6 @@
     <t>Germline</t>
   </si>
   <si>
-    <t>Genotype Detections.name</t>
-  </si>
-  <si>
     <t>Genotype Detections.Pre-processing</t>
   </si>
   <si>
@@ -1977,9 +1968,6 @@
     <t>Subjects.Ethnic</t>
   </si>
   <si>
-    <t>Subjects.Sec</t>
-  </si>
-  <si>
     <t>Subjects.Health Status</t>
   </si>
   <si>
@@ -2014,6 +2002,30 @@
   </si>
   <si>
     <t>Aligner ref D</t>
+  </si>
+  <si>
+    <t>Subjects.Sex</t>
+  </si>
+  <si>
+    <t>Samples.Name</t>
+  </si>
+  <si>
+    <t>Subjects.Name</t>
+  </si>
+  <si>
+    <t>Genotype Detections.Name</t>
+  </si>
+  <si>
+    <t>VDJbase reads</t>
+  </si>
+  <si>
+    <t>Reads processed by VDJbase pipeline</t>
+  </si>
+  <si>
+    <t>TRUE if the processed reads are restricted to those that have a single V_call</t>
+  </si>
+  <si>
+    <t>Repertoire or germline</t>
   </si>
 </sst>
 </file>
@@ -2868,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="F112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,7 +2913,7 @@
         <v>541</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -3017,7 +3029,7 @@
         <v>515</v>
       </c>
       <c r="F5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -3220,7 +3232,7 @@
         <v>514</v>
       </c>
       <c r="F12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -3313,7 +3325,7 @@
         <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -3348,7 +3360,7 @@
         <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3383,7 +3395,7 @@
         <v>512</v>
       </c>
       <c r="F17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -3499,7 +3511,7 @@
         <v>534</v>
       </c>
       <c r="F21" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -3658,7 +3670,7 @@
         <v>529</v>
       </c>
       <c r="F27" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -3832,7 +3844,7 @@
         <v>528</v>
       </c>
       <c r="F33" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -3858,7 +3870,7 @@
         <v>535</v>
       </c>
       <c r="F34" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -3893,7 +3905,7 @@
         <v>531</v>
       </c>
       <c r="F35" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -4044,7 +4056,7 @@
         <v>533</v>
       </c>
       <c r="F40" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -4105,7 +4117,7 @@
         <v>532</v>
       </c>
       <c r="F42" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -4588,7 +4600,7 @@
         <v>521</v>
       </c>
       <c r="F60" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -4878,7 +4890,7 @@
         <v>517</v>
       </c>
       <c r="F70" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -4910,7 +4922,7 @@
         <v>518</v>
       </c>
       <c r="F71" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -4971,7 +4983,7 @@
         <v>519</v>
       </c>
       <c r="F73" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5203,7 +5215,7 @@
         <v>527</v>
       </c>
       <c r="F81" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -5345,10 +5357,10 @@
         <v>543</v>
       </c>
       <c r="E86" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F86" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5441,7 +5453,7 @@
         <v>536</v>
       </c>
       <c r="F89" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -5476,7 +5488,7 @@
         <v>524</v>
       </c>
       <c r="F90" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -5511,7 +5523,7 @@
         <v>525</v>
       </c>
       <c r="F91" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -5598,7 +5610,7 @@
         <v>400</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
@@ -5627,7 +5639,7 @@
         <v>400</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G95" t="s">
         <v>312</v>
@@ -5662,7 +5674,7 @@
         <v>526</v>
       </c>
       <c r="F96" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
@@ -5720,7 +5732,7 @@
         <v>400</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -5778,7 +5790,7 @@
         <v>400</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -5804,7 +5816,7 @@
         <v>400</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
@@ -5833,7 +5845,7 @@
         <v>400</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -5868,7 +5880,7 @@
         <v>523</v>
       </c>
       <c r="F103" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G103" t="s">
         <v>312</v>
@@ -5897,7 +5909,7 @@
         <v>400</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -5926,7 +5938,7 @@
         <v>400</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -6288,7 +6300,7 @@
         <v>546</v>
       </c>
       <c r="F118" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G118" t="s">
         <v>312</v>
@@ -6317,7 +6329,7 @@
         <v>547</v>
       </c>
       <c r="F119" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G119" t="s">
         <v>312</v>
@@ -6352,10 +6364,10 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
+        <v>560</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="L120" t="s">
         <v>513</v>
@@ -6372,7 +6384,7 @@
         <v>549</v>
       </c>
       <c r="F121" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -6381,10 +6393,10 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
+        <v>562</v>
+      </c>
+      <c r="J121" t="s">
         <v>563</v>
-      </c>
-      <c r="J121" t="s">
-        <v>564</v>
       </c>
       <c r="L121" t="s">
         <v>522</v>
@@ -6400,6 +6412,9 @@
       <c r="E122" t="s">
         <v>550</v>
       </c>
+      <c r="F122" t="s">
+        <v>653</v>
+      </c>
       <c r="G122" t="s">
         <v>11</v>
       </c>
@@ -6407,10 +6422,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
+        <v>564</v>
+      </c>
+      <c r="J122" t="s">
         <v>565</v>
-      </c>
-      <c r="J122" t="s">
-        <v>566</v>
       </c>
       <c r="L122" t="s">
         <v>530</v>
@@ -6433,10 +6448,10 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
+        <v>566</v>
+      </c>
+      <c r="J123" t="s">
         <v>567</v>
-      </c>
-      <c r="J123" t="s">
-        <v>568</v>
       </c>
       <c r="L123" t="s">
         <v>552</v>
@@ -6452,6 +6467,9 @@
       <c r="E124" t="s">
         <v>550</v>
       </c>
+      <c r="F124" t="s">
+        <v>652</v>
+      </c>
       <c r="G124" t="s">
         <v>11</v>
       </c>
@@ -6459,10 +6477,10 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="J124" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L124" t="s">
         <v>530</v>
@@ -6479,7 +6497,7 @@
         <v>553</v>
       </c>
       <c r="F125" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G125" t="s">
         <v>312</v>
@@ -6488,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="J125" t="s">
-        <v>570</v>
+        <v>656</v>
       </c>
       <c r="L125" t="s">
         <v>530</v>
@@ -6514,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="J126" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L126" t="s">
         <v>511</v>
@@ -6540,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J127" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L127" t="s">
         <v>511</v>
@@ -6551,16 +6569,16 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E128" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F128" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -6569,16 +6587,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="J128" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L128" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>550</v>
       </c>
@@ -6595,24 +6613,24 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J129" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>550</v>
       </c>
       <c r="D130" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E130" t="s">
         <v>550</v>
       </c>
       <c r="F130" t="s">
-        <v>613</v>
+        <v>654</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -6621,24 +6639,27 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J130" t="s">
+        <v>608</v>
+      </c>
+      <c r="K130" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>586</v>
+      </c>
+      <c r="D131" t="s">
+        <v>585</v>
+      </c>
+      <c r="E131" t="s">
+        <v>586</v>
+      </c>
+      <c r="F131" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>588</v>
-      </c>
-      <c r="D131" t="s">
-        <v>587</v>
-      </c>
-      <c r="E131" t="s">
-        <v>588</v>
-      </c>
-      <c r="F131" t="s">
-        <v>614</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -6647,24 +6668,27 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="J131" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+      <c r="K131" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D132" t="s">
+        <v>585</v>
+      </c>
+      <c r="E132" t="s">
         <v>587</v>
       </c>
-      <c r="E132" t="s">
-        <v>589</v>
-      </c>
       <c r="F132" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -6673,24 +6697,27 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="J132" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="K132" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D133" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E133" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F133" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -6699,24 +6726,27 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>599</v>
-      </c>
-      <c r="J133">
+        <v>597</v>
+      </c>
+      <c r="J133" t="s">
+        <v>597</v>
+      </c>
+      <c r="K133">
         <v>1.18</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
+        <v>614</v>
+      </c>
+      <c r="D134" t="s">
+        <v>585</v>
+      </c>
+      <c r="E134" t="s">
+        <v>614</v>
+      </c>
+      <c r="F134" t="s">
         <v>617</v>
-      </c>
-      <c r="D134" t="s">
-        <v>587</v>
-      </c>
-      <c r="E134" t="s">
-        <v>617</v>
-      </c>
-      <c r="F134" t="s">
-        <v>620</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
@@ -6725,24 +6755,27 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J134" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="K134" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
+        <v>615</v>
+      </c>
+      <c r="D135" t="s">
+        <v>585</v>
+      </c>
+      <c r="E135" t="s">
+        <v>615</v>
+      </c>
+      <c r="F135" t="s">
         <v>618</v>
-      </c>
-      <c r="D135" t="s">
-        <v>587</v>
-      </c>
-      <c r="E135" t="s">
-        <v>618</v>
-      </c>
-      <c r="F135" t="s">
-        <v>621</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
@@ -6751,24 +6784,27 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J135" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+      <c r="K135" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
+        <v>616</v>
+      </c>
+      <c r="D136" t="s">
+        <v>585</v>
+      </c>
+      <c r="E136" t="s">
+        <v>616</v>
+      </c>
+      <c r="F136" t="s">
         <v>619</v>
-      </c>
-      <c r="D136" t="s">
-        <v>587</v>
-      </c>
-      <c r="E136" t="s">
-        <v>619</v>
-      </c>
-      <c r="F136" t="s">
-        <v>622</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -6777,24 +6813,27 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J136" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+      <c r="K136" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D137" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E137" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F137" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -6803,24 +6842,27 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J137" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="K137" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D138" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E138" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F138" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -6829,24 +6871,27 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>601</v>
-      </c>
-      <c r="J138">
+        <v>599</v>
+      </c>
+      <c r="J138" t="s">
+        <v>599</v>
+      </c>
+      <c r="K138">
         <v>1.2</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D139" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E139" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F139" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -6855,24 +6900,27 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J139" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="K139" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D140" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E140" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F140" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -6881,24 +6929,27 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>603</v>
-      </c>
-      <c r="J140">
+        <v>601</v>
+      </c>
+      <c r="J140" t="s">
+        <v>601</v>
+      </c>
+      <c r="K140">
         <v>1.2</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D141" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E141" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F141" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G141" t="s">
         <v>104</v>
@@ -6907,24 +6958,27 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>598</v>
-      </c>
-      <c r="J141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="J141" t="s">
+        <v>657</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D142" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E142" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F142" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
@@ -6933,10 +6987,13 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J142" t="s">
-        <v>612</v>
+        <v>658</v>
+      </c>
+      <c r="K142" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7631EFF-EACF-4F55-A466-A979D6F7C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C1300-1EE1-4D18-A74E-01946357D714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="664">
   <si>
     <t>structured_name</t>
   </si>
@@ -1715,9 +1715,6 @@
     <t>genotype</t>
   </si>
   <si>
-    <t>genotype_graph</t>
-  </si>
-  <si>
     <t>Number of subjects in the study</t>
   </si>
   <si>
@@ -1764,12 +1761,6 @@
     <t>Link to genotype report</t>
   </si>
   <si>
-    <t>Genotype plots</t>
-  </si>
-  <si>
-    <t>Link to genotype plots</t>
-  </si>
-  <si>
     <t>Sample group</t>
   </si>
   <si>
@@ -2026,6 +2017,30 @@
   </si>
   <si>
     <t>Repertoire or germline</t>
+  </si>
+  <si>
+    <t>igsnper_plot_path</t>
+  </si>
+  <si>
+    <t>Igsnper plot path</t>
+  </si>
+  <si>
+    <t>Path for igsnper plot</t>
+  </si>
+  <si>
+    <t>genotype_stats</t>
+  </si>
+  <si>
+    <t>Genotype stats</t>
+  </si>
+  <si>
+    <t>Path to genotype stats file</t>
+  </si>
+  <si>
+    <t>genotype_report</t>
+  </si>
+  <si>
+    <t>Path to genotype report</t>
   </si>
 </sst>
 </file>
@@ -2878,16 +2893,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
@@ -2913,7 +2928,7 @@
         <v>541</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -3029,7 +3044,7 @@
         <v>515</v>
       </c>
       <c r="F5" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -3232,7 +3247,7 @@
         <v>514</v>
       </c>
       <c r="F12" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -3325,7 +3340,7 @@
         <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -3360,7 +3375,7 @@
         <v>510</v>
       </c>
       <c r="F16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3395,7 +3410,7 @@
         <v>512</v>
       </c>
       <c r="F17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -3511,7 +3526,7 @@
         <v>534</v>
       </c>
       <c r="F21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -3670,7 +3685,7 @@
         <v>529</v>
       </c>
       <c r="F27" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -3844,7 +3859,7 @@
         <v>528</v>
       </c>
       <c r="F33" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -3870,7 +3885,7 @@
         <v>535</v>
       </c>
       <c r="F34" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -3905,7 +3920,7 @@
         <v>531</v>
       </c>
       <c r="F35" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -4056,7 +4071,7 @@
         <v>533</v>
       </c>
       <c r="F40" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -4117,7 +4132,7 @@
         <v>532</v>
       </c>
       <c r="F42" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -4600,7 +4615,7 @@
         <v>521</v>
       </c>
       <c r="F60" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -4890,7 +4905,7 @@
         <v>517</v>
       </c>
       <c r="F70" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -4922,7 +4937,7 @@
         <v>518</v>
       </c>
       <c r="F71" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G71" t="s">
         <v>11</v>
@@ -4983,7 +4998,7 @@
         <v>519</v>
       </c>
       <c r="F73" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5215,7 +5230,7 @@
         <v>527</v>
       </c>
       <c r="F81" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -5357,10 +5372,10 @@
         <v>543</v>
       </c>
       <c r="E86" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="F86" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -5453,7 +5468,7 @@
         <v>536</v>
       </c>
       <c r="F89" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -5488,7 +5503,7 @@
         <v>524</v>
       </c>
       <c r="F90" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -5523,7 +5538,7 @@
         <v>525</v>
       </c>
       <c r="F91" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -5674,7 +5689,7 @@
         <v>526</v>
       </c>
       <c r="F96" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G96" t="s">
         <v>11</v>
@@ -5880,7 +5895,7 @@
         <v>523</v>
       </c>
       <c r="F103" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G103" t="s">
         <v>312</v>
@@ -6300,7 +6315,7 @@
         <v>546</v>
       </c>
       <c r="F118" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G118" t="s">
         <v>312</v>
@@ -6309,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J118" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L118" t="s">
         <v>511</v>
@@ -6329,7 +6344,7 @@
         <v>547</v>
       </c>
       <c r="F119" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G119" t="s">
         <v>312</v>
@@ -6338,10 +6353,10 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J119" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L119" t="s">
         <v>511</v>
@@ -6364,10 +6379,10 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
+        <v>559</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="L120" t="s">
         <v>513</v>
@@ -6384,7 +6399,7 @@
         <v>549</v>
       </c>
       <c r="F121" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -6393,10 +6408,10 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
+        <v>561</v>
+      </c>
+      <c r="J121" t="s">
         <v>562</v>
-      </c>
-      <c r="J121" t="s">
-        <v>563</v>
       </c>
       <c r="L121" t="s">
         <v>522</v>
@@ -6413,7 +6428,7 @@
         <v>550</v>
       </c>
       <c r="F122" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -6422,10 +6437,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
+        <v>563</v>
+      </c>
+      <c r="J122" t="s">
         <v>564</v>
-      </c>
-      <c r="J122" t="s">
-        <v>565</v>
       </c>
       <c r="L122" t="s">
         <v>530</v>
@@ -6448,10 +6463,10 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
+        <v>565</v>
+      </c>
+      <c r="J123" t="s">
         <v>566</v>
-      </c>
-      <c r="J123" t="s">
-        <v>567</v>
       </c>
       <c r="L123" t="s">
         <v>552</v>
@@ -6468,7 +6483,7 @@
         <v>550</v>
       </c>
       <c r="F124" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -6477,10 +6492,10 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J124" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L124" t="s">
         <v>530</v>
@@ -6497,7 +6512,7 @@
         <v>553</v>
       </c>
       <c r="F125" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="G125" t="s">
         <v>312</v>
@@ -6506,10 +6521,10 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="J125" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="L125" t="s">
         <v>530</v>
@@ -6532,10 +6547,10 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
+        <v>568</v>
+      </c>
+      <c r="J126" t="s">
         <v>569</v>
-      </c>
-      <c r="J126" t="s">
-        <v>570</v>
       </c>
       <c r="L126" t="s">
         <v>511</v>
@@ -6543,13 +6558,13 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>555</v>
-      </c>
-      <c r="D127" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D127" t="s">
         <v>242</v>
       </c>
       <c r="E127" t="s">
-        <v>555</v>
+        <v>656</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -6558,27 +6573,24 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="J127" t="s">
-        <v>572</v>
-      </c>
-      <c r="L127" t="s">
-        <v>511</v>
+        <v>658</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E128" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F128" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -6587,10 +6599,10 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J128" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L128" t="s">
         <v>538</v>
@@ -6598,13 +6610,13 @@
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>550</v>
-      </c>
-      <c r="D129" t="s">
-        <v>540</v>
+        <v>659</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="E129" t="s">
-        <v>550</v>
+        <v>659</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -6613,24 +6625,21 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="J129" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>550</v>
-      </c>
-      <c r="D130" t="s">
-        <v>585</v>
+        <v>662</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="E130" t="s">
-        <v>550</v>
-      </c>
-      <c r="F130" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -6639,27 +6648,21 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="J130" t="s">
-        <v>608</v>
-      </c>
-      <c r="K130" t="s">
-        <v>609</v>
+        <v>663</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="D131" t="s">
-        <v>585</v>
+        <v>540</v>
       </c>
       <c r="E131" t="s">
-        <v>586</v>
-      </c>
-      <c r="F131" t="s">
-        <v>611</v>
+        <v>550</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -6668,27 +6671,24 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="J131" t="s">
-        <v>594</v>
-      </c>
-      <c r="K131" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="D132" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E132" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="F132" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -6697,10 +6697,10 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="J132" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="K132" t="s">
         <v>606</v>
@@ -6708,16 +6708,16 @@
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D133" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E133" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="F133" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -6726,27 +6726,27 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="J133" t="s">
-        <v>597</v>
-      </c>
-      <c r="K133">
-        <v>1.18</v>
+        <v>591</v>
+      </c>
+      <c r="K133" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="D134" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E134" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="F134" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
@@ -6755,27 +6755,27 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="J134" t="s">
-        <v>649</v>
+        <v>592</v>
       </c>
       <c r="K134" t="s">
-        <v>648</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="D135" t="s">
+        <v>582</v>
+      </c>
+      <c r="E135" t="s">
         <v>585</v>
       </c>
-      <c r="E135" t="s">
-        <v>615</v>
-      </c>
       <c r="F135" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
@@ -6784,27 +6784,27 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>650</v>
+        <v>594</v>
       </c>
       <c r="J135" t="s">
-        <v>650</v>
-      </c>
-      <c r="K135" t="s">
-        <v>648</v>
+        <v>594</v>
+      </c>
+      <c r="K135">
+        <v>1.18</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D136" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E136" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F136" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -6813,27 +6813,27 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J136" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K136" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="D137" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E137" t="s">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="F137" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -6842,27 +6842,27 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="J137" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="K137" t="s">
-        <v>604</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="D138" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E138" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="F138" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -6871,27 +6871,27 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>599</v>
+        <v>644</v>
       </c>
       <c r="J138" t="s">
-        <v>599</v>
-      </c>
-      <c r="K138">
-        <v>1.2</v>
+        <v>644</v>
+      </c>
+      <c r="K138" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D139" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E139" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F139" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -6900,27 +6900,27 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J139" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="K139" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D140" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E140" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F140" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -6929,10 +6929,10 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="J140" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K140">
         <v>1.2</v>
@@ -6940,45 +6940,45 @@
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D141" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E141" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F141" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G141" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="H141" t="b">
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J141" t="s">
-        <v>657</v>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
+        <v>597</v>
+      </c>
+      <c r="K141" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="D142" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E142" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="F142" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G142" t="s">
         <v>11</v>
@@ -6987,13 +6987,71 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="J142" t="s">
-        <v>658</v>
-      </c>
-      <c r="K142" t="s">
-        <v>610</v>
+        <v>598</v>
+      </c>
+      <c r="K142">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>590</v>
+      </c>
+      <c r="D143" t="s">
+        <v>582</v>
+      </c>
+      <c r="E143" t="s">
+        <v>590</v>
+      </c>
+      <c r="F143" t="s">
+        <v>621</v>
+      </c>
+      <c r="G143" t="s">
+        <v>104</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>593</v>
+      </c>
+      <c r="J143" t="s">
+        <v>654</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>599</v>
+      </c>
+      <c r="D144" t="s">
+        <v>582</v>
+      </c>
+      <c r="E144" t="s">
+        <v>599</v>
+      </c>
+      <c r="F144" t="s">
+        <v>622</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>600</v>
+      </c>
+      <c r="J144" t="s">
+        <v>655</v>
+      </c>
+      <c r="K144" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0C1300-1EE1-4D18-A74E-01946357D714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849D87B-A0E6-46E2-B61E-627ABA74717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$L$143</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="664">
   <si>
     <t>structured_name</t>
   </si>
@@ -409,9 +412,6 @@
     <t>age_min</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>Age minimum</t>
   </si>
   <si>
@@ -1866,12 +1866,6 @@
     <t>RabHIT</t>
   </si>
   <si>
-    <t>Geno pipeline name</t>
-  </si>
-  <si>
-    <t>Pipeline v. a034f5</t>
-  </si>
-  <si>
     <t>Germline</t>
   </si>
   <si>
@@ -2004,9 +1998,6 @@
     <t>Subjects.Name</t>
   </si>
   <si>
-    <t>Genotype Detections.Name</t>
-  </si>
-  <si>
     <t>VDJbase reads</t>
   </si>
   <si>
@@ -2041,6 +2032,18 @@
   </si>
   <si>
     <t>Path to genotype report</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>study_name</t>
+  </si>
+  <si>
+    <t>sample_name</t>
   </si>
 </sst>
 </file>
@@ -2893,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L144"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127:XFD127"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,13 +2925,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2946,7 +2949,7 @@
         <v>7</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -2960,7 +2963,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -2986,7 +2989,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -3012,7 +3015,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -3038,13 +3041,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -3073,7 +3076,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -3102,7 +3105,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -3128,7 +3131,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -3154,7 +3157,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -3183,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -3212,7 +3215,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -3241,13 +3244,13 @@
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -3276,7 +3279,7 @@
         <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -3305,7 +3308,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -3334,13 +3337,13 @@
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -3369,13 +3372,13 @@
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E16" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3404,13 +3407,13 @@
         <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -3439,7 +3442,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -3462,7 +3465,7 @@
         <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -3491,7 +3494,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -3520,13 +3523,13 @@
         <v>98</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F21" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -3555,7 +3558,7 @@
         <v>98</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G22" t="s">
         <v>104</v>
@@ -3581,7 +3584,7 @@
         <v>98</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -3607,7 +3610,7 @@
         <v>98</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -3633,7 +3636,7 @@
         <v>98</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -3656,7 +3659,7 @@
         <v>98</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3679,13 +3682,13 @@
         <v>98</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F27" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -3714,19 +3717,19 @@
         <v>98</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>660</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" t="s">
         <v>124</v>
-      </c>
-      <c r="J28" t="s">
-        <v>125</v>
       </c>
       <c r="K28">
         <v>60</v>
@@ -3734,28 +3737,28 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
         <v>126</v>
-      </c>
-      <c r="B29" t="s">
-        <v>127</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>660</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="K29">
         <v>80</v>
@@ -3763,16 +3766,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
         <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>98</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -3781,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J30" t="s">
         <v>36</v>
@@ -3789,16 +3792,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" t="s">
         <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>134</v>
       </c>
       <c r="C31" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -3807,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J31" t="s">
         <v>39</v>
@@ -3815,16 +3818,16 @@
     </row>
     <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" t="s">
         <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
       </c>
       <c r="C32" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -3833,33 +3836,33 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" t="s">
         <v>138</v>
-      </c>
-      <c r="K32" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" t="s">
         <v>140</v>
-      </c>
-      <c r="B33" t="s">
-        <v>141</v>
       </c>
       <c r="C33" t="s">
         <v>98</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E33" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F33" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -3870,22 +3873,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
         <v>142</v>
-      </c>
-      <c r="B34" t="s">
-        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F34" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -3894,33 +3897,33 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" t="s">
         <v>144</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>145</v>
-      </c>
-      <c r="K34" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
         <v>147</v>
-      </c>
-      <c r="B35" t="s">
-        <v>148</v>
       </c>
       <c r="C35" t="s">
         <v>98</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F35" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -3929,27 +3932,27 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J35" t="s">
         <v>149</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>150</v>
-      </c>
-      <c r="K35" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
         <v>152</v>
-      </c>
-      <c r="B36" t="s">
-        <v>153</v>
       </c>
       <c r="C36" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -3958,27 +3961,27 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J36" t="s">
         <v>154</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>155</v>
-      </c>
-      <c r="K36" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
         <v>157</v>
-      </c>
-      <c r="B37" t="s">
-        <v>158</v>
       </c>
       <c r="C37" t="s">
         <v>98</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -3987,27 +3990,27 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" t="s">
         <v>159</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>160</v>
-      </c>
-      <c r="K37" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
         <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>163</v>
       </c>
       <c r="C38" t="s">
         <v>98</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -4016,27 +4019,27 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" t="s">
         <v>164</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>165</v>
-      </c>
-      <c r="K38" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s">
         <v>167</v>
-      </c>
-      <c r="B39" t="s">
-        <v>168</v>
       </c>
       <c r="C39" t="s">
         <v>98</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -4045,33 +4048,33 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" t="s">
         <v>169</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>170</v>
-      </c>
-      <c r="K39" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
         <v>172</v>
-      </c>
-      <c r="B40" t="s">
-        <v>173</v>
       </c>
       <c r="C40" t="s">
         <v>98</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F40" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -4080,27 +4083,27 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" t="s">
         <v>174</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>175</v>
-      </c>
-      <c r="K40" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
         <v>177</v>
-      </c>
-      <c r="B41" t="s">
-        <v>178</v>
       </c>
       <c r="C41" t="s">
         <v>98</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -4109,7 +4112,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J41" t="s">
         <v>36</v>
@@ -4117,22 +4120,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" t="s">
         <v>180</v>
-      </c>
-      <c r="B42" t="s">
-        <v>181</v>
       </c>
       <c r="C42" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E42" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F42" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -4141,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J42" t="s">
         <v>39</v>
@@ -4149,16 +4152,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
         <v>182</v>
-      </c>
-      <c r="B43" t="s">
-        <v>183</v>
       </c>
       <c r="C43" t="s">
         <v>98</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -4167,27 +4170,27 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
+        <v>183</v>
+      </c>
+      <c r="J43" t="s">
         <v>184</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>185</v>
-      </c>
-      <c r="K43" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" t="s">
         <v>187</v>
-      </c>
-      <c r="B44" t="s">
-        <v>188</v>
       </c>
       <c r="C44" t="s">
         <v>98</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -4196,27 +4199,27 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
+        <v>188</v>
+      </c>
+      <c r="J44" t="s">
         <v>189</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>190</v>
-      </c>
-      <c r="K44" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
         <v>192</v>
-      </c>
-      <c r="B45" t="s">
-        <v>193</v>
       </c>
       <c r="C45" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G45" t="s">
         <v>11</v>
@@ -4225,27 +4228,27 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
+        <v>193</v>
+      </c>
+      <c r="J45" t="s">
         <v>194</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>195</v>
-      </c>
-      <c r="K45" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" t="s">
         <v>197</v>
-      </c>
-      <c r="B46" t="s">
-        <v>198</v>
       </c>
       <c r="C46" t="s">
         <v>98</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G46" t="s">
         <v>11</v>
@@ -4254,27 +4257,27 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" t="s">
         <v>199</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>200</v>
-      </c>
-      <c r="K46" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
         <v>202</v>
-      </c>
-      <c r="B47" t="s">
-        <v>203</v>
       </c>
       <c r="C47" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -4283,27 +4286,27 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
+        <v>203</v>
+      </c>
+      <c r="J47" t="s">
         <v>204</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>205</v>
-      </c>
-      <c r="K47" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
         <v>207</v>
-      </c>
-      <c r="B48" t="s">
-        <v>208</v>
       </c>
       <c r="C48" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -4312,27 +4315,27 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
+        <v>208</v>
+      </c>
+      <c r="J48" t="s">
         <v>209</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>210</v>
-      </c>
-      <c r="K48" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" t="s">
         <v>212</v>
-      </c>
-      <c r="B49" t="s">
-        <v>213</v>
       </c>
       <c r="C49" t="s">
         <v>98</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -4341,21 +4344,21 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>214</v>
+      </c>
+      <c r="B50" t="s">
         <v>215</v>
-      </c>
-      <c r="B50" t="s">
-        <v>216</v>
       </c>
       <c r="C50" t="s">
         <v>98</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -4364,21 +4367,21 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" t="s">
         <v>218</v>
-      </c>
-      <c r="B51" t="s">
-        <v>219</v>
       </c>
       <c r="C51" t="s">
         <v>98</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -4387,21 +4390,21 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
         <v>221</v>
-      </c>
-      <c r="B52" t="s">
-        <v>222</v>
       </c>
       <c r="C52" t="s">
         <v>98</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -4410,21 +4413,21 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>223</v>
+      </c>
+      <c r="B53" t="s">
         <v>224</v>
-      </c>
-      <c r="B53" t="s">
-        <v>225</v>
       </c>
       <c r="C53" t="s">
         <v>98</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -4433,21 +4436,21 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B54" t="s">
         <v>227</v>
-      </c>
-      <c r="B54" t="s">
-        <v>228</v>
       </c>
       <c r="C54" t="s">
         <v>98</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -4456,21 +4459,21 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" t="s">
         <v>230</v>
-      </c>
-      <c r="B55" t="s">
-        <v>231</v>
       </c>
       <c r="C55" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G55" t="s">
         <v>11</v>
@@ -4479,120 +4482,120 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
+        <v>231</v>
+      </c>
+      <c r="J55" t="s">
         <v>232</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>233</v>
-      </c>
-      <c r="K55" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" t="s">
         <v>235</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>236</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="J56" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" t="s">
         <v>240</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>241</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>242</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>243</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>244</v>
-      </c>
-      <c r="K57" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B58" t="s">
         <v>246</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>247</v>
       </c>
-      <c r="C58" t="s">
-        <v>242</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>248</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>249</v>
-      </c>
-      <c r="K58" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" t="s">
         <v>251</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>252</v>
-      </c>
-      <c r="C59" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G59" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>253</v>
       </c>
       <c r="J59" t="s">
         <v>36</v>
@@ -4600,22 +4603,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" t="s">
         <v>254</v>
       </c>
-      <c r="B60" t="s">
-        <v>255</v>
-      </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>242</v>
+        <v>515</v>
       </c>
       <c r="E60" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F60" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -4624,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J60" t="s">
         <v>39</v>
@@ -4632,89 +4635,89 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" t="s">
         <v>256</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>257</v>
       </c>
-      <c r="C61" t="s">
-        <v>242</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>258</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>259</v>
-      </c>
-      <c r="K61" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>260</v>
+      </c>
+      <c r="B62" t="s">
         <v>261</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>262</v>
       </c>
-      <c r="C62" t="s">
-        <v>242</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>263</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>264</v>
-      </c>
-      <c r="K62" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
         <v>266</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" t="s">
+        <v>536</v>
+      </c>
+      <c r="G63" t="s">
+        <v>660</v>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>267</v>
       </c>
-      <c r="C63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" t="s">
-        <v>537</v>
-      </c>
-      <c r="G63" t="s">
-        <v>123</v>
-      </c>
-      <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>268</v>
-      </c>
-      <c r="J63" t="s">
-        <v>269</v>
       </c>
       <c r="K63">
         <v>14</v>
@@ -4722,25 +4725,25 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64" t="s">
         <v>270</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>271</v>
-      </c>
-      <c r="C64" t="s">
-        <v>242</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>272</v>
       </c>
       <c r="J64" t="s">
         <v>36</v>
@@ -4748,16 +4751,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" t="s">
         <v>273</v>
       </c>
-      <c r="B65" t="s">
-        <v>274</v>
-      </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
@@ -4766,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J65" t="s">
         <v>39</v>
@@ -4774,115 +4777,115 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" t="s">
         <v>275</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
         <v>276</v>
       </c>
-      <c r="C66" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>277</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>278</v>
-      </c>
-      <c r="K66" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" t="s">
         <v>280</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
         <v>281</v>
       </c>
-      <c r="C67" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>282</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>283</v>
-      </c>
-      <c r="K67" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" t="s">
         <v>285</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>286</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E68" t="s">
+        <v>519</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
         <v>287</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="E68" t="s">
-        <v>520</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>288</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>289</v>
-      </c>
-      <c r="K68" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" t="s">
         <v>291</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>286</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G69" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
         <v>292</v>
-      </c>
-      <c r="C69" t="s">
-        <v>287</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G69" t="s">
-        <v>11</v>
-      </c>
-      <c r="H69" t="b">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
-        <v>293</v>
       </c>
       <c r="J69" t="s">
         <v>36</v>
@@ -4890,22 +4893,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>293</v>
+      </c>
+      <c r="B70" t="s">
         <v>294</v>
       </c>
-      <c r="B70" t="s">
-        <v>295</v>
-      </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E70" t="s">
         <v>516</v>
       </c>
-      <c r="E70" t="s">
-        <v>517</v>
-      </c>
       <c r="F70" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -4914,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J70" t="s">
         <v>39</v>
@@ -4922,60 +4925,60 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B71" t="s">
         <v>296</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E71" t="s">
+        <v>517</v>
+      </c>
+      <c r="F71" t="s">
+        <v>637</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
         <v>297</v>
       </c>
-      <c r="C71" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="E71" t="s">
-        <v>518</v>
-      </c>
-      <c r="F71" t="s">
-        <v>640</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>298</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>299</v>
-      </c>
-      <c r="K71" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>300</v>
+      </c>
+      <c r="B72" t="s">
         <v>301</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
         <v>302</v>
-      </c>
-      <c r="C72" t="s">
-        <v>287</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G72" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" t="b">
-        <v>1</v>
-      </c>
-      <c r="I72" t="s">
-        <v>303</v>
       </c>
       <c r="J72" t="s">
         <v>36</v>
@@ -4983,22 +4986,22 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" t="s">
         <v>304</v>
       </c>
-      <c r="B73" t="s">
-        <v>305</v>
-      </c>
       <c r="C73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E73" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F73" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5007,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J73" t="s">
         <v>39</v>
@@ -5015,16 +5018,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>305</v>
+      </c>
+      <c r="B74" t="s">
         <v>306</v>
       </c>
-      <c r="B74" t="s">
-        <v>307</v>
-      </c>
       <c r="C74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G74" t="s">
         <v>104</v>
@@ -5033,36 +5036,36 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
+        <v>307</v>
+      </c>
+      <c r="J74" t="s">
         <v>308</v>
-      </c>
-      <c r="J74" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" t="s">
         <v>310</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G75" t="s">
         <v>311</v>
       </c>
-      <c r="C75" t="s">
-        <v>287</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
         <v>312</v>
       </c>
-      <c r="H75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>313</v>
-      </c>
-      <c r="J75" t="s">
-        <v>314</v>
       </c>
       <c r="K75">
         <v>1000000</v>
@@ -5070,28 +5073,28 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>314</v>
+      </c>
+      <c r="B76" t="s">
         <v>315</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G76" t="s">
+        <v>311</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
         <v>316</v>
       </c>
-      <c r="C76" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G76" t="s">
-        <v>312</v>
-      </c>
-      <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>317</v>
-      </c>
-      <c r="J76" t="s">
-        <v>318</v>
       </c>
       <c r="K76">
         <v>50000</v>
@@ -5099,16 +5102,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" t="s">
         <v>319</v>
       </c>
-      <c r="B77" t="s">
-        <v>320</v>
-      </c>
       <c r="C77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G77" t="s">
         <v>104</v>
@@ -5117,10 +5120,10 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
+        <v>320</v>
+      </c>
+      <c r="J77" t="s">
         <v>321</v>
-      </c>
-      <c r="J77" t="s">
-        <v>322</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
@@ -5128,179 +5131,179 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>322</v>
+      </c>
+      <c r="B78" t="s">
         <v>323</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>286</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
         <v>324</v>
       </c>
-      <c r="C78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G78" t="s">
-        <v>11</v>
-      </c>
-      <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>325</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>326</v>
-      </c>
-      <c r="K78" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>327</v>
+      </c>
+      <c r="B79" t="s">
         <v>328</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G79" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
         <v>329</v>
       </c>
-      <c r="C79" t="s">
-        <v>287</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G79" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="b">
-        <v>1</v>
-      </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>330</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" t="s">
         <v>333</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>286</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
         <v>334</v>
       </c>
-      <c r="C80" t="s">
-        <v>287</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="G80" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="J80" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" t="s">
         <v>336</v>
-      </c>
-      <c r="K80" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" t="s">
         <v>338</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>339</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E81" t="s">
+        <v>526</v>
+      </c>
+      <c r="F81" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
         <v>340</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E81" t="s">
-        <v>527</v>
-      </c>
-      <c r="F81" t="s">
-        <v>630</v>
-      </c>
-      <c r="G81" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="J81" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" t="s">
         <v>342</v>
-      </c>
-      <c r="K81" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>343</v>
+      </c>
+      <c r="B82" t="s">
         <v>344</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>339</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
         <v>345</v>
       </c>
-      <c r="C82" t="s">
-        <v>340</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>346</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>347</v>
-      </c>
-      <c r="K82" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" t="s">
         <v>349</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>339</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G83" t="s">
+        <v>660</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
         <v>350</v>
       </c>
-      <c r="C83" t="s">
-        <v>340</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G83" t="s">
-        <v>123</v>
-      </c>
-      <c r="H83" t="b">
-        <v>1</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>351</v>
-      </c>
-      <c r="J83" t="s">
-        <v>352</v>
       </c>
       <c r="K83">
         <v>1000</v>
@@ -5308,25 +5311,25 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>352</v>
+      </c>
+      <c r="B84" t="s">
         <v>353</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>339</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G84" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
         <v>354</v>
-      </c>
-      <c r="C84" t="s">
-        <v>340</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G84" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
-        <v>355</v>
       </c>
       <c r="J84" t="s">
         <v>36</v>
@@ -5334,16 +5337,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85" t="s">
         <v>356</v>
       </c>
-      <c r="B85" t="s">
-        <v>357</v>
-      </c>
       <c r="C85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -5352,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J85" t="s">
         <v>39</v>
@@ -5360,313 +5363,313 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>357</v>
+      </c>
+      <c r="B86" t="s">
         <v>358</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E86" t="s">
+        <v>628</v>
+      </c>
+      <c r="F86" t="s">
+        <v>629</v>
+      </c>
+      <c r="G86" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
         <v>359</v>
       </c>
-      <c r="C86" t="s">
-        <v>340</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E86" t="s">
-        <v>631</v>
-      </c>
-      <c r="F86" t="s">
-        <v>632</v>
-      </c>
-      <c r="G86" t="s">
-        <v>11</v>
-      </c>
-      <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>360</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>361</v>
-      </c>
-      <c r="K86" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>362</v>
+      </c>
+      <c r="B87" t="s">
         <v>363</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>339</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
         <v>364</v>
       </c>
-      <c r="C87" t="s">
-        <v>340</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G87" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" t="b">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>365</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>366</v>
-      </c>
-      <c r="K87" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>367</v>
+      </c>
+      <c r="B88" t="s">
         <v>368</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
         <v>369</v>
       </c>
-      <c r="C88" t="s">
-        <v>340</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G88" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>370</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>371</v>
-      </c>
-      <c r="K88" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>372</v>
+      </c>
+      <c r="B89" t="s">
         <v>373</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>339</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E89" t="s">
+        <v>535</v>
+      </c>
+      <c r="F89" t="s">
+        <v>620</v>
+      </c>
+      <c r="G89" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
         <v>374</v>
       </c>
-      <c r="C89" t="s">
-        <v>340</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E89" t="s">
-        <v>536</v>
-      </c>
-      <c r="F89" t="s">
-        <v>623</v>
-      </c>
-      <c r="G89" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="J89" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" t="s">
         <v>376</v>
-      </c>
-      <c r="K89" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>377</v>
+      </c>
+      <c r="B90" t="s">
         <v>378</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E90" t="s">
+        <v>523</v>
+      </c>
+      <c r="F90" t="s">
+        <v>623</v>
+      </c>
+      <c r="G90" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
         <v>379</v>
       </c>
-      <c r="C90" t="s">
-        <v>340</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E90" t="s">
-        <v>524</v>
-      </c>
-      <c r="F90" t="s">
-        <v>626</v>
-      </c>
-      <c r="G90" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" t="b">
-        <v>1</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>380</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>381</v>
-      </c>
-      <c r="K90" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>382</v>
+      </c>
+      <c r="B91" t="s">
         <v>383</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>339</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E91" t="s">
+        <v>524</v>
+      </c>
+      <c r="F91" t="s">
+        <v>624</v>
+      </c>
+      <c r="G91" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
         <v>384</v>
       </c>
-      <c r="C91" t="s">
-        <v>340</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E91" t="s">
-        <v>525</v>
-      </c>
-      <c r="F91" t="s">
-        <v>627</v>
-      </c>
-      <c r="G91" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" t="b">
-        <v>1</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>385</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>386</v>
-      </c>
-      <c r="K91" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>387</v>
+      </c>
+      <c r="B92" t="s">
         <v>388</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>339</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G92" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
         <v>389</v>
       </c>
-      <c r="C92" t="s">
-        <v>340</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G92" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="J92" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" t="s">
         <v>391</v>
-      </c>
-      <c r="K92" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>392</v>
+      </c>
+      <c r="B93" t="s">
         <v>393</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>339</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G93" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
         <v>394</v>
       </c>
-      <c r="C93" t="s">
-        <v>340</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G93" t="s">
-        <v>11</v>
-      </c>
-      <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="s">
+      <c r="J93" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="K93" t="s">
         <v>396</v>
-      </c>
-      <c r="K93" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>397</v>
+      </c>
+      <c r="B94" t="s">
         <v>398</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>399</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G94" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
         <v>400</v>
       </c>
-      <c r="D94" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G94" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>401</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>402</v>
-      </c>
-      <c r="K94" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>403</v>
+      </c>
+      <c r="B95" t="s">
         <v>404</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>399</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G95" t="s">
+        <v>311</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
         <v>405</v>
       </c>
-      <c r="C95" t="s">
-        <v>400</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G95" t="s">
-        <v>312</v>
-      </c>
-      <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>406</v>
-      </c>
-      <c r="J95" t="s">
-        <v>407</v>
       </c>
       <c r="K95">
         <v>10365118</v>
@@ -5674,92 +5677,92 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>407</v>
+      </c>
+      <c r="B96" t="s">
         <v>408</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>399</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E96" t="s">
+        <v>525</v>
+      </c>
+      <c r="F96" t="s">
+        <v>626</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
         <v>409</v>
       </c>
-      <c r="C96" t="s">
-        <v>400</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E96" t="s">
-        <v>526</v>
-      </c>
-      <c r="F96" t="s">
-        <v>629</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" t="b">
-        <v>1</v>
-      </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>410</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>411</v>
-      </c>
-      <c r="K96" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>412</v>
+      </c>
+      <c r="B97" t="s">
         <v>413</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>399</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G97" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
         <v>414</v>
       </c>
-      <c r="C97" t="s">
-        <v>400</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G97" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>415</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>416</v>
-      </c>
-      <c r="K97" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>417</v>
+      </c>
+      <c r="B98" t="s">
         <v>418</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>399</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G98" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
         <v>419</v>
       </c>
-      <c r="C98" t="s">
-        <v>400</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G98" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="s">
-        <v>420</v>
-      </c>
       <c r="J98" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K98" s="2">
         <v>42720</v>
@@ -5767,147 +5770,147 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>420</v>
+      </c>
+      <c r="B99" t="s">
         <v>421</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>399</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="s">
         <v>422</v>
       </c>
-      <c r="C99" t="s">
-        <v>400</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G99" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>423</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>424</v>
-      </c>
-      <c r="K99" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>425</v>
+      </c>
+      <c r="B100" t="s">
         <v>426</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>399</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="s">
         <v>427</v>
       </c>
-      <c r="C100" t="s">
-        <v>400</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>428</v>
-      </c>
-      <c r="J100" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>429</v>
+      </c>
+      <c r="B101" t="s">
         <v>430</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>399</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
         <v>431</v>
       </c>
-      <c r="C101" t="s">
-        <v>400</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G101" t="s">
-        <v>11</v>
-      </c>
-      <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>432</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>433</v>
-      </c>
-      <c r="K101" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>434</v>
+      </c>
+      <c r="B102" t="s">
         <v>435</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>399</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G102" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
         <v>436</v>
       </c>
-      <c r="C102" t="s">
-        <v>400</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G102" t="s">
-        <v>11</v>
-      </c>
-      <c r="H102" t="b">
-        <v>1</v>
-      </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>437</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>438</v>
-      </c>
-      <c r="K102" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>439</v>
+      </c>
+      <c r="B103" t="s">
         <v>440</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>399</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="E103" t="s">
+        <v>522</v>
+      </c>
+      <c r="F103" t="s">
+        <v>625</v>
+      </c>
+      <c r="G103" t="s">
+        <v>311</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
         <v>441</v>
       </c>
-      <c r="C103" t="s">
-        <v>400</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="E103" t="s">
-        <v>523</v>
-      </c>
-      <c r="F103" t="s">
-        <v>628</v>
-      </c>
-      <c r="G103" t="s">
-        <v>312</v>
-      </c>
-      <c r="H103" t="b">
-        <v>1</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>442</v>
-      </c>
-      <c r="J103" t="s">
-        <v>443</v>
       </c>
       <c r="K103">
         <v>300</v>
@@ -5915,86 +5918,86 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>443</v>
+      </c>
+      <c r="B104" t="s">
         <v>444</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>399</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G104" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
         <v>445</v>
       </c>
-      <c r="C104" t="s">
-        <v>400</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G104" t="s">
-        <v>11</v>
-      </c>
-      <c r="H104" t="b">
-        <v>1</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>446</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>447</v>
-      </c>
-      <c r="K104" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>448</v>
+      </c>
+      <c r="B105" t="s">
         <v>449</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>399</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G105" t="s">
+        <v>11</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
         <v>450</v>
       </c>
-      <c r="C105" t="s">
-        <v>400</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G105" t="s">
-        <v>11</v>
-      </c>
-      <c r="H105" t="b">
-        <v>1</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>451</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>452</v>
-      </c>
-      <c r="K105" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>453</v>
+      </c>
+      <c r="B106" t="s">
         <v>454</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>399</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G106" t="s">
+        <v>311</v>
+      </c>
+      <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
         <v>455</v>
       </c>
-      <c r="C106" t="s">
-        <v>400</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G106" t="s">
-        <v>312</v>
-      </c>
-      <c r="H106" t="b">
-        <v>1</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>456</v>
-      </c>
-      <c r="J106" t="s">
-        <v>457</v>
       </c>
       <c r="K106">
         <v>300</v>
@@ -6002,42 +6005,42 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>457</v>
+      </c>
+      <c r="B107" t="s">
         <v>458</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>459</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
         <v>460</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H107" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>461</v>
-      </c>
-      <c r="J107" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>462</v>
+      </c>
+      <c r="B108" t="s">
         <v>463</v>
       </c>
-      <c r="B108" t="s">
-        <v>464</v>
-      </c>
       <c r="C108" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G108" t="s">
         <v>104</v>
@@ -6046,331 +6049,331 @@
         <v>1</v>
       </c>
       <c r="I108" t="s">
+        <v>464</v>
+      </c>
+      <c r="J108" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>466</v>
+      </c>
+      <c r="B109" t="s">
         <v>467</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>459</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
         <v>468</v>
       </c>
-      <c r="C109" t="s">
-        <v>460</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G109" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" t="b">
-        <v>1</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>469</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>470</v>
-      </c>
-      <c r="K109" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" t="s">
         <v>472</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>459</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G110" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
         <v>473</v>
       </c>
-      <c r="C110" t="s">
-        <v>460</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G110" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>474</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>475</v>
-      </c>
-      <c r="K110" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>476</v>
+      </c>
+      <c r="B111" t="s">
         <v>477</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>459</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G111" t="s">
+        <v>11</v>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
         <v>478</v>
       </c>
-      <c r="C111" t="s">
-        <v>460</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G111" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
         <v>479</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>480</v>
-      </c>
-      <c r="K111" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>481</v>
+      </c>
+      <c r="B112" t="s">
         <v>482</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>459</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G112" t="s">
+        <v>11</v>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
         <v>483</v>
       </c>
-      <c r="C112" t="s">
-        <v>460</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G112" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" t="b">
-        <v>1</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>484</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>485</v>
-      </c>
-      <c r="K112" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>486</v>
+      </c>
+      <c r="B113" t="s">
         <v>487</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>459</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G113" t="s">
+        <v>11</v>
+      </c>
+      <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="s">
         <v>488</v>
       </c>
-      <c r="C113" t="s">
-        <v>460</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G113" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" t="b">
-        <v>1</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>489</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>490</v>
-      </c>
-      <c r="K113" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>491</v>
+      </c>
+      <c r="B114" t="s">
         <v>492</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>459</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G114" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
         <v>493</v>
       </c>
-      <c r="C114" t="s">
-        <v>460</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G114" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" t="b">
-        <v>1</v>
-      </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>494</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>495</v>
-      </c>
-      <c r="K114" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>496</v>
+      </c>
+      <c r="B115" t="s">
         <v>497</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G115" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="s">
         <v>498</v>
-      </c>
-      <c r="C115" t="s">
-        <v>460</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G115" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" t="b">
-        <v>1</v>
-      </c>
-      <c r="I115" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>499</v>
+      </c>
+      <c r="B116" t="s">
         <v>500</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>459</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G116" t="s">
+        <v>11</v>
+      </c>
+      <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="s">
         <v>501</v>
       </c>
-      <c r="C116" t="s">
-        <v>460</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G116" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" t="b">
-        <v>1</v>
-      </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>502</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>503</v>
-      </c>
-      <c r="K116" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>504</v>
+      </c>
+      <c r="B117" t="s">
         <v>505</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>459</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G117" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="s">
         <v>506</v>
       </c>
-      <c r="C117" t="s">
-        <v>460</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="G117" t="s">
-        <v>11</v>
-      </c>
-      <c r="H117" t="b">
-        <v>1</v>
-      </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>507</v>
-      </c>
-      <c r="J117" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E118" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F118" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J118" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L118" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E119" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F119" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J119" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L119" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E120" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -6379,27 +6382,27 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
+        <v>558</v>
+      </c>
+      <c r="J120" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="J120" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="L120" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E121" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F121" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -6408,27 +6411,27 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
+        <v>560</v>
+      </c>
+      <c r="J121" t="s">
         <v>561</v>
       </c>
-      <c r="J121" t="s">
-        <v>562</v>
-      </c>
       <c r="L121" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>550</v>
+        <v>661</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E122" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F122" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -6437,53 +6440,53 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
+        <v>562</v>
+      </c>
+      <c r="J122" t="s">
         <v>563</v>
       </c>
-      <c r="J122" t="s">
-        <v>564</v>
-      </c>
       <c r="L122" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E123" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G123" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
       </c>
       <c r="I123" t="s">
+        <v>564</v>
+      </c>
+      <c r="J123" t="s">
         <v>565</v>
       </c>
-      <c r="J123" t="s">
-        <v>566</v>
-      </c>
       <c r="L123" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>550</v>
+        <v>663</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E124" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F124" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -6492,53 +6495,53 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J124" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L124" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E125" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F125" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H125" t="b">
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="J125" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="L125" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E126" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G126" t="s">
         <v>11</v>
@@ -6547,24 +6550,24 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
+        <v>567</v>
+      </c>
+      <c r="J126" t="s">
         <v>568</v>
       </c>
-      <c r="J126" t="s">
-        <v>569</v>
-      </c>
       <c r="L126" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D127" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E127" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G127" t="s">
         <v>11</v>
@@ -6573,24 +6576,24 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J127" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E128" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F128" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -6599,24 +6602,24 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J128" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L128" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E129" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
@@ -6625,21 +6628,21 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="J129" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E130" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -6648,21 +6651,21 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J130" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>550</v>
+        <v>662</v>
       </c>
       <c r="D131" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
@@ -6671,24 +6674,24 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J131" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="D132" t="s">
+        <v>581</v>
+      </c>
+      <c r="E132" t="s">
         <v>582</v>
       </c>
-      <c r="E132" t="s">
-        <v>550</v>
-      </c>
       <c r="F132" t="s">
-        <v>651</v>
+        <v>605</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -6697,13 +6700,13 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="J132" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="K132" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
@@ -6711,13 +6714,13 @@
         <v>583</v>
       </c>
       <c r="D133" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E133" t="s">
         <v>583</v>
       </c>
       <c r="F133" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -6740,13 +6743,13 @@
         <v>584</v>
       </c>
       <c r="D134" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E134" t="s">
         <v>584</v>
       </c>
       <c r="F134" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
@@ -6755,27 +6758,27 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J134" t="s">
-        <v>592</v>
-      </c>
-      <c r="K134" t="s">
-        <v>603</v>
+        <v>593</v>
+      </c>
+      <c r="K134">
+        <v>1.18</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="D135" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E135" t="s">
-        <v>585</v>
+        <v>608</v>
       </c>
       <c r="F135" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G135" t="s">
         <v>11</v>
@@ -6784,27 +6787,27 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="J135" t="s">
-        <v>594</v>
-      </c>
-      <c r="K135">
-        <v>1.18</v>
+        <v>643</v>
+      </c>
+      <c r="K135" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E136" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F136" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -6813,27 +6816,27 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="J136" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K136" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D137" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E137" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F137" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -6842,27 +6845,27 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="J137" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="K137" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="D138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E138" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="F138" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -6871,13 +6874,13 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="J138" t="s">
-        <v>644</v>
+        <v>594</v>
       </c>
       <c r="K138" t="s">
-        <v>645</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
@@ -6885,13 +6888,13 @@
         <v>586</v>
       </c>
       <c r="D139" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E139" t="s">
         <v>586</v>
       </c>
       <c r="F139" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -6905,8 +6908,8 @@
       <c r="J139" t="s">
         <v>595</v>
       </c>
-      <c r="K139" t="s">
-        <v>601</v>
+      <c r="K139">
+        <v>1.2</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
@@ -6914,13 +6917,13 @@
         <v>587</v>
       </c>
       <c r="D140" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E140" t="s">
         <v>587</v>
       </c>
       <c r="F140" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -6934,8 +6937,8 @@
       <c r="J140" t="s">
         <v>596</v>
       </c>
-      <c r="K140">
-        <v>1.2</v>
+      <c r="K140" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
@@ -6943,13 +6946,13 @@
         <v>588</v>
       </c>
       <c r="D141" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E141" t="s">
         <v>588</v>
       </c>
       <c r="F141" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
@@ -6963,8 +6966,8 @@
       <c r="J141" t="s">
         <v>597</v>
       </c>
-      <c r="K141" t="s">
-        <v>604</v>
+      <c r="K141">
+        <v>1.2</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
@@ -6972,89 +6975,61 @@
         <v>589</v>
       </c>
       <c r="D142" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E142" t="s">
         <v>589</v>
       </c>
       <c r="F142" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G142" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H142" t="b">
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="J142" t="s">
-        <v>598</v>
-      </c>
-      <c r="K142">
-        <v>1.2</v>
+        <v>650</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D143" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E143" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="F143" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G143" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="H143" t="b">
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="J143" t="s">
-        <v>654</v>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>599</v>
-      </c>
-      <c r="D144" t="s">
-        <v>582</v>
-      </c>
-      <c r="E144" t="s">
-        <v>599</v>
-      </c>
-      <c r="F144" t="s">
-        <v>622</v>
-      </c>
-      <c r="G144" t="s">
-        <v>11</v>
-      </c>
-      <c r="H144" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" t="s">
-        <v>600</v>
-      </c>
-      <c r="J144" t="s">
-        <v>655</v>
-      </c>
-      <c r="K144" t="s">
-        <v>607</v>
+        <v>651</v>
+      </c>
+      <c r="K143" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849D87B-A0E6-46E2-B61E-627ABA74717C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A0E5F8-B7C9-4B72-8B4D-168BF1886502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$L$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$O$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="672">
   <si>
     <t>structured_name</t>
   </si>
@@ -2044,6 +2044,30 @@
   </si>
   <si>
     <t>sample_name</t>
+  </si>
+  <si>
+    <t>display</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Organism ID</t>
+  </si>
+  <si>
+    <t>Organism label</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
@@ -2896,10 +2920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,12 +2933,12 @@
     <col min="3" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="35.42578125" customWidth="1"/>
-    <col min="10" max="10" width="148.28515625" customWidth="1"/>
-    <col min="11" max="11" width="58.42578125" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" customWidth="1"/>
+    <col min="13" max="13" width="148.28515625" customWidth="1"/>
+    <col min="14" max="14" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2937,22 +2961,31 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2969,16 +3002,25 @@
         <v>11</v>
       </c>
       <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>667</v>
+      </c>
+      <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2995,16 +3037,25 @@
         <v>11</v>
       </c>
       <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>668</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3021,16 +3072,25 @@
         <v>11</v>
       </c>
       <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>668</v>
+      </c>
+      <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3053,19 +3113,28 @@
         <v>11</v>
       </c>
       <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>667</v>
+      </c>
+      <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
+      <c r="N5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3082,19 +3151,28 @@
         <v>11</v>
       </c>
       <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>668</v>
+      </c>
+      <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3111,16 +3189,25 @@
         <v>11</v>
       </c>
       <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>668</v>
+      </c>
+      <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3137,16 +3224,25 @@
         <v>11</v>
       </c>
       <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>668</v>
+      </c>
+      <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3163,19 +3259,28 @@
         <v>11</v>
       </c>
       <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>668</v>
+      </c>
+      <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>42</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>43</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3192,19 +3297,28 @@
         <v>11</v>
       </c>
       <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>668</v>
+      </c>
+      <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
         <v>48</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3221,19 +3335,28 @@
         <v>11</v>
       </c>
       <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>668</v>
+      </c>
+      <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>52</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>53</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -3256,19 +3379,28 @@
         <v>11</v>
       </c>
       <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>668</v>
+      </c>
+      <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -3285,19 +3417,28 @@
         <v>11</v>
       </c>
       <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>668</v>
+      </c>
+      <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -3314,19 +3455,28 @@
         <v>11</v>
       </c>
       <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>668</v>
+      </c>
+      <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>67</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>68</v>
       </c>
-      <c r="K14" t="s">
+      <c r="N14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -3349,19 +3499,28 @@
         <v>11</v>
       </c>
       <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>668</v>
+      </c>
+      <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>72</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>73</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -3384,19 +3543,28 @@
         <v>11</v>
       </c>
       <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>668</v>
+      </c>
+      <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -3419,19 +3587,28 @@
         <v>11</v>
       </c>
       <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>668</v>
+      </c>
+      <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>82</v>
       </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
         <v>83</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -3450,11 +3627,20 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>668</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
@@ -3471,19 +3657,28 @@
         <v>11</v>
       </c>
       <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>668</v>
+      </c>
+      <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="2">
+      <c r="N19" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -3500,19 +3695,28 @@
         <v>11</v>
       </c>
       <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>668</v>
+      </c>
+      <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K20" s="2">
+      <c r="N20" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -3535,19 +3739,28 @@
         <v>11</v>
       </c>
       <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>667</v>
+      </c>
+      <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>99</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="s">
         <v>100</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -3564,16 +3777,25 @@
         <v>104</v>
       </c>
       <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>668</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>105</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>107</v>
       </c>
@@ -3590,16 +3812,25 @@
         <v>11</v>
       </c>
       <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>668</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>109</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -3616,16 +3847,25 @@
         <v>11</v>
       </c>
       <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>667</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>109</v>
       </c>
-      <c r="J24" t="s">
+      <c r="M24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -3642,13 +3882,25 @@
         <v>11</v>
       </c>
       <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>668</v>
+      </c>
+      <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
+        <v>669</v>
+      </c>
+      <c r="M25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -3665,13 +3917,25 @@
         <v>11</v>
       </c>
       <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>668</v>
+      </c>
+      <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
+        <v>670</v>
+      </c>
+      <c r="M26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -3694,19 +3958,28 @@
         <v>11</v>
       </c>
       <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>667</v>
+      </c>
+      <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>118</v>
       </c>
-      <c r="J27" t="s">
+      <c r="M27" t="s">
         <v>119</v>
       </c>
-      <c r="K27" t="s">
+      <c r="N27" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -3723,19 +3996,28 @@
         <v>660</v>
       </c>
       <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>667</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>123</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
         <v>124</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>125</v>
       </c>
@@ -3752,19 +4034,28 @@
         <v>660</v>
       </c>
       <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>667</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>127</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -3781,16 +4072,25 @@
         <v>11</v>
       </c>
       <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>667</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>131</v>
       </c>
-      <c r="J30" t="s">
+      <c r="M30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -3807,16 +4107,25 @@
         <v>11</v>
       </c>
       <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>667</v>
+      </c>
+      <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>131</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>134</v>
       </c>
@@ -3833,19 +4142,28 @@
         <v>11</v>
       </c>
       <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>668</v>
+      </c>
+      <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>136</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>139</v>
       </c>
@@ -3868,10 +4186,22 @@
         <v>11</v>
       </c>
       <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>667</v>
+      </c>
+      <c r="K33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>141</v>
       </c>
@@ -3894,19 +4224,28 @@
         <v>11</v>
       </c>
       <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>667</v>
+      </c>
+      <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>143</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
         <v>144</v>
       </c>
-      <c r="K34" t="s">
+      <c r="N34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -3929,19 +4268,28 @@
         <v>11</v>
       </c>
       <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>667</v>
+      </c>
+      <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>148</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
         <v>149</v>
       </c>
-      <c r="K35" t="s">
+      <c r="N35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>151</v>
       </c>
@@ -3958,19 +4306,28 @@
         <v>11</v>
       </c>
       <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>667</v>
+      </c>
+      <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>153</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
         <v>154</v>
       </c>
-      <c r="K36" t="s">
+      <c r="N36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -3987,19 +4344,28 @@
         <v>11</v>
       </c>
       <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>668</v>
+      </c>
+      <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>158</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
         <v>159</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -4016,19 +4382,28 @@
         <v>11</v>
       </c>
       <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>668</v>
+      </c>
+      <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>163</v>
       </c>
-      <c r="J38" t="s">
+      <c r="M38" t="s">
         <v>164</v>
       </c>
-      <c r="K38" t="s">
+      <c r="N38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4045,19 +4420,28 @@
         <v>11</v>
       </c>
       <c r="H39" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>668</v>
+      </c>
+      <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>168</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="s">
         <v>169</v>
       </c>
-      <c r="K39" t="s">
+      <c r="N39" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>171</v>
       </c>
@@ -4082,17 +4466,26 @@
       <c r="H40" t="b">
         <v>1</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>668</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
         <v>173</v>
       </c>
-      <c r="J40" t="s">
+      <c r="M40" t="s">
         <v>174</v>
       </c>
-      <c r="K40" t="s">
+      <c r="N40" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>176</v>
       </c>
@@ -4111,14 +4504,23 @@
       <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>668</v>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
         <v>178</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -4143,14 +4545,23 @@
       <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>668</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
         <v>178</v>
       </c>
-      <c r="J42" t="s">
+      <c r="M42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -4169,17 +4580,26 @@
       <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>668</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
         <v>183</v>
       </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
         <v>184</v>
       </c>
-      <c r="K43" t="s">
+      <c r="N43" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -4198,17 +4618,26 @@
       <c r="H44" t="b">
         <v>1</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>668</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
         <v>188</v>
       </c>
-      <c r="J44" t="s">
+      <c r="M44" t="s">
         <v>189</v>
       </c>
-      <c r="K44" t="s">
+      <c r="N44" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -4227,17 +4656,26 @@
       <c r="H45" t="b">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>668</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
         <v>193</v>
       </c>
-      <c r="J45" t="s">
+      <c r="M45" t="s">
         <v>194</v>
       </c>
-      <c r="K45" t="s">
+      <c r="N45" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>196</v>
       </c>
@@ -4256,17 +4694,26 @@
       <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>668</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
         <v>198</v>
       </c>
-      <c r="J46" t="s">
+      <c r="M46" t="s">
         <v>199</v>
       </c>
-      <c r="K46" t="s">
+      <c r="N46" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -4285,17 +4732,26 @@
       <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>668</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
         <v>203</v>
       </c>
-      <c r="J47" t="s">
+      <c r="M47" t="s">
         <v>204</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N47" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -4314,17 +4770,26 @@
       <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>668</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
         <v>208</v>
       </c>
-      <c r="J48" t="s">
+      <c r="M48" t="s">
         <v>209</v>
       </c>
-      <c r="K48" t="s">
+      <c r="N48" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>211</v>
       </c>
@@ -4343,11 +4808,20 @@
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
       <c r="J49" t="s">
+        <v>668</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>214</v>
       </c>
@@ -4366,11 +4840,20 @@
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
       <c r="J50" t="s">
+        <v>668</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>217</v>
       </c>
@@ -4387,13 +4870,22 @@
         <v>11</v>
       </c>
       <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
         <v>1</v>
       </c>
       <c r="J51" t="s">
+        <v>668</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>220</v>
       </c>
@@ -4410,13 +4902,22 @@
         <v>11</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>668</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>223</v>
       </c>
@@ -4433,13 +4934,22 @@
         <v>11</v>
       </c>
       <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
         <v>1</v>
       </c>
       <c r="J53" t="s">
+        <v>668</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>226</v>
       </c>
@@ -4456,13 +4966,22 @@
         <v>11</v>
       </c>
       <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="b">
         <v>1</v>
       </c>
       <c r="J54" t="s">
+        <v>668</v>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>229</v>
       </c>
@@ -4481,17 +5000,26 @@
       <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>668</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
         <v>231</v>
       </c>
-      <c r="J55" t="s">
+      <c r="M55" t="s">
         <v>232</v>
       </c>
-      <c r="K55" t="s">
+      <c r="N55" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>234</v>
       </c>
@@ -4510,14 +5038,23 @@
       <c r="H56" t="b">
         <v>1</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>668</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
         <v>237</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -4536,17 +5073,26 @@
       <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>668</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
         <v>242</v>
       </c>
-      <c r="J57" t="s">
+      <c r="M57" t="s">
         <v>243</v>
       </c>
-      <c r="K57" t="s">
+      <c r="N57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>245</v>
       </c>
@@ -4565,17 +5111,26 @@
       <c r="H58" t="b">
         <v>1</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>667</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
         <v>247</v>
       </c>
-      <c r="J58" t="s">
+      <c r="M58" t="s">
         <v>248</v>
       </c>
-      <c r="K58" t="s">
+      <c r="N58" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>250</v>
       </c>
@@ -4594,14 +5149,23 @@
       <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>667</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
         <v>252</v>
       </c>
-      <c r="J59" t="s">
+      <c r="M59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>253</v>
       </c>
@@ -4626,14 +5190,23 @@
       <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>667</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
         <v>252</v>
       </c>
-      <c r="J60" t="s">
+      <c r="M60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>255</v>
       </c>
@@ -4652,17 +5225,26 @@
       <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>668</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
         <v>257</v>
       </c>
-      <c r="J61" t="s">
+      <c r="M61" t="s">
         <v>258</v>
       </c>
-      <c r="K61" t="s">
+      <c r="N61" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>260</v>
       </c>
@@ -4681,17 +5263,26 @@
       <c r="H62" t="b">
         <v>1</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>668</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
         <v>262</v>
       </c>
-      <c r="J62" t="s">
+      <c r="M62" t="s">
         <v>263</v>
       </c>
-      <c r="K62" t="s">
+      <c r="N62" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>265</v>
       </c>
@@ -4713,17 +5304,26 @@
       <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>668</v>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
         <v>267</v>
       </c>
-      <c r="J63" t="s">
+      <c r="M63" t="s">
         <v>268</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>269</v>
       </c>
@@ -4742,14 +5342,23 @@
       <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>668</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
         <v>271</v>
       </c>
-      <c r="J64" t="s">
+      <c r="M64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>272</v>
       </c>
@@ -4768,14 +5377,23 @@
       <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>668</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
         <v>271</v>
       </c>
-      <c r="J65" t="s">
+      <c r="M65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>274</v>
       </c>
@@ -4794,17 +5412,26 @@
       <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>668</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
         <v>276</v>
       </c>
-      <c r="J66" t="s">
+      <c r="M66" t="s">
         <v>277</v>
       </c>
-      <c r="K66" t="s">
+      <c r="N66" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>279</v>
       </c>
@@ -4823,17 +5450,26 @@
       <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>668</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
         <v>281</v>
       </c>
-      <c r="J67" t="s">
+      <c r="M67" t="s">
         <v>282</v>
       </c>
-      <c r="K67" t="s">
+      <c r="N67" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>284</v>
       </c>
@@ -4855,17 +5491,26 @@
       <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>668</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
         <v>287</v>
       </c>
-      <c r="J68" t="s">
+      <c r="M68" t="s">
         <v>288</v>
       </c>
-      <c r="K68" t="s">
+      <c r="N68" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>290</v>
       </c>
@@ -4884,14 +5529,23 @@
       <c r="H69" t="b">
         <v>1</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>668</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
         <v>292</v>
       </c>
-      <c r="J69" t="s">
+      <c r="M69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -4916,14 +5570,23 @@
       <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>667</v>
+      </c>
+      <c r="K70" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
         <v>292</v>
       </c>
-      <c r="J70" t="s">
+      <c r="M70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>295</v>
       </c>
@@ -4948,17 +5611,26 @@
       <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>668</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
         <v>297</v>
       </c>
-      <c r="J71" t="s">
+      <c r="M71" t="s">
         <v>298</v>
       </c>
-      <c r="K71" t="s">
+      <c r="N71" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -4977,14 +5649,23 @@
       <c r="H72" t="b">
         <v>1</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>668</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
         <v>302</v>
       </c>
-      <c r="J72" t="s">
+      <c r="M72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>303</v>
       </c>
@@ -5009,14 +5690,23 @@
       <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>668</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
         <v>302</v>
       </c>
-      <c r="J73" t="s">
+      <c r="M73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -5035,14 +5725,23 @@
       <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>668</v>
+      </c>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
         <v>307</v>
       </c>
-      <c r="J74" t="s">
+      <c r="M74" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>309</v>
       </c>
@@ -5061,17 +5760,26 @@
       <c r="H75" t="b">
         <v>1</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>668</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
         <v>312</v>
       </c>
-      <c r="J75" t="s">
+      <c r="M75" t="s">
         <v>313</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>1000000</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>314</v>
       </c>
@@ -5090,17 +5798,26 @@
       <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>668</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
         <v>316</v>
       </c>
-      <c r="J76" t="s">
+      <c r="M76" t="s">
         <v>317</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>50000</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>318</v>
       </c>
@@ -5119,17 +5836,26 @@
       <c r="H77" t="b">
         <v>1</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>668</v>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
         <v>320</v>
       </c>
-      <c r="J77" t="s">
+      <c r="M77" t="s">
         <v>321</v>
       </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>322</v>
       </c>
@@ -5148,17 +5874,26 @@
       <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>668</v>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
         <v>324</v>
       </c>
-      <c r="J78" t="s">
+      <c r="M78" t="s">
         <v>325</v>
       </c>
-      <c r="K78" t="s">
+      <c r="N78" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>327</v>
       </c>
@@ -5177,17 +5912,26 @@
       <c r="H79" t="b">
         <v>1</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>668</v>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
         <v>329</v>
       </c>
-      <c r="J79" t="s">
+      <c r="M79" t="s">
         <v>330</v>
       </c>
-      <c r="K79" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -5206,17 +5950,26 @@
       <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>668</v>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
         <v>334</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K80" t="s">
+      <c r="N80" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>337</v>
       </c>
@@ -5241,17 +5994,26 @@
       <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>667</v>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
         <v>340</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="K81" t="s">
+      <c r="N81" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>343</v>
       </c>
@@ -5270,17 +6032,26 @@
       <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>668</v>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
         <v>345</v>
       </c>
-      <c r="J82" t="s">
+      <c r="M82" t="s">
         <v>346</v>
       </c>
-      <c r="K82" t="s">
+      <c r="N82" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>348</v>
       </c>
@@ -5299,17 +6070,26 @@
       <c r="H83" t="b">
         <v>1</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>668</v>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
         <v>350</v>
       </c>
-      <c r="J83" t="s">
+      <c r="M83" t="s">
         <v>351</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>352</v>
       </c>
@@ -5328,14 +6108,23 @@
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>668</v>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
         <v>354</v>
       </c>
-      <c r="J84" t="s">
+      <c r="M84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>355</v>
       </c>
@@ -5354,14 +6143,23 @@
       <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="s">
+        <v>668</v>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
         <v>354</v>
       </c>
-      <c r="J85" t="s">
+      <c r="M85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>357</v>
       </c>
@@ -5386,17 +6184,26 @@
       <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>668</v>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
         <v>359</v>
       </c>
-      <c r="J86" t="s">
+      <c r="M86" t="s">
         <v>360</v>
       </c>
-      <c r="K86" t="s">
+      <c r="N86" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>362</v>
       </c>
@@ -5415,17 +6222,26 @@
       <c r="H87" t="b">
         <v>1</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>668</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
         <v>364</v>
       </c>
-      <c r="J87" t="s">
+      <c r="M87" t="s">
         <v>365</v>
       </c>
-      <c r="K87" t="s">
+      <c r="N87" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>367</v>
       </c>
@@ -5444,17 +6260,26 @@
       <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>668</v>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
         <v>369</v>
       </c>
-      <c r="J88" t="s">
+      <c r="M88" t="s">
         <v>370</v>
       </c>
-      <c r="K88" t="s">
+      <c r="N88" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>372</v>
       </c>
@@ -5479,17 +6304,26 @@
       <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>667</v>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
         <v>374</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K89" t="s">
+      <c r="N89" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>377</v>
       </c>
@@ -5514,17 +6348,26 @@
       <c r="H90" t="b">
         <v>1</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>668</v>
+      </c>
+      <c r="K90" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
         <v>379</v>
       </c>
-      <c r="J90" t="s">
+      <c r="M90" t="s">
         <v>380</v>
       </c>
-      <c r="K90" t="s">
+      <c r="N90" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>382</v>
       </c>
@@ -5549,17 +6392,26 @@
       <c r="H91" t="b">
         <v>1</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>668</v>
+      </c>
+      <c r="K91" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
         <v>384</v>
       </c>
-      <c r="J91" t="s">
+      <c r="M91" t="s">
         <v>385</v>
       </c>
-      <c r="K91" t="s">
+      <c r="N91" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>387</v>
       </c>
@@ -5578,17 +6430,26 @@
       <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" t="s">
+        <v>668</v>
+      </c>
+      <c r="K92" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
         <v>389</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K92" t="s">
+      <c r="N92" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -5607,17 +6468,26 @@
       <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>668</v>
+      </c>
+      <c r="K93" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
         <v>394</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K93" t="s">
+      <c r="N93" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>397</v>
       </c>
@@ -5636,17 +6506,26 @@
       <c r="H94" t="b">
         <v>1</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>667</v>
+      </c>
+      <c r="K94" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
         <v>400</v>
       </c>
-      <c r="J94" t="s">
+      <c r="M94" t="s">
         <v>401</v>
       </c>
-      <c r="K94" t="s">
+      <c r="N94" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>403</v>
       </c>
@@ -5665,17 +6544,26 @@
       <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>667</v>
+      </c>
+      <c r="K95" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
         <v>405</v>
       </c>
-      <c r="J95" t="s">
+      <c r="M95" t="s">
         <v>406</v>
       </c>
-      <c r="K95">
+      <c r="N95">
         <v>10365118</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>407</v>
       </c>
@@ -5700,17 +6588,26 @@
       <c r="H96" t="b">
         <v>1</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>668</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
         <v>409</v>
       </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
         <v>410</v>
       </c>
-      <c r="K96" t="s">
+      <c r="N96" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>412</v>
       </c>
@@ -5729,17 +6626,26 @@
       <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>668</v>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
         <v>414</v>
       </c>
-      <c r="J97" t="s">
+      <c r="M97" t="s">
         <v>415</v>
       </c>
-      <c r="K97" t="s">
+      <c r="N97" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>417</v>
       </c>
@@ -5758,17 +6664,26 @@
       <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>667</v>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
         <v>419</v>
       </c>
-      <c r="J98" t="s">
+      <c r="M98" t="s">
         <v>419</v>
       </c>
-      <c r="K98" s="2">
+      <c r="N98" s="2">
         <v>42720</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>420</v>
       </c>
@@ -5787,17 +6702,26 @@
       <c r="H99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>668</v>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
         <v>422</v>
       </c>
-      <c r="J99" t="s">
+      <c r="M99" t="s">
         <v>423</v>
       </c>
-      <c r="K99" t="s">
+      <c r="N99" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>425</v>
       </c>
@@ -5816,14 +6740,23 @@
       <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" t="b">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>668</v>
+      </c>
+      <c r="K100" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
         <v>427</v>
       </c>
-      <c r="J100" t="s">
+      <c r="M100" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>429</v>
       </c>
@@ -5842,17 +6775,26 @@
       <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>668</v>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
         <v>431</v>
       </c>
-      <c r="J101" t="s">
+      <c r="M101" t="s">
         <v>432</v>
       </c>
-      <c r="K101" t="s">
+      <c r="N101" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>434</v>
       </c>
@@ -5871,17 +6813,26 @@
       <c r="H102" t="b">
         <v>1</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>667</v>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
         <v>436</v>
       </c>
-      <c r="J102" t="s">
+      <c r="M102" t="s">
         <v>437</v>
       </c>
-      <c r="K102" t="s">
+      <c r="N102" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>439</v>
       </c>
@@ -5906,17 +6857,26 @@
       <c r="H103" t="b">
         <v>1</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>668</v>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
         <v>441</v>
       </c>
-      <c r="J103" t="s">
+      <c r="M103" t="s">
         <v>442</v>
       </c>
-      <c r="K103">
+      <c r="N103">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>443</v>
       </c>
@@ -5935,17 +6895,26 @@
       <c r="H104" t="b">
         <v>1</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" t="b">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>668</v>
+      </c>
+      <c r="K104" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
         <v>445</v>
       </c>
-      <c r="J104" t="s">
+      <c r="M104" t="s">
         <v>446</v>
       </c>
-      <c r="K104" t="s">
+      <c r="N104" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>448</v>
       </c>
@@ -5964,17 +6933,26 @@
       <c r="H105" t="b">
         <v>1</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" t="b">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>668</v>
+      </c>
+      <c r="K105" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
         <v>450</v>
       </c>
-      <c r="J105" t="s">
+      <c r="M105" t="s">
         <v>451</v>
       </c>
-      <c r="K105" t="s">
+      <c r="N105" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>453</v>
       </c>
@@ -5993,17 +6971,26 @@
       <c r="H106" t="b">
         <v>1</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>668</v>
+      </c>
+      <c r="K106" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
         <v>455</v>
       </c>
-      <c r="J106" t="s">
+      <c r="M106" t="s">
         <v>456</v>
       </c>
-      <c r="K106">
+      <c r="N106">
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>457</v>
       </c>
@@ -6022,14 +7009,23 @@
       <c r="H107" t="b">
         <v>1</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>668</v>
+      </c>
+      <c r="K107" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
         <v>460</v>
       </c>
-      <c r="J107" t="s">
+      <c r="M107" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>462</v>
       </c>
@@ -6048,14 +7044,23 @@
       <c r="H108" t="b">
         <v>1</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>668</v>
+      </c>
+      <c r="K108" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
         <v>464</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>466</v>
       </c>
@@ -6074,17 +7079,26 @@
       <c r="H109" t="b">
         <v>1</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" t="b">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>668</v>
+      </c>
+      <c r="K109" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
         <v>468</v>
       </c>
-      <c r="J109" t="s">
+      <c r="M109" t="s">
         <v>469</v>
       </c>
-      <c r="K109" t="s">
+      <c r="N109" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>471</v>
       </c>
@@ -6103,17 +7117,26 @@
       <c r="H110" t="b">
         <v>1</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>668</v>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
         <v>473</v>
       </c>
-      <c r="J110" t="s">
+      <c r="M110" t="s">
         <v>474</v>
       </c>
-      <c r="K110" t="s">
+      <c r="N110" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>476</v>
       </c>
@@ -6132,17 +7155,26 @@
       <c r="H111" t="b">
         <v>1</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>668</v>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
         <v>478</v>
       </c>
-      <c r="J111" t="s">
+      <c r="M111" t="s">
         <v>479</v>
       </c>
-      <c r="K111" t="s">
+      <c r="N111" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>481</v>
       </c>
@@ -6161,17 +7193,26 @@
       <c r="H112" t="b">
         <v>1</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>668</v>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
         <v>483</v>
       </c>
-      <c r="J112" t="s">
+      <c r="M112" t="s">
         <v>484</v>
       </c>
-      <c r="K112" t="s">
+      <c r="N112" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>486</v>
       </c>
@@ -6190,17 +7231,26 @@
       <c r="H113" t="b">
         <v>1</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>668</v>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
         <v>488</v>
       </c>
-      <c r="J113" t="s">
+      <c r="M113" t="s">
         <v>489</v>
       </c>
-      <c r="K113" t="s">
+      <c r="N113" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>491</v>
       </c>
@@ -6219,17 +7269,26 @@
       <c r="H114" t="b">
         <v>1</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>668</v>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
         <v>493</v>
       </c>
-      <c r="J114" t="s">
+      <c r="M114" t="s">
         <v>494</v>
       </c>
-      <c r="K114" t="s">
+      <c r="N114" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>496</v>
       </c>
@@ -6248,11 +7307,20 @@
       <c r="H115" t="b">
         <v>1</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>668</v>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>499</v>
       </c>
@@ -6271,17 +7339,26 @@
       <c r="H116" t="b">
         <v>1</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>668</v>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
         <v>501</v>
       </c>
-      <c r="J116" t="s">
+      <c r="M116" t="s">
         <v>502</v>
       </c>
-      <c r="K116" t="s">
+      <c r="N116" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>504</v>
       </c>
@@ -6300,14 +7377,23 @@
       <c r="H117" t="b">
         <v>1</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>668</v>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
         <v>506</v>
       </c>
-      <c r="J117" t="s">
+      <c r="M117" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>545</v>
       </c>
@@ -6324,19 +7410,28 @@
         <v>311</v>
       </c>
       <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>667</v>
+      </c>
+      <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="I118" t="s">
+      <c r="L118" t="s">
         <v>556</v>
       </c>
-      <c r="J118" t="s">
+      <c r="M118" t="s">
         <v>554</v>
       </c>
-      <c r="L118" t="s">
+      <c r="O118" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>546</v>
       </c>
@@ -6353,19 +7448,28 @@
         <v>311</v>
       </c>
       <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>667</v>
+      </c>
+      <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="I119" t="s">
+      <c r="L119" t="s">
         <v>557</v>
       </c>
-      <c r="J119" t="s">
+      <c r="M119" t="s">
         <v>555</v>
       </c>
-      <c r="L119" t="s">
+      <c r="O119" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>547</v>
       </c>
@@ -6379,19 +7483,28 @@
         <v>11</v>
       </c>
       <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>668</v>
+      </c>
+      <c r="K120" t="b">
         <v>0</v>
       </c>
-      <c r="I120" t="s">
+      <c r="L120" t="s">
         <v>558</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="M120" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="L120" t="s">
+      <c r="O120" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>548</v>
       </c>
@@ -6408,19 +7521,28 @@
         <v>11</v>
       </c>
       <c r="H121" t="b">
+        <v>1</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>668</v>
+      </c>
+      <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="I121" t="s">
+      <c r="L121" t="s">
         <v>560</v>
       </c>
-      <c r="J121" t="s">
+      <c r="M121" t="s">
         <v>561</v>
       </c>
-      <c r="L121" t="s">
+      <c r="O121" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>661</v>
       </c>
@@ -6437,19 +7559,28 @@
         <v>11</v>
       </c>
       <c r="H122" t="b">
+        <v>1</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>667</v>
+      </c>
+      <c r="K122" t="b">
         <v>0</v>
       </c>
-      <c r="I122" t="s">
+      <c r="L122" t="s">
         <v>562</v>
       </c>
-      <c r="J122" t="s">
+      <c r="M122" t="s">
         <v>563</v>
       </c>
-      <c r="L122" t="s">
+      <c r="O122" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>550</v>
       </c>
@@ -6465,17 +7596,26 @@
       <c r="H123" t="b">
         <v>0</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>667</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
         <v>564</v>
       </c>
-      <c r="J123" t="s">
+      <c r="M123" t="s">
         <v>565</v>
       </c>
-      <c r="L123" t="s">
+      <c r="O123" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>663</v>
       </c>
@@ -6492,19 +7632,28 @@
         <v>11</v>
       </c>
       <c r="H124" t="b">
+        <v>1</v>
+      </c>
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>667</v>
+      </c>
+      <c r="K124" t="b">
         <v>0</v>
       </c>
-      <c r="I124" t="s">
+      <c r="L124" t="s">
         <v>571</v>
       </c>
-      <c r="J124" t="s">
+      <c r="M124" t="s">
         <v>566</v>
       </c>
-      <c r="L124" t="s">
+      <c r="O124" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>552</v>
       </c>
@@ -6521,19 +7670,28 @@
         <v>311</v>
       </c>
       <c r="H125" t="b">
+        <v>1</v>
+      </c>
+      <c r="I125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>667</v>
+      </c>
+      <c r="K125" t="b">
         <v>0</v>
       </c>
-      <c r="I125" t="s">
+      <c r="L125" t="s">
         <v>648</v>
       </c>
-      <c r="J125" t="s">
+      <c r="M125" t="s">
         <v>649</v>
       </c>
-      <c r="L125" t="s">
+      <c r="O125" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>553</v>
       </c>
@@ -6547,19 +7705,28 @@
         <v>11</v>
       </c>
       <c r="H126" t="b">
+        <v>1</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>668</v>
+      </c>
+      <c r="K126" t="b">
         <v>0</v>
       </c>
-      <c r="I126" t="s">
+      <c r="L126" t="s">
         <v>567</v>
       </c>
-      <c r="J126" t="s">
+      <c r="M126" t="s">
         <v>568</v>
       </c>
-      <c r="L126" t="s">
+      <c r="O126" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>652</v>
       </c>
@@ -6573,16 +7740,25 @@
         <v>11</v>
       </c>
       <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>668</v>
+      </c>
+      <c r="K127" t="b">
         <v>0</v>
       </c>
-      <c r="I127" t="s">
+      <c r="L127" t="s">
         <v>653</v>
       </c>
-      <c r="J127" t="s">
+      <c r="M127" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>572</v>
       </c>
@@ -6599,19 +7775,28 @@
         <v>11</v>
       </c>
       <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>668</v>
+      </c>
+      <c r="K128" t="b">
         <v>0</v>
       </c>
-      <c r="I128" t="s">
+      <c r="L128" t="s">
         <v>569</v>
       </c>
-      <c r="J128" t="s">
+      <c r="M128" t="s">
         <v>569</v>
       </c>
-      <c r="L128" t="s">
+      <c r="O128" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>655</v>
       </c>
@@ -6627,14 +7812,23 @@
       <c r="H129" t="b">
         <v>0</v>
       </c>
-      <c r="I129" t="s">
+      <c r="I129" t="b">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>668</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
         <v>656</v>
       </c>
-      <c r="J129" t="s">
+      <c r="M129" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>658</v>
       </c>
@@ -6650,14 +7844,23 @@
       <c r="H130" t="b">
         <v>0</v>
       </c>
-      <c r="I130" t="s">
+      <c r="I130" t="b">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>668</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
         <v>567</v>
       </c>
-      <c r="J130" t="s">
+      <c r="M130" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>662</v>
       </c>
@@ -6671,16 +7874,25 @@
         <v>11</v>
       </c>
       <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>667</v>
+      </c>
+      <c r="K131" t="b">
         <v>0</v>
       </c>
-      <c r="I131" t="s">
+      <c r="L131" t="s">
         <v>570</v>
       </c>
-      <c r="J131" t="s">
+      <c r="M131" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>582</v>
       </c>
@@ -6697,19 +7909,28 @@
         <v>11</v>
       </c>
       <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>668</v>
+      </c>
+      <c r="K132" t="b">
         <v>0</v>
       </c>
-      <c r="I132" t="s">
+      <c r="L132" t="s">
         <v>590</v>
       </c>
-      <c r="J132" t="s">
+      <c r="M132" t="s">
         <v>590</v>
       </c>
-      <c r="K132" t="s">
+      <c r="N132" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>583</v>
       </c>
@@ -6726,19 +7947,28 @@
         <v>11</v>
       </c>
       <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="s">
+        <v>668</v>
+      </c>
+      <c r="K133" t="b">
         <v>0</v>
       </c>
-      <c r="I133" t="s">
+      <c r="L133" t="s">
         <v>591</v>
       </c>
-      <c r="J133" t="s">
+      <c r="M133" t="s">
         <v>591</v>
       </c>
-      <c r="K133" t="s">
+      <c r="N133" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>584</v>
       </c>
@@ -6755,19 +7985,28 @@
         <v>11</v>
       </c>
       <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>668</v>
+      </c>
+      <c r="K134" t="b">
         <v>0</v>
       </c>
-      <c r="I134" t="s">
+      <c r="L134" t="s">
         <v>593</v>
       </c>
-      <c r="J134" t="s">
+      <c r="M134" t="s">
         <v>593</v>
       </c>
-      <c r="K134">
+      <c r="N134">
         <v>1.18</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>608</v>
       </c>
@@ -6784,19 +8023,28 @@
         <v>11</v>
       </c>
       <c r="H135" t="b">
+        <v>1</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>668</v>
+      </c>
+      <c r="K135" t="b">
         <v>0</v>
       </c>
-      <c r="I135" t="s">
+      <c r="L135" t="s">
         <v>643</v>
       </c>
-      <c r="J135" t="s">
+      <c r="M135" t="s">
         <v>643</v>
       </c>
-      <c r="K135" t="s">
+      <c r="N135" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>609</v>
       </c>
@@ -6813,19 +8061,28 @@
         <v>11</v>
       </c>
       <c r="H136" t="b">
+        <v>1</v>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>668</v>
+      </c>
+      <c r="K136" t="b">
         <v>0</v>
       </c>
-      <c r="I136" t="s">
+      <c r="L136" t="s">
         <v>644</v>
       </c>
-      <c r="J136" t="s">
+      <c r="M136" t="s">
         <v>644</v>
       </c>
-      <c r="K136" t="s">
+      <c r="N136" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>610</v>
       </c>
@@ -6842,19 +8099,28 @@
         <v>11</v>
       </c>
       <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>668</v>
+      </c>
+      <c r="K137" t="b">
         <v>0</v>
       </c>
-      <c r="I137" t="s">
+      <c r="L137" t="s">
         <v>641</v>
       </c>
-      <c r="J137" t="s">
+      <c r="M137" t="s">
         <v>641</v>
       </c>
-      <c r="K137" t="s">
+      <c r="N137" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>585</v>
       </c>
@@ -6871,19 +8137,28 @@
         <v>11</v>
       </c>
       <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>668</v>
+      </c>
+      <c r="K138" t="b">
         <v>0</v>
       </c>
-      <c r="I138" t="s">
+      <c r="L138" t="s">
         <v>594</v>
       </c>
-      <c r="J138" t="s">
+      <c r="M138" t="s">
         <v>594</v>
       </c>
-      <c r="K138" t="s">
+      <c r="N138" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>586</v>
       </c>
@@ -6900,19 +8175,28 @@
         <v>11</v>
       </c>
       <c r="H139" t="b">
+        <v>1</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>668</v>
+      </c>
+      <c r="K139" t="b">
         <v>0</v>
       </c>
-      <c r="I139" t="s">
+      <c r="L139" t="s">
         <v>595</v>
       </c>
-      <c r="J139" t="s">
+      <c r="M139" t="s">
         <v>595</v>
       </c>
-      <c r="K139">
+      <c r="N139">
         <v>1.2</v>
       </c>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>587</v>
       </c>
@@ -6929,19 +8213,28 @@
         <v>11</v>
       </c>
       <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>668</v>
+      </c>
+      <c r="K140" t="b">
         <v>0</v>
       </c>
-      <c r="I140" t="s">
+      <c r="L140" t="s">
         <v>596</v>
       </c>
-      <c r="J140" t="s">
+      <c r="M140" t="s">
         <v>596</v>
       </c>
-      <c r="K140" t="s">
+      <c r="N140" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>588</v>
       </c>
@@ -6958,19 +8251,28 @@
         <v>11</v>
       </c>
       <c r="H141" t="b">
+        <v>1</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>668</v>
+      </c>
+      <c r="K141" t="b">
         <v>0</v>
       </c>
-      <c r="I141" t="s">
+      <c r="L141" t="s">
         <v>597</v>
       </c>
-      <c r="J141" t="s">
+      <c r="M141" t="s">
         <v>597</v>
       </c>
-      <c r="K141">
+      <c r="N141">
         <v>1.2</v>
       </c>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>589</v>
       </c>
@@ -6987,19 +8289,28 @@
         <v>104</v>
       </c>
       <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>668</v>
+      </c>
+      <c r="K142" t="b">
         <v>0</v>
       </c>
-      <c r="I142" t="s">
+      <c r="L142" t="s">
         <v>592</v>
       </c>
-      <c r="J142" t="s">
+      <c r="M142" t="s">
         <v>650</v>
       </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>598</v>
       </c>
@@ -7016,20 +8327,29 @@
         <v>11</v>
       </c>
       <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>667</v>
+      </c>
+      <c r="K143" t="b">
         <v>0</v>
       </c>
-      <c r="I143" t="s">
+      <c r="L143" t="s">
         <v>599</v>
       </c>
-      <c r="J143" t="s">
+      <c r="M143" t="s">
         <v>651</v>
       </c>
-      <c r="K143" t="s">
+      <c r="N143" t="s">
         <v>604</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A0E5F8-B7C9-4B72-8B4D-168BF1886502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE95A187-C5E0-4F54-904C-36A9D455C67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$O$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$O$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="684">
   <si>
     <t>structured_name</t>
   </si>
@@ -179,9 +179,6 @@
     <t>inclusion_exclusion_criteria</t>
   </si>
   <si>
-    <t>Study inclusion/exclusion criteria</t>
-  </si>
-  <si>
     <t>List of criteria for inclusion/exclusion for the study</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>collected_by</t>
   </si>
   <si>
-    <t>Contact information (data collection)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full contact information of the data collector, i.e. the person who is legally responsible for data collection and release. This should include an e-mail address.
 </t>
   </si>
@@ -271,9 +265,6 @@
     <t>submitted_by</t>
   </si>
   <si>
-    <t>Contact information (data deposition)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Full contact information of the data depositor, i.e. the person submitting the data to a repository. This is supposed to be a short-lived and technical role until the submission is relased.
 </t>
   </si>
@@ -624,9 +615,6 @@
     <t>prior_therapies</t>
   </si>
   <si>
-    <t>Prior therapies for primary disease under study</t>
-  </si>
-  <si>
     <t>List of all relevant previous therapies applied to subject for treatment of `Diagnosis`</t>
   </si>
   <si>
@@ -994,9 +982,6 @@
     <t>cells_per_reaction</t>
   </si>
   <si>
-    <t>Number of cells per sequencing reaction</t>
-  </si>
-  <si>
     <t>Number of cells for each biological replicate</t>
   </si>
   <si>
@@ -1031,9 +1016,6 @@
   </si>
   <si>
     <t>cell_isolation</t>
-  </si>
-  <si>
-    <t>Cell isolation / enrichment procedure</t>
   </si>
   <si>
     <t>Description of the procedure used for marker-based isolation or enrich cells</t>
@@ -1111,9 +1093,6 @@
     <t>template_amount_unit.id</t>
   </si>
   <si>
-    <t>Template amount time unit</t>
-  </si>
-  <si>
     <t>Repertoire.sample.NucleicAcidProcessing.template_amount_unit.label</t>
   </si>
   <si>
@@ -1187,9 +1166,6 @@
     <t>forward_pcr_primer_target_location</t>
   </si>
   <si>
-    <t>Forward PCR primer target location</t>
-  </si>
-  <si>
     <t>Position of the most distal nucleotide templated by the forward primer or primer mix</t>
   </si>
   <si>
@@ -1200,9 +1176,6 @@
   </si>
   <si>
     <t>reverse_pcr_primer_target_location</t>
-  </si>
-  <si>
-    <t>Reverse PCR primer target location</t>
   </si>
   <si>
     <t>Position of the most proximal nucleotide templated by the reverse primer or primer mix</t>
@@ -1233,9 +1206,6 @@
     <t>physical_linkage</t>
   </si>
   <si>
-    <t>Physical linkage of different rearrangements</t>
-  </si>
-  <si>
     <t xml:space="preserve">In case an experimental setup is used that physically links nucleic acids derived from distinct `Rearrangements` before library preparation, this field describes the mode of that linkage. All `hetero_*` terms indicate that in case of paired-read sequencing, the two reads should be expected to map to distinct IG/TR loci. `*_head-head` refers to techniques that link the 5' ends of transcripts in a single-cell context. `*_tail-head` refers to techniques that link the 3' end of one transcript to the 5' end of another one in a single-cell context. This term does not provide any information whether a continuous reading-frame between the two is generated. `*_prelinked` refers to constructs in which the linkage was already present on the DNA level (e.g. scFv).
 </t>
   </si>
@@ -1387,9 +1357,6 @@
     <t>paired_filename</t>
   </si>
   <si>
-    <t>Paired raw sequencing data file name</t>
-  </si>
-  <si>
     <t>File name for the second file in paired-read sequencing</t>
   </si>
   <si>
@@ -1457,9 +1424,6 @@
     <t>software_versions</t>
   </si>
   <si>
-    <t>Software tools and version numbers</t>
-  </si>
-  <si>
     <t>Version number and / or date, include company pipelines</t>
   </si>
   <si>
@@ -1554,9 +1518,6 @@
   </si>
   <si>
     <t>germline_database</t>
-  </si>
-  <si>
-    <t>V(D)J germline reference database</t>
   </si>
   <si>
     <t>Source of germline V(D)J genes with version number or date accessed.</t>
@@ -1758,9 +1719,6 @@
     <t>Genotype report</t>
   </si>
   <si>
-    <t>Link to genotype report</t>
-  </si>
-  <si>
     <t>Sample group</t>
   </si>
   <si>
@@ -2064,10 +2022,88 @@
     <t>Organism ID</t>
   </si>
   <si>
-    <t>Organism label</t>
-  </si>
-  <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>Paired file name</t>
+  </si>
+  <si>
+    <t>Cell subset ID</t>
+  </si>
+  <si>
+    <t>Cell species ID</t>
+  </si>
+  <si>
+    <t>Study type ID</t>
+  </si>
+  <si>
+    <t>Species ID</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Age unit ID</t>
+  </si>
+  <si>
+    <t>Tissue ID</t>
+  </si>
+  <si>
+    <t>Inclusion/exclusion criteria</t>
+  </si>
+  <si>
+    <t>Contact  (data collection)</t>
+  </si>
+  <si>
+    <t>Contact  (data deposition)</t>
+  </si>
+  <si>
+    <t>Prior therapies</t>
+  </si>
+  <si>
+    <t>Cells per  replicate</t>
+  </si>
+  <si>
+    <t>Fwd PCR primer target</t>
+  </si>
+  <si>
+    <t>Rev PCR primer target</t>
+  </si>
+  <si>
+    <t>Physical linkage</t>
+  </si>
+  <si>
+    <t>Software tools</t>
+  </si>
+  <si>
+    <t>V(D)J germline reference</t>
+  </si>
+  <si>
+    <t>Isolation / enrichment</t>
+  </si>
+  <si>
+    <t>haplotype</t>
+  </si>
+  <si>
+    <t>Haplotype reports</t>
+  </si>
+  <si>
+    <t>Links to genotype reports</t>
+  </si>
+  <si>
+    <t>Links to haplotype reports</t>
+  </si>
+  <si>
+    <t>genotypes</t>
+  </si>
+  <si>
+    <t>haplotypes</t>
+  </si>
+  <si>
+    <t>Template amount unit ID</t>
+  </si>
+  <si>
+    <t>Template amount unit</t>
   </si>
 </sst>
 </file>
@@ -2920,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49:H54"/>
+    <sheetView tabSelected="1" topLeftCell="F70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,25 +2985,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
@@ -2982,7 +3018,7 @@
         <v>7</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -2996,7 +3032,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -3008,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -3031,7 +3067,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -3043,7 +3079,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -3066,7 +3102,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -3078,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -3101,13 +3137,13 @@
         <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E5" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="F5" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -3119,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -3145,7 +3181,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -3157,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -3183,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -3195,13 +3231,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>660</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
@@ -3218,7 +3254,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -3230,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -3253,7 +3289,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -3265,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -3291,7 +3327,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -3303,33 +3339,33 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
       <c r="L10" t="s">
+        <v>665</v>
+      </c>
+      <c r="M10" t="s">
         <v>47</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
         <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -3341,39 +3377,39 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
       <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>53</v>
-      </c>
-      <c r="N11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E12" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F12" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -3385,33 +3421,33 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
       <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" t="s">
         <v>58</v>
-      </c>
-      <c r="N12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -3423,33 +3459,33 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
       <c r="L13" t="s">
+        <v>666</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" t="s">
         <v>62</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -3461,39 +3497,39 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
       <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" t="s">
         <v>67</v>
-      </c>
-      <c r="M14" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="F15" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -3505,39 +3541,39 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
       <c r="L15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" t="s">
         <v>72</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E16" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F16" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -3549,39 +3585,39 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>77</v>
+        <v>667</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E17" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F17" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -3593,33 +3629,33 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -3631,27 +3667,27 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -3663,16 +3699,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N19" s="2">
         <v>44229</v>
@@ -3680,16 +3716,16 @@
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -3701,16 +3737,16 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N20" s="2">
         <v>44229</v>
@@ -3718,22 +3754,22 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E21" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="F21" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G21" t="s">
         <v>11</v>
@@ -3745,36 +3781,36 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
@@ -3783,30 +3819,30 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G23" t="s">
         <v>11</v>
@@ -3818,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>109</v>
+        <v>661</v>
       </c>
       <c r="M23" t="s">
         <v>36</v>
@@ -3832,16 +3868,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G24" t="s">
         <v>11</v>
@@ -3853,13 +3889,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>109</v>
+        <v>662</v>
       </c>
       <c r="M24" t="s">
         <v>39</v>
@@ -3867,16 +3903,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G25" t="s">
         <v>11</v>
@@ -3888,13 +3924,13 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="M25" t="s">
         <v>36</v>
@@ -3902,16 +3938,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -3923,13 +3959,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>670</v>
+        <v>106</v>
       </c>
       <c r="M26" t="s">
         <v>39</v>
@@ -3937,22 +3973,22 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E27" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="F27" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -3964,36 +4000,36 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G28" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
@@ -4002,16 +4038,16 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N28">
         <v>60</v>
@@ -4019,19 +4055,19 @@
     </row>
     <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G29" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -4040,16 +4076,16 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N29">
         <v>80</v>
@@ -4057,16 +4093,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -4078,13 +4114,13 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>131</v>
+        <v>663</v>
       </c>
       <c r="M30" t="s">
         <v>36</v>
@@ -4092,16 +4128,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -4113,13 +4149,13 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M31" t="s">
         <v>39</v>
@@ -4127,16 +4163,16 @@
     </row>
     <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G32" t="s">
         <v>11</v>
@@ -4148,39 +4184,39 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E33" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="F33" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G33" t="s">
         <v>11</v>
@@ -4192,33 +4228,33 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E34" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="F34" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G34" t="s">
         <v>11</v>
@@ -4230,39 +4266,39 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N34" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E35" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="F35" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G35" t="s">
         <v>11</v>
@@ -4274,33 +4310,33 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G36" t="s">
         <v>11</v>
@@ -4312,33 +4348,33 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G37" t="s">
         <v>11</v>
@@ -4350,33 +4386,33 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -4388,33 +4424,33 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N38" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -4426,77 +4462,77 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="E40" t="s">
+        <v>519</v>
+      </c>
+      <c r="F40" t="s">
+        <v>617</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>654</v>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>170</v>
+      </c>
+      <c r="M40" t="s">
         <v>171</v>
       </c>
-      <c r="B40" t="s">
+      <c r="N40" t="s">
         <v>172</v>
-      </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="E40" t="s">
-        <v>532</v>
-      </c>
-      <c r="F40" t="s">
-        <v>631</v>
-      </c>
-      <c r="G40" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" t="b">
-        <v>1</v>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>668</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>173</v>
-      </c>
-      <c r="M40" t="s">
-        <v>174</v>
-      </c>
-      <c r="N40" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -4508,13 +4544,13 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K41" t="b">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M41" t="s">
         <v>36</v>
@@ -4522,22 +4558,22 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E42" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="F42" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -4549,13 +4585,13 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M42" t="s">
         <v>39</v>
@@ -4563,244 +4599,244 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>654</v>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>180</v>
+      </c>
+      <c r="M43" t="s">
         <v>181</v>
       </c>
-      <c r="B43" t="s">
+      <c r="N43" t="s">
         <v>182</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>668</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>183</v>
-      </c>
-      <c r="M43" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>654</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>185</v>
+      </c>
+      <c r="M44" t="s">
         <v>186</v>
       </c>
-      <c r="B44" t="s">
+      <c r="N44" t="s">
         <v>187</v>
-      </c>
-      <c r="C44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H44" t="b">
-        <v>1</v>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>668</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>188</v>
-      </c>
-      <c r="M44" t="s">
-        <v>189</v>
-      </c>
-      <c r="N44" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>654</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>668</v>
+      </c>
+      <c r="M45" t="s">
+        <v>190</v>
+      </c>
+      <c r="N45" t="s">
         <v>191</v>
-      </c>
-      <c r="B45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" t="b">
-        <v>1</v>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>668</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>193</v>
-      </c>
-      <c r="M45" t="s">
-        <v>194</v>
-      </c>
-      <c r="N45" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>654</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>194</v>
+      </c>
+      <c r="M46" t="s">
+        <v>195</v>
+      </c>
+      <c r="N46" t="s">
         <v>196</v>
-      </c>
-      <c r="B46" t="s">
-        <v>197</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>668</v>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
-        <v>198</v>
-      </c>
-      <c r="M46" t="s">
-        <v>199</v>
-      </c>
-      <c r="N46" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>654</v>
+      </c>
+      <c r="K47" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>199</v>
+      </c>
+      <c r="M47" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47" t="s">
         <v>201</v>
-      </c>
-      <c r="B47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>668</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
-        <v>203</v>
-      </c>
-      <c r="M47" t="s">
-        <v>204</v>
-      </c>
-      <c r="N47" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>654</v>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>204</v>
+      </c>
+      <c r="M48" t="s">
+        <v>205</v>
+      </c>
+      <c r="N48" t="s">
         <v>206</v>
-      </c>
-      <c r="B48" t="s">
-        <v>207</v>
-      </c>
-      <c r="C48" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G48" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>668</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
-        <v>208</v>
-      </c>
-      <c r="M48" t="s">
-        <v>209</v>
-      </c>
-      <c r="N48" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G49" t="s">
         <v>11</v>
@@ -4812,27 +4848,27 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G50" t="s">
         <v>11</v>
@@ -4844,27 +4880,27 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G51" t="s">
         <v>11</v>
@@ -4876,27 +4912,27 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G52" t="s">
         <v>11</v>
@@ -4908,27 +4944,27 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G53" t="s">
         <v>11</v>
@@ -4940,27 +4976,27 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="G54" t="s">
         <v>11</v>
@@ -4972,176 +5008,176 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>654</v>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>227</v>
+      </c>
+      <c r="M55" t="s">
+        <v>228</v>
+      </c>
+      <c r="N55" t="s">
         <v>229</v>
-      </c>
-      <c r="B55" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="G55" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>668</v>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>231</v>
-      </c>
-      <c r="M55" t="s">
-        <v>232</v>
-      </c>
-      <c r="N55" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>654</v>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>233</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B56" t="s">
-        <v>235</v>
-      </c>
-      <c r="C56" t="s">
-        <v>236</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="b">
-        <v>1</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>668</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
-        <v>237</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>654</v>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>238</v>
+      </c>
+      <c r="M57" t="s">
         <v>239</v>
       </c>
-      <c r="B57" t="s">
+      <c r="N57" t="s">
         <v>240</v>
-      </c>
-      <c r="C57" t="s">
-        <v>241</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>668</v>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
-        <v>242</v>
-      </c>
-      <c r="M57" t="s">
-        <v>243</v>
-      </c>
-      <c r="N57" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>653</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>243</v>
+      </c>
+      <c r="M58" t="s">
+        <v>244</v>
+      </c>
+      <c r="N58" t="s">
         <v>245</v>
-      </c>
-      <c r="B58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G58" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
-        <v>667</v>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
-        <v>247</v>
-      </c>
-      <c r="M58" t="s">
-        <v>248</v>
-      </c>
-      <c r="N58" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G59" t="s">
         <v>11</v>
@@ -5153,13 +5189,13 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>252</v>
+        <v>664</v>
       </c>
       <c r="M59" t="s">
         <v>36</v>
@@ -5167,22 +5203,22 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E60" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="F60" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="G60" t="s">
         <v>11</v>
@@ -5191,16 +5227,16 @@
         <v>1</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M60" t="s">
         <v>39</v>
@@ -5208,98 +5244,98 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>654</v>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>253</v>
+      </c>
+      <c r="M61" t="s">
+        <v>254</v>
+      </c>
+      <c r="N61" t="s">
         <v>255</v>
-      </c>
-      <c r="B61" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" t="s">
-        <v>241</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G61" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>668</v>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
-        <v>257</v>
-      </c>
-      <c r="M61" t="s">
-        <v>258</v>
-      </c>
-      <c r="N61" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>654</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>258</v>
+      </c>
+      <c r="M62" t="s">
+        <v>259</v>
+      </c>
+      <c r="N62" t="s">
         <v>260</v>
-      </c>
-      <c r="B62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G62" t="s">
-        <v>11</v>
-      </c>
-      <c r="H62" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>668</v>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
-        <v>262</v>
-      </c>
-      <c r="M62" t="s">
-        <v>263</v>
-      </c>
-      <c r="N62" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="G63" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -5308,16 +5344,16 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M63" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N63">
         <v>14</v>
@@ -5325,16 +5361,16 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
         <v>11</v>
@@ -5346,13 +5382,13 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M64" t="s">
         <v>36</v>
@@ -5360,16 +5396,16 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G65" t="s">
         <v>11</v>
@@ -5381,13 +5417,13 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M65" t="s">
         <v>39</v>
@@ -5395,133 +5431,133 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>654</v>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>272</v>
+      </c>
+      <c r="M66" t="s">
+        <v>273</v>
+      </c>
+      <c r="N66" t="s">
         <v>274</v>
-      </c>
-      <c r="B66" t="s">
-        <v>275</v>
-      </c>
-      <c r="C66" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G66" t="s">
-        <v>11</v>
-      </c>
-      <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>668</v>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
-        <v>276</v>
-      </c>
-      <c r="M66" t="s">
-        <v>277</v>
-      </c>
-      <c r="N66" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G67" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>654</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>277</v>
+      </c>
+      <c r="M67" t="s">
+        <v>278</v>
+      </c>
+      <c r="N67" t="s">
         <v>279</v>
-      </c>
-      <c r="B67" t="s">
-        <v>280</v>
-      </c>
-      <c r="C67" t="s">
-        <v>241</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G67" t="s">
-        <v>11</v>
-      </c>
-      <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>668</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="s">
-        <v>281</v>
-      </c>
-      <c r="M67" t="s">
-        <v>282</v>
-      </c>
-      <c r="N67" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>280</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" t="s">
+        <v>282</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E68" t="s">
+        <v>506</v>
+      </c>
+      <c r="G68" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>654</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>283</v>
+      </c>
+      <c r="M68" t="s">
         <v>284</v>
       </c>
-      <c r="B68" t="s">
+      <c r="N68" t="s">
         <v>285</v>
-      </c>
-      <c r="C68" t="s">
-        <v>286</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="E68" t="s">
-        <v>519</v>
-      </c>
-      <c r="G68" t="s">
-        <v>11</v>
-      </c>
-      <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>668</v>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
-        <v>287</v>
-      </c>
-      <c r="M68" t="s">
-        <v>288</v>
-      </c>
-      <c r="N68" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B69" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C69" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G69" t="s">
         <v>11</v>
@@ -5533,13 +5569,13 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K69" t="b">
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>292</v>
+        <v>658</v>
       </c>
       <c r="M69" t="s">
         <v>36</v>
@@ -5547,22 +5583,22 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E70" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F70" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G70" t="s">
         <v>11</v>
@@ -5574,13 +5610,13 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K70" t="b">
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M70" t="s">
         <v>39</v>
@@ -5588,60 +5624,60 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" t="s">
+        <v>292</v>
+      </c>
+      <c r="C71" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E71" t="s">
+        <v>504</v>
+      </c>
+      <c r="F71" t="s">
+        <v>623</v>
+      </c>
+      <c r="G71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>654</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>293</v>
+      </c>
+      <c r="M71" t="s">
+        <v>294</v>
+      </c>
+      <c r="N71" t="s">
         <v>295</v>
-      </c>
-      <c r="B71" t="s">
-        <v>296</v>
-      </c>
-      <c r="C71" t="s">
-        <v>286</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="E71" t="s">
-        <v>517</v>
-      </c>
-      <c r="F71" t="s">
-        <v>637</v>
-      </c>
-      <c r="G71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>668</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
-        <v>297</v>
-      </c>
-      <c r="M71" t="s">
-        <v>298</v>
-      </c>
-      <c r="N71" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
@@ -5653,13 +5689,13 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K72" t="b">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>302</v>
+        <v>659</v>
       </c>
       <c r="M72" t="s">
         <v>36</v>
@@ -5667,22 +5703,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B73" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E73" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="F73" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G73" t="s">
         <v>11</v>
@@ -5694,13 +5730,13 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K73" t="b">
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M73" t="s">
         <v>39</v>
@@ -5708,19 +5744,19 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G74" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -5729,51 +5765,51 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K74" t="b">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M74" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>305</v>
+      </c>
+      <c r="B75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G75" t="s">
+        <v>307</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>654</v>
+      </c>
+      <c r="K75" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>308</v>
+      </c>
+      <c r="M75" t="s">
         <v>309</v>
-      </c>
-      <c r="B75" t="s">
-        <v>310</v>
-      </c>
-      <c r="C75" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="G75" t="s">
-        <v>311</v>
-      </c>
-      <c r="H75" t="b">
-        <v>1</v>
-      </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>668</v>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
-        <v>312</v>
-      </c>
-      <c r="M75" t="s">
-        <v>313</v>
       </c>
       <c r="N75">
         <v>1000000</v>
@@ -5781,19 +5817,19 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B76" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G76" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -5802,16 +5838,16 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K76" t="b">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>316</v>
+        <v>669</v>
       </c>
       <c r="M76" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="N76">
         <v>50000</v>
@@ -5819,19 +5855,19 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B77" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G77" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -5840,16 +5876,16 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K77" t="b">
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M77" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N77" t="b">
         <v>1</v>
@@ -5857,16 +5893,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C78" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -5878,33 +5914,33 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K78" t="b">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M78" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N78" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B79" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -5916,33 +5952,33 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K79" t="b">
         <v>1</v>
       </c>
       <c r="L79" t="s">
-        <v>329</v>
+        <v>675</v>
       </c>
       <c r="M79" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C80" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -5954,39 +5990,39 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K80" t="b">
         <v>1</v>
       </c>
       <c r="L80" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N80" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B81" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C81" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E81" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="F81" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -5998,74 +6034,74 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K81" t="b">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N81" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B82" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>654</v>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
         <v>339</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="G82" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>668</v>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
-        <v>345</v>
-      </c>
       <c r="M82" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="N82" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B83" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C83" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G83" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
@@ -6074,16 +6110,16 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K83" t="b">
         <v>1</v>
       </c>
       <c r="L83" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M83" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N83">
         <v>1000</v>
@@ -6091,16 +6127,16 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C84" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
@@ -6112,13 +6148,13 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K84" t="b">
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>354</v>
+        <v>682</v>
       </c>
       <c r="M84" t="s">
         <v>36</v>
@@ -6126,16 +6162,16 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B85" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C85" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G85" t="s">
         <v>11</v>
@@ -6147,13 +6183,13 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K85" t="b">
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>354</v>
+        <v>683</v>
       </c>
       <c r="M85" t="s">
         <v>39</v>
@@ -6161,22 +6197,22 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B86" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C86" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E86" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="F86" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G86" t="s">
         <v>11</v>
@@ -6188,33 +6224,33 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
       </c>
       <c r="L86" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M86" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="N86" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C87" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G87" t="s">
         <v>11</v>
@@ -6226,33 +6262,33 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K87" t="b">
         <v>1</v>
       </c>
       <c r="L87" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M87" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="N87" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B88" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G88" t="s">
         <v>11</v>
@@ -6264,39 +6300,39 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K88" t="b">
         <v>1</v>
       </c>
       <c r="L88" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M88" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="N88" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C89" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E89" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="F89" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -6308,39 +6344,39 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K89" t="b">
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="N89" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B90" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E90" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="F90" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="G90" t="s">
         <v>11</v>
@@ -6352,39 +6388,39 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K90" t="b">
         <v>1</v>
       </c>
       <c r="L90" t="s">
-        <v>379</v>
+        <v>670</v>
       </c>
       <c r="M90" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="N90" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B91" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C91" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E91" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="F91" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G91" t="s">
         <v>11</v>
@@ -6396,33 +6432,33 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K91" t="b">
         <v>1</v>
       </c>
       <c r="L91" t="s">
-        <v>384</v>
+        <v>671</v>
       </c>
       <c r="M91" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="N91" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="B92" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C92" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G92" t="s">
         <v>11</v>
@@ -6434,33 +6470,33 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K92" t="b">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="N92" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B93" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C93" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G93" t="s">
         <v>11</v>
@@ -6472,33 +6508,33 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K93" t="b">
         <v>1</v>
       </c>
       <c r="L93" t="s">
-        <v>394</v>
+        <v>672</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="N93" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B94" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C94" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G94" t="s">
         <v>11</v>
@@ -6510,36 +6546,36 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K94" t="b">
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="M94" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="N94" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B95" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C95" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G95" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
@@ -6548,16 +6584,16 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K95" t="b">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="M95" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N95">
         <v>10365118</v>
@@ -6565,60 +6601,60 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B96" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C96" t="s">
+        <v>389</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E96" t="s">
+        <v>512</v>
+      </c>
+      <c r="F96" t="s">
+        <v>612</v>
+      </c>
+      <c r="G96" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>654</v>
+      </c>
+      <c r="K96" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
         <v>399</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E96" t="s">
-        <v>525</v>
-      </c>
-      <c r="F96" t="s">
-        <v>626</v>
-      </c>
-      <c r="G96" t="s">
-        <v>11</v>
-      </c>
-      <c r="H96" t="b">
-        <v>1</v>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="s">
-        <v>668</v>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
-        <v>409</v>
-      </c>
       <c r="M96" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="N96" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C97" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G97" t="s">
         <v>11</v>
@@ -6630,33 +6666,33 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K97" t="b">
         <v>1</v>
       </c>
       <c r="L97" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M97" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="N97" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B98" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="C98" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G98" t="s">
         <v>11</v>
@@ -6668,16 +6704,16 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K98" t="b">
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M98" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="N98" s="2">
         <v>42720</v>
@@ -6685,16 +6721,16 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B99" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G99" t="s">
         <v>11</v>
@@ -6706,33 +6742,33 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K99" t="b">
         <v>1</v>
       </c>
       <c r="L99" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M99" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="N99" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B100" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C100" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G100" t="s">
         <v>11</v>
@@ -6744,30 +6780,30 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K100" t="b">
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M100" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B101" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C101" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G101" t="s">
         <v>11</v>
@@ -6779,33 +6815,33 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M101" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="N101" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B102" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C102" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G102" t="s">
         <v>11</v>
@@ -6817,42 +6853,42 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K102" t="b">
         <v>1</v>
       </c>
       <c r="L102" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M102" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="N102" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B103" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C103" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E103" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F103" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G103" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H103" t="b">
         <v>1</v>
@@ -6861,16 +6897,16 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K103" t="b">
         <v>1</v>
       </c>
       <c r="L103" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M103" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="N103">
         <v>300</v>
@@ -6878,16 +6914,16 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B104" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C104" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G104" t="s">
         <v>11</v>
@@ -6899,33 +6935,33 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K104" t="b">
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>445</v>
+        <v>657</v>
       </c>
       <c r="M104" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="N104" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B105" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G105" t="s">
         <v>11</v>
@@ -6937,36 +6973,36 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K105" t="b">
         <v>1</v>
       </c>
       <c r="L105" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="M105" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="N105" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C106" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="G106" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H106" t="b">
         <v>1</v>
@@ -6975,16 +7011,16 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K106" t="b">
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="M106" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="N106">
         <v>300</v>
@@ -6992,16 +7028,16 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B107" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C107" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G107" t="s">
         <v>11</v>
@@ -7013,33 +7049,33 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K107" t="b">
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="M107" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B108" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C108" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G108" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H108" t="b">
         <v>1</v>
@@ -7048,30 +7084,30 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K108" t="b">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B109" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C109" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G109" t="s">
         <v>11</v>
@@ -7083,33 +7119,33 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K109" t="b">
         <v>1</v>
       </c>
       <c r="L109" t="s">
-        <v>468</v>
+        <v>673</v>
       </c>
       <c r="M109" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="N109" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B110" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C110" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G110" t="s">
         <v>11</v>
@@ -7121,33 +7157,33 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K110" t="b">
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="M110" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="N110" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B111" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="C111" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G111" t="s">
         <v>11</v>
@@ -7159,33 +7195,33 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K111" t="b">
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="M111" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="N111" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="B112" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="C112" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G112" t="s">
         <v>11</v>
@@ -7197,33 +7233,33 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K112" t="b">
         <v>1</v>
       </c>
       <c r="L112" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="M112" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="N112" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B113" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="C113" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G113" t="s">
         <v>11</v>
@@ -7235,33 +7271,33 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K113" t="b">
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="M113" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="N113" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B114" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C114" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G114" t="s">
         <v>11</v>
@@ -7273,33 +7309,33 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K114" t="b">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="M114" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="N114" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="B115" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C115" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G115" t="s">
         <v>11</v>
@@ -7311,27 +7347,27 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K115" t="b">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="B116" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C116" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G116" t="s">
         <v>11</v>
@@ -7343,33 +7379,33 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K116" t="b">
         <v>1</v>
       </c>
       <c r="L116" t="s">
-        <v>501</v>
+        <v>674</v>
       </c>
       <c r="M116" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="N116" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B117" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C117" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G117" t="s">
         <v>11</v>
@@ -7381,33 +7417,33 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K117" t="b">
         <v>1</v>
       </c>
       <c r="L117" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="M117" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E118" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="F118" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G118" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H118" t="b">
         <v>1</v>
@@ -7416,36 +7452,36 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="M118" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="O118" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E119" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="F119" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="G119" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H119" t="b">
         <v>1</v>
@@ -7454,30 +7490,30 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="M119" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="O119" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="E120" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -7489,33 +7525,33 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="O120" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E121" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F121" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G121" t="s">
         <v>11</v>
@@ -7527,33 +7563,33 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="M121" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="O121" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E122" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F122" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="G122" t="s">
         <v>11</v>
@@ -7565,33 +7601,33 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="M122" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="O122" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="E123" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G123" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H123" t="b">
         <v>0</v>
@@ -7600,33 +7636,33 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="M123" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="O123" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E124" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="F124" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G124" t="s">
         <v>11</v>
@@ -7635,141 +7671,138 @@
         <v>1</v>
       </c>
       <c r="I124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="M124" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="O124" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E125" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F125" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="G125" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H125" t="b">
         <v>1</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="M125" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="O125" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>553</v>
+        <v>680</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E126" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="H126" t="b">
         <v>1</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="M126" t="s">
-        <v>568</v>
+        <v>678</v>
       </c>
       <c r="O126" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>652</v>
-      </c>
-      <c r="D127" t="s">
-        <v>241</v>
+        <v>681</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E127" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>676</v>
       </c>
       <c r="H127" t="b">
         <v>1</v>
       </c>
       <c r="I127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="M127" t="s">
-        <v>654</v>
+        <v>679</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>572</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>241</v>
+        <v>638</v>
+      </c>
+      <c r="D128" t="s">
+        <v>237</v>
       </c>
       <c r="E128" t="s">
-        <v>572</v>
-      </c>
-      <c r="F128" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="G128" t="s">
         <v>11</v>
@@ -7781,62 +7814,65 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
       <c r="M128" t="s">
-        <v>569</v>
-      </c>
-      <c r="O128" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>655</v>
+        <v>558</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E129" t="s">
-        <v>655</v>
+        <v>558</v>
+      </c>
+      <c r="F129" t="s">
+        <v>608</v>
       </c>
       <c r="G129" t="s">
         <v>11</v>
       </c>
       <c r="H129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="b">
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>656</v>
+        <v>555</v>
       </c>
       <c r="M129" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="O129" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E130" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="G130" t="s">
         <v>11</v>
@@ -7848,62 +7884,59 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="M130" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>662</v>
-      </c>
-      <c r="D131" t="s">
-        <v>539</v>
+        <v>644</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="E131" t="s">
-        <v>549</v>
+        <v>644</v>
       </c>
       <c r="G131" t="s">
         <v>11</v>
       </c>
       <c r="H131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="b">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="M131" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="D132" t="s">
-        <v>581</v>
+        <v>526</v>
       </c>
       <c r="E132" t="s">
-        <v>582</v>
-      </c>
-      <c r="F132" t="s">
-        <v>605</v>
+        <v>536</v>
       </c>
       <c r="G132" t="s">
         <v>11</v>
@@ -7915,33 +7948,30 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="M132" t="s">
-        <v>590</v>
-      </c>
-      <c r="N132" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="D133" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E133" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="F133" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="G133" t="s">
         <v>11</v>
@@ -7953,33 +7983,33 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="M133" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="N133" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="D134" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E134" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="F134" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="G134" t="s">
         <v>11</v>
@@ -7991,34 +8021,34 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
       </c>
       <c r="L134" t="s">
+        <v>577</v>
+      </c>
+      <c r="M134" t="s">
+        <v>577</v>
+      </c>
+      <c r="N134" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>570</v>
+      </c>
+      <c r="D135" t="s">
+        <v>567</v>
+      </c>
+      <c r="E135" t="s">
+        <v>570</v>
+      </c>
+      <c r="F135" t="s">
         <v>593</v>
       </c>
-      <c r="M134" t="s">
-        <v>593</v>
-      </c>
-      <c r="N134">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>608</v>
-      </c>
-      <c r="D135" t="s">
-        <v>581</v>
-      </c>
-      <c r="E135" t="s">
-        <v>608</v>
-      </c>
-      <c r="F135" t="s">
-        <v>611</v>
-      </c>
       <c r="G135" t="s">
         <v>11</v>
       </c>
@@ -8029,33 +8059,33 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>643</v>
+        <v>579</v>
       </c>
       <c r="M135" t="s">
-        <v>643</v>
-      </c>
-      <c r="N135" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="N135">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="D136" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E136" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F136" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="G136" t="s">
         <v>11</v>
@@ -8067,33 +8097,33 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="M136" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="N136" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="D137" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E137" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="F137" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="G137" t="s">
         <v>11</v>
@@ -8105,33 +8135,33 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="M137" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="N137" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="D138" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E138" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F138" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="G138" t="s">
         <v>11</v>
@@ -8143,34 +8173,34 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="M138" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="N138" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>571</v>
+      </c>
+      <c r="D139" t="s">
+        <v>567</v>
+      </c>
+      <c r="E139" t="s">
+        <v>571</v>
+      </c>
+      <c r="F139" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>586</v>
-      </c>
-      <c r="D139" t="s">
-        <v>581</v>
-      </c>
-      <c r="E139" t="s">
-        <v>586</v>
-      </c>
-      <c r="F139" t="s">
-        <v>615</v>
-      </c>
       <c r="G139" t="s">
         <v>11</v>
       </c>
@@ -8181,33 +8211,33 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="M139" t="s">
-        <v>595</v>
-      </c>
-      <c r="N139">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="N139" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="D140" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E140" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="F140" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="G140" t="s">
         <v>11</v>
@@ -8219,33 +8249,33 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="M140" t="s">
-        <v>596</v>
-      </c>
-      <c r="N140" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="N140">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="D141" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E141" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="F141" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="G141" t="s">
         <v>11</v>
@@ -8257,36 +8287,36 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="M141" t="s">
-        <v>597</v>
-      </c>
-      <c r="N141">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="N141" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D142" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E142" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="F142" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G142" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="H142" t="b">
         <v>1</v>
@@ -8295,36 +8325,36 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="M142" t="s">
-        <v>650</v>
-      </c>
-      <c r="N142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="N142">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D143" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E143" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="F143" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="H143" t="b">
         <v>1</v>
@@ -8333,23 +8363,61 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="M143" t="s">
-        <v>651</v>
-      </c>
-      <c r="N143" t="s">
-        <v>604</v>
+        <v>636</v>
+      </c>
+      <c r="N143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>584</v>
+      </c>
+      <c r="D144" t="s">
+        <v>567</v>
+      </c>
+      <c r="E144" t="s">
+        <v>584</v>
+      </c>
+      <c r="F144" t="s">
+        <v>605</v>
+      </c>
+      <c r="G144" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>653</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>585</v>
+      </c>
+      <c r="M144" t="s">
+        <v>637</v>
+      </c>
+      <c r="N144" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O144" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE95A187-C5E0-4F54-904C-36A9D455C67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1358572-622C-48DE-8EF2-D039B9BA9326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$O$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$P$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="685">
   <si>
     <t>structured_name</t>
   </si>
@@ -2104,6 +2104,9 @@
   </si>
   <si>
     <t>Template amount unit</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -2956,10 +2959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O144"/>
+  <dimension ref="A1:P144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,12 +2972,12 @@
     <col min="3" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="12" max="12" width="35.42578125" customWidth="1"/>
-    <col min="13" max="13" width="148.28515625" customWidth="1"/>
-    <col min="14" max="14" width="58.42578125" customWidth="1"/>
+    <col min="13" max="13" width="35.42578125" customWidth="1"/>
+    <col min="14" max="14" width="148.28515625" customWidth="1"/>
+    <col min="15" max="15" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3000,28 +3003,31 @@
         <v>650</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3040,23 +3046,23 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>653</v>
       </c>
-      <c r="K2" t="b">
+      <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3075,23 +3081,23 @@
       <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>654</v>
-      </c>
-      <c r="K3" t="b">
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>654</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3110,23 +3116,23 @@
       <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>654</v>
-      </c>
-      <c r="K4" t="b">
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>654</v>
+      </c>
+      <c r="L4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3151,26 +3157,29 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>653</v>
-      </c>
-      <c r="K5" t="b">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
+        <v>654</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3189,26 +3198,26 @@
       <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>654</v>
-      </c>
-      <c r="K6" t="b">
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>654</v>
+      </c>
+      <c r="L6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3227,23 +3236,23 @@
       <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>654</v>
-      </c>
-      <c r="K7" t="b">
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>654</v>
+      </c>
+      <c r="L7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>660</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3262,23 +3271,23 @@
       <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>654</v>
-      </c>
-      <c r="K8" t="b">
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>654</v>
+      </c>
+      <c r="L8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3297,26 +3306,26 @@
       <c r="H9" t="b">
         <v>1</v>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>654</v>
-      </c>
-      <c r="K9" t="b">
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>654</v>
+      </c>
+      <c r="L9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>42</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>43</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3335,26 +3344,26 @@
       <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>654</v>
-      </c>
-      <c r="K10" t="b">
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>654</v>
+      </c>
+      <c r="L10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>665</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>47</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3373,26 +3382,26 @@
       <c r="H11" t="b">
         <v>1</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>654</v>
-      </c>
-      <c r="K11" t="b">
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>654</v>
+      </c>
+      <c r="L11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>52</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3417,26 +3426,26 @@
       <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>654</v>
-      </c>
-      <c r="K12" t="b">
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>654</v>
+      </c>
+      <c r="L12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3455,26 +3464,26 @@
       <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>654</v>
-      </c>
-      <c r="K13" t="b">
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>654</v>
+      </c>
+      <c r="L13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>666</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -3493,26 +3502,29 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>654</v>
-      </c>
-      <c r="K14" t="b">
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="s">
+      <c r="K14" t="s">
+        <v>654</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>65</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>66</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -3537,26 +3549,26 @@
       <c r="H15" t="b">
         <v>1</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>654</v>
-      </c>
-      <c r="K15" t="b">
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>654</v>
+      </c>
+      <c r="L15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>71</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3581,26 +3593,26 @@
       <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>654</v>
-      </c>
-      <c r="K16" t="b">
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>654</v>
+      </c>
+      <c r="L16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>667</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3625,26 +3637,26 @@
       <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>654</v>
-      </c>
-      <c r="K17" t="b">
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>654</v>
+      </c>
+      <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>79</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>80</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -3663,20 +3675,20 @@
       <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>654</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>654</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -3695,26 +3707,26 @@
       <c r="H19" t="b">
         <v>1</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>654</v>
-      </c>
-      <c r="K19" t="b">
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>654</v>
+      </c>
+      <c r="L19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3733,26 +3745,26 @@
       <c r="H20" t="b">
         <v>1</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>654</v>
-      </c>
-      <c r="K20" t="b">
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>654</v>
+      </c>
+      <c r="L20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>91</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3777,26 +3789,26 @@
       <c r="H21" t="b">
         <v>1</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
         <v>653</v>
       </c>
-      <c r="K21" t="b">
+      <c r="L21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>96</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>97</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3815,23 +3827,23 @@
       <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>654</v>
-      </c>
-      <c r="K22" t="b">
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>654</v>
+      </c>
+      <c r="L22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>102</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -3850,23 +3862,23 @@
       <c r="H23" t="b">
         <v>1</v>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>654</v>
-      </c>
-      <c r="K23" t="b">
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>654</v>
+      </c>
+      <c r="L23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>661</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -3885,23 +3897,23 @@
       <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
         <v>653</v>
       </c>
-      <c r="K24" t="b">
+      <c r="L24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>662</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3920,23 +3932,23 @@
       <c r="H25" t="b">
         <v>1</v>
       </c>
-      <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>654</v>
-      </c>
-      <c r="K25" t="b">
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>654</v>
+      </c>
+      <c r="L25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>655</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -3955,23 +3967,23 @@
       <c r="H26" t="b">
         <v>1</v>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>654</v>
-      </c>
-      <c r="K26" t="b">
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>654</v>
+      </c>
+      <c r="L26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>106</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -3996,26 +4008,26 @@
       <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
         <v>653</v>
       </c>
-      <c r="K27" t="b">
+      <c r="L27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>115</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>116</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -4034,26 +4046,26 @@
       <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
         <v>653</v>
       </c>
-      <c r="K28" t="b">
+      <c r="L28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>120</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>121</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -4072,26 +4084,26 @@
       <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
         <v>653</v>
       </c>
-      <c r="K29" t="b">
+      <c r="L29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>124</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -4110,23 +4122,23 @@
       <c r="H30" t="b">
         <v>1</v>
       </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
         <v>653</v>
       </c>
-      <c r="K30" t="b">
+      <c r="L30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>663</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -4145,23 +4157,23 @@
       <c r="H31" t="b">
         <v>1</v>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
         <v>653</v>
       </c>
-      <c r="K31" t="b">
+      <c r="L31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>128</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -4180,26 +4192,26 @@
       <c r="H32" t="b">
         <v>1</v>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
-        <v>654</v>
-      </c>
-      <c r="K32" t="b">
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>654</v>
+      </c>
+      <c r="L32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>133</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -4224,20 +4236,20 @@
       <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
         <v>653</v>
       </c>
-      <c r="K33" t="b">
+      <c r="L33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -4262,26 +4274,26 @@
       <c r="H34" t="b">
         <v>1</v>
       </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
         <v>653</v>
       </c>
-      <c r="K34" t="b">
+      <c r="L34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>140</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>141</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -4306,26 +4318,26 @@
       <c r="H35" t="b">
         <v>1</v>
       </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
         <v>653</v>
       </c>
-      <c r="K35" t="b">
+      <c r="L35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>145</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>146</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -4344,26 +4356,26 @@
       <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
         <v>653</v>
       </c>
-      <c r="K36" t="b">
+      <c r="L36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>150</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>151</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -4382,26 +4394,26 @@
       <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>654</v>
-      </c>
-      <c r="K37" t="b">
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>654</v>
+      </c>
+      <c r="L37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>155</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>156</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>158</v>
       </c>
@@ -4420,26 +4432,26 @@
       <c r="H38" t="b">
         <v>1</v>
       </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>654</v>
-      </c>
-      <c r="K38" t="b">
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>654</v>
+      </c>
+      <c r="L38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>160</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>161</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -4458,26 +4470,26 @@
       <c r="H39" t="b">
         <v>1</v>
       </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>654</v>
-      </c>
-      <c r="K39" t="b">
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>654</v>
+      </c>
+      <c r="L39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>165</v>
       </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>166</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>168</v>
       </c>
@@ -4502,26 +4514,26 @@
       <c r="H40" t="b">
         <v>1</v>
       </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>654</v>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>654</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
         <v>170</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>171</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -4540,23 +4552,23 @@
       <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
-        <v>654</v>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>654</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
         <v>175</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -4581,23 +4593,23 @@
       <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
-        <v>654</v>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>654</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
         <v>175</v>
       </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -4616,26 +4628,26 @@
       <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
-        <v>654</v>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>654</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
         <v>180</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>181</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -4654,26 +4666,26 @@
       <c r="H44" t="b">
         <v>1</v>
       </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
-        <v>654</v>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>654</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
         <v>185</v>
       </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>186</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>188</v>
       </c>
@@ -4692,26 +4704,26 @@
       <c r="H45" t="b">
         <v>1</v>
       </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>654</v>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>654</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" t="s">
         <v>668</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>190</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>192</v>
       </c>
@@ -4730,26 +4742,26 @@
       <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
-        <v>654</v>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>654</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
         <v>194</v>
       </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>195</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -4768,26 +4780,26 @@
       <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
-        <v>654</v>
-      </c>
-      <c r="K47" t="b">
-        <v>1</v>
-      </c>
-      <c r="L47" t="s">
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>654</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
         <v>199</v>
       </c>
-      <c r="M47" t="s">
+      <c r="N47" t="s">
         <v>200</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -4806,26 +4818,26 @@
       <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
-        <v>654</v>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>654</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
         <v>204</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>205</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -4844,20 +4856,20 @@
       <c r="H49" t="b">
         <v>0</v>
       </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>654</v>
-      </c>
-      <c r="K49" t="b">
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>654</v>
+      </c>
+      <c r="L49" t="b">
         <v>0</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -4876,20 +4888,20 @@
       <c r="H50" t="b">
         <v>0</v>
       </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
-        <v>654</v>
-      </c>
-      <c r="K50" t="b">
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>654</v>
+      </c>
+      <c r="L50" t="b">
         <v>0</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -4908,20 +4920,20 @@
       <c r="H51" t="b">
         <v>0</v>
       </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
-        <v>654</v>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>654</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -4940,20 +4952,20 @@
       <c r="H52" t="b">
         <v>0</v>
       </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>654</v>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>654</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -4972,20 +4984,20 @@
       <c r="H53" t="b">
         <v>0</v>
       </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>654</v>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>654</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -5004,20 +5016,20 @@
       <c r="H54" t="b">
         <v>0</v>
       </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
-        <v>654</v>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="M54" t="s">
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>654</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>225</v>
       </c>
@@ -5036,26 +5048,26 @@
       <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
-        <v>654</v>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>654</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
         <v>227</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>228</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -5074,23 +5086,23 @@
       <c r="H56" t="b">
         <v>1</v>
       </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
-        <v>654</v>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>654</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
         <v>233</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>235</v>
       </c>
@@ -5109,26 +5121,26 @@
       <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>654</v>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>654</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
         <v>238</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>239</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>241</v>
       </c>
@@ -5147,26 +5159,26 @@
       <c r="H58" t="b">
         <v>1</v>
       </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
         <v>653</v>
       </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
         <v>243</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>244</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>246</v>
       </c>
@@ -5185,23 +5197,26 @@
       <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="I59">
+        <v>5</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
         <v>653</v>
       </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+      <c r="M59" t="s">
         <v>664</v>
       </c>
-      <c r="M59" t="s">
+      <c r="N59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>249</v>
       </c>
@@ -5226,23 +5241,23 @@
       <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="s">
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
         <v>653</v>
       </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
         <v>248</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -5261,26 +5276,26 @@
       <c r="H61" t="b">
         <v>1</v>
       </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
-        <v>654</v>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>654</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="s">
         <v>253</v>
       </c>
-      <c r="M61" t="s">
+      <c r="N61" t="s">
         <v>254</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>256</v>
       </c>
@@ -5299,26 +5314,26 @@
       <c r="H62" t="b">
         <v>1</v>
       </c>
-      <c r="I62" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>654</v>
-      </c>
-      <c r="K62" t="b">
-        <v>1</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>654</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
         <v>258</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>259</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -5340,26 +5355,26 @@
       <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="I63" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>654</v>
-      </c>
-      <c r="K63" t="b">
-        <v>1</v>
-      </c>
-      <c r="L63" t="s">
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>654</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
         <v>263</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>264</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>265</v>
       </c>
@@ -5378,23 +5393,23 @@
       <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>654</v>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>654</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
         <v>267</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>268</v>
       </c>
@@ -5413,23 +5428,23 @@
       <c r="H65" t="b">
         <v>1</v>
       </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>654</v>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="J65" t="b">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>654</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="s">
         <v>267</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>270</v>
       </c>
@@ -5448,26 +5463,26 @@
       <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>654</v>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="J66" t="b">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>654</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
         <v>272</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>273</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>275</v>
       </c>
@@ -5486,26 +5501,26 @@
       <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="I67" t="b">
-        <v>1</v>
-      </c>
-      <c r="J67" t="s">
-        <v>654</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="J67" t="b">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>654</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
         <v>277</v>
       </c>
-      <c r="M67" t="s">
+      <c r="N67" t="s">
         <v>278</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -5527,26 +5542,26 @@
       <c r="H68" t="b">
         <v>1</v>
       </c>
-      <c r="I68" t="b">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
-        <v>654</v>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="J68" t="b">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>654</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68" t="s">
         <v>283</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>284</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>286</v>
       </c>
@@ -5565,23 +5580,23 @@
       <c r="H69" t="b">
         <v>1</v>
       </c>
-      <c r="I69" t="b">
-        <v>1</v>
-      </c>
-      <c r="J69" t="s">
-        <v>654</v>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="J69" t="b">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>654</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="s">
         <v>658</v>
       </c>
-      <c r="M69" t="s">
+      <c r="N69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -5606,23 +5621,23 @@
       <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="I70" t="b">
-        <v>1</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="J70" t="b">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
         <v>653</v>
       </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
         <v>288</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -5647,26 +5662,26 @@
       <c r="H71" t="b">
         <v>1</v>
       </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="s">
-        <v>654</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="s">
+      <c r="J71" t="b">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>654</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
         <v>293</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>294</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>296</v>
       </c>
@@ -5685,23 +5700,23 @@
       <c r="H72" t="b">
         <v>1</v>
       </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>654</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="J72" t="b">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>654</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
         <v>659</v>
       </c>
-      <c r="M72" t="s">
+      <c r="N72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>299</v>
       </c>
@@ -5726,23 +5741,23 @@
       <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>654</v>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>654</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
         <v>298</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>301</v>
       </c>
@@ -5761,23 +5776,23 @@
       <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="I74" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" t="s">
-        <v>654</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>654</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
         <v>303</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>305</v>
       </c>
@@ -5796,26 +5811,26 @@
       <c r="H75" t="b">
         <v>1</v>
       </c>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" t="s">
-        <v>654</v>
-      </c>
-      <c r="K75" t="b">
-        <v>1</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="J75" t="b">
+        <v>1</v>
+      </c>
+      <c r="K75" t="s">
+        <v>654</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="s">
         <v>308</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>309</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>1000000</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>310</v>
       </c>
@@ -5834,26 +5849,26 @@
       <c r="H76" t="b">
         <v>1</v>
       </c>
-      <c r="I76" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" t="s">
-        <v>654</v>
-      </c>
-      <c r="K76" t="b">
-        <v>1</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="J76" t="b">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>654</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
         <v>669</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>312</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>50000</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>313</v>
       </c>
@@ -5872,26 +5887,26 @@
       <c r="H77" t="b">
         <v>1</v>
       </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="s">
-        <v>654</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>654</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="s">
         <v>315</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>316</v>
       </c>
-      <c r="N77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>317</v>
       </c>
@@ -5910,26 +5925,26 @@
       <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="s">
-        <v>654</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
+      <c r="J78" t="b">
+        <v>1</v>
+      </c>
+      <c r="K78" t="s">
+        <v>654</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="s">
         <v>319</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>320</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>322</v>
       </c>
@@ -5948,26 +5963,26 @@
       <c r="H79" t="b">
         <v>1</v>
       </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="s">
-        <v>654</v>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="s">
+      <c r="J79" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>654</v>
+      </c>
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
         <v>675</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>324</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -5986,26 +6001,26 @@
       <c r="H80" t="b">
         <v>1</v>
       </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="s">
-        <v>654</v>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="J80" t="b">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>654</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
         <v>328</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="N80" t="s">
+      <c r="O80" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -6030,26 +6045,26 @@
       <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="s">
+      <c r="J81" t="b">
+        <v>1</v>
+      </c>
+      <c r="K81" t="s">
         <v>653</v>
       </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="s">
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
         <v>334</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="N81" t="s">
+      <c r="O81" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -6068,26 +6083,26 @@
       <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="s">
-        <v>654</v>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="s">
+      <c r="J82" t="b">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>654</v>
+      </c>
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="s">
         <v>339</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>340</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -6106,26 +6121,26 @@
       <c r="H83" t="b">
         <v>1</v>
       </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="s">
-        <v>654</v>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="s">
+      <c r="J83" t="b">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>654</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="s">
         <v>344</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>345</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>346</v>
       </c>
@@ -6144,23 +6159,23 @@
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>654</v>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="s">
+      <c r="J84" t="b">
+        <v>1</v>
+      </c>
+      <c r="K84" t="s">
+        <v>654</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="s">
         <v>682</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>348</v>
       </c>
@@ -6179,23 +6194,23 @@
       <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="s">
-        <v>654</v>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="s">
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="s">
+        <v>654</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
         <v>683</v>
       </c>
-      <c r="M85" t="s">
+      <c r="N85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -6220,26 +6235,26 @@
       <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="s">
-        <v>654</v>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>654</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="s">
         <v>352</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>353</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>355</v>
       </c>
@@ -6258,26 +6273,26 @@
       <c r="H87" t="b">
         <v>1</v>
       </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" t="s">
-        <v>654</v>
-      </c>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="s">
+        <v>654</v>
+      </c>
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
         <v>357</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>358</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>360</v>
       </c>
@@ -6296,26 +6311,26 @@
       <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="s">
-        <v>654</v>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="s">
+      <c r="J88" t="b">
+        <v>1</v>
+      </c>
+      <c r="K88" t="s">
+        <v>654</v>
+      </c>
+      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="s">
         <v>362</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>363</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>365</v>
       </c>
@@ -6340,26 +6355,26 @@
       <c r="H89" t="b">
         <v>1</v>
       </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="s">
+      <c r="J89" t="b">
+        <v>1</v>
+      </c>
+      <c r="K89" t="s">
         <v>653</v>
       </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="s">
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="s">
         <v>367</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="N89" t="s">
+      <c r="O89" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>370</v>
       </c>
@@ -6384,26 +6399,26 @@
       <c r="H90" t="b">
         <v>1</v>
       </c>
-      <c r="I90" t="b">
-        <v>1</v>
-      </c>
-      <c r="J90" t="s">
-        <v>654</v>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90" t="s">
+      <c r="J90" t="b">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>654</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
         <v>670</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>372</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -6428,26 +6443,26 @@
       <c r="H91" t="b">
         <v>1</v>
       </c>
-      <c r="I91" t="b">
-        <v>1</v>
-      </c>
-      <c r="J91" t="s">
-        <v>654</v>
-      </c>
-      <c r="K91" t="b">
-        <v>1</v>
-      </c>
-      <c r="L91" t="s">
+      <c r="J91" t="b">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>654</v>
+      </c>
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
         <v>671</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>376</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -6466,26 +6481,29 @@
       <c r="H92" t="b">
         <v>1</v>
       </c>
-      <c r="I92" t="b">
-        <v>1</v>
-      </c>
-      <c r="J92" t="s">
-        <v>654</v>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92" t="s">
+      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>653</v>
+      </c>
+      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" t="s">
         <v>380</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N92" t="s">
+      <c r="O92" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>383</v>
       </c>
@@ -6504,26 +6522,26 @@
       <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="I93" t="b">
-        <v>1</v>
-      </c>
-      <c r="J93" t="s">
-        <v>654</v>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93" t="s">
+      <c r="J93" t="b">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>654</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="s">
         <v>672</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="N93" t="s">
+      <c r="O93" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>387</v>
       </c>
@@ -6542,26 +6560,26 @@
       <c r="H94" t="b">
         <v>1</v>
       </c>
-      <c r="I94" t="b">
-        <v>1</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="J94" t="b">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
         <v>653</v>
       </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="s">
         <v>390</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>391</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>393</v>
       </c>
@@ -6580,26 +6598,26 @@
       <c r="H95" t="b">
         <v>1</v>
       </c>
-      <c r="I95" t="b">
-        <v>1</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="J95" t="b">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
         <v>653</v>
       </c>
-      <c r="K95" t="b">
-        <v>1</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
         <v>395</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>396</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>10365118</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>397</v>
       </c>
@@ -6624,26 +6642,26 @@
       <c r="H96" t="b">
         <v>1</v>
       </c>
-      <c r="I96" t="b">
-        <v>1</v>
-      </c>
-      <c r="J96" t="s">
-        <v>654</v>
-      </c>
-      <c r="K96" t="b">
-        <v>1</v>
-      </c>
-      <c r="L96" t="s">
+      <c r="J96" t="b">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>654</v>
+      </c>
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="s">
         <v>399</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>400</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>402</v>
       </c>
@@ -6662,26 +6680,26 @@
       <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="s">
-        <v>654</v>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="J97" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>654</v>
+      </c>
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="s">
         <v>404</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>405</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -6700,26 +6718,26 @@
       <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="J98" t="b">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
         <v>653</v>
       </c>
-      <c r="K98" t="b">
-        <v>1</v>
-      </c>
-      <c r="L98" t="s">
-        <v>409</v>
+      <c r="L98" t="b">
+        <v>1</v>
       </c>
       <c r="M98" t="s">
         <v>409</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N98" t="s">
+        <v>409</v>
+      </c>
+      <c r="O98" s="2">
         <v>42720</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>410</v>
       </c>
@@ -6738,26 +6756,26 @@
       <c r="H99" t="b">
         <v>1</v>
       </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>654</v>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="s">
+      <c r="J99" t="b">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>654</v>
+      </c>
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="s">
         <v>412</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>413</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>415</v>
       </c>
@@ -6776,23 +6794,23 @@
       <c r="H100" t="b">
         <v>1</v>
       </c>
-      <c r="I100" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>654</v>
-      </c>
-      <c r="K100" t="b">
-        <v>1</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="J100" t="b">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>654</v>
+      </c>
+      <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="s">
         <v>417</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>419</v>
       </c>
@@ -6811,26 +6829,26 @@
       <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>654</v>
-      </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="J101" t="b">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>654</v>
+      </c>
+      <c r="L101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="s">
         <v>421</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>422</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>424</v>
       </c>
@@ -6849,26 +6867,26 @@
       <c r="H102" t="b">
         <v>1</v>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
         <v>653</v>
       </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="s">
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="s">
         <v>426</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>427</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>429</v>
       </c>
@@ -6893,26 +6911,26 @@
       <c r="H103" t="b">
         <v>1</v>
       </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="s">
-        <v>654</v>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="s">
+      <c r="J103" t="b">
+        <v>1</v>
+      </c>
+      <c r="K103" t="s">
+        <v>654</v>
+      </c>
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="s">
         <v>431</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>432</v>
       </c>
-      <c r="N103">
+      <c r="O103">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>433</v>
       </c>
@@ -6931,26 +6949,26 @@
       <c r="H104" t="b">
         <v>1</v>
       </c>
-      <c r="I104" t="b">
-        <v>1</v>
-      </c>
-      <c r="J104" t="s">
-        <v>654</v>
-      </c>
-      <c r="K104" t="b">
-        <v>1</v>
-      </c>
-      <c r="L104" t="s">
+      <c r="J104" t="b">
+        <v>1</v>
+      </c>
+      <c r="K104" t="s">
+        <v>654</v>
+      </c>
+      <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="s">
         <v>657</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>435</v>
       </c>
-      <c r="N104" t="s">
+      <c r="O104" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>437</v>
       </c>
@@ -6969,26 +6987,26 @@
       <c r="H105" t="b">
         <v>1</v>
       </c>
-      <c r="I105" t="b">
-        <v>1</v>
-      </c>
-      <c r="J105" t="s">
-        <v>654</v>
-      </c>
-      <c r="K105" t="b">
-        <v>1</v>
-      </c>
-      <c r="L105" t="s">
+      <c r="J105" t="b">
+        <v>1</v>
+      </c>
+      <c r="K105" t="s">
+        <v>654</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="s">
         <v>439</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>440</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>442</v>
       </c>
@@ -7007,26 +7025,26 @@
       <c r="H106" t="b">
         <v>1</v>
       </c>
-      <c r="I106" t="b">
-        <v>1</v>
-      </c>
-      <c r="J106" t="s">
-        <v>654</v>
-      </c>
-      <c r="K106" t="b">
-        <v>1</v>
-      </c>
-      <c r="L106" t="s">
+      <c r="J106" t="b">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>654</v>
+      </c>
+      <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="s">
         <v>444</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>445</v>
       </c>
-      <c r="N106">
+      <c r="O106">
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>446</v>
       </c>
@@ -7045,23 +7063,23 @@
       <c r="H107" t="b">
         <v>1</v>
       </c>
-      <c r="I107" t="b">
-        <v>1</v>
-      </c>
-      <c r="J107" t="s">
-        <v>654</v>
-      </c>
-      <c r="K107" t="b">
-        <v>1</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>654</v>
+      </c>
+      <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="s">
         <v>449</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>451</v>
       </c>
@@ -7080,23 +7098,23 @@
       <c r="H108" t="b">
         <v>1</v>
       </c>
-      <c r="I108" t="b">
-        <v>1</v>
-      </c>
-      <c r="J108" t="s">
-        <v>654</v>
-      </c>
-      <c r="K108" t="b">
-        <v>1</v>
-      </c>
-      <c r="L108" t="s">
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>654</v>
+      </c>
+      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="s">
         <v>453</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="N108" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>455</v>
       </c>
@@ -7115,26 +7133,26 @@
       <c r="H109" t="b">
         <v>1</v>
       </c>
-      <c r="I109" t="b">
-        <v>1</v>
-      </c>
-      <c r="J109" t="s">
-        <v>654</v>
-      </c>
-      <c r="K109" t="b">
-        <v>1</v>
-      </c>
-      <c r="L109" t="s">
+      <c r="J109" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>654</v>
+      </c>
+      <c r="L109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="s">
         <v>673</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>457</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>459</v>
       </c>
@@ -7153,26 +7171,26 @@
       <c r="H110" t="b">
         <v>1</v>
       </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="s">
-        <v>654</v>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="s">
+      <c r="J110" t="b">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>654</v>
+      </c>
+      <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
         <v>461</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>462</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>464</v>
       </c>
@@ -7191,26 +7209,26 @@
       <c r="H111" t="b">
         <v>1</v>
       </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="s">
-        <v>654</v>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="s">
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>654</v>
+      </c>
+      <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111" t="s">
         <v>466</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>467</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>469</v>
       </c>
@@ -7229,26 +7247,26 @@
       <c r="H112" t="b">
         <v>1</v>
       </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="s">
-        <v>654</v>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="s">
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+      <c r="K112" t="s">
+        <v>654</v>
+      </c>
+      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112" t="s">
         <v>471</v>
       </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>472</v>
       </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>474</v>
       </c>
@@ -7267,26 +7285,26 @@
       <c r="H113" t="b">
         <v>1</v>
       </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="s">
-        <v>654</v>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="s">
+      <c r="J113" t="b">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>654</v>
+      </c>
+      <c r="L113" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113" t="s">
         <v>476</v>
       </c>
-      <c r="M113" t="s">
+      <c r="N113" t="s">
         <v>477</v>
       </c>
-      <c r="N113" t="s">
+      <c r="O113" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>479</v>
       </c>
@@ -7305,26 +7323,26 @@
       <c r="H114" t="b">
         <v>1</v>
       </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="s">
-        <v>654</v>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="s">
+      <c r="J114" t="b">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>654</v>
+      </c>
+      <c r="L114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114" t="s">
         <v>481</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>482</v>
       </c>
-      <c r="N114" t="s">
+      <c r="O114" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>484</v>
       </c>
@@ -7343,20 +7361,20 @@
       <c r="H115" t="b">
         <v>1</v>
       </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="s">
-        <v>654</v>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="s">
+      <c r="J115" t="b">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
+        <v>654</v>
+      </c>
+      <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>487</v>
       </c>
@@ -7375,26 +7393,26 @@
       <c r="H116" t="b">
         <v>1</v>
       </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="s">
-        <v>654</v>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="s">
+      <c r="J116" t="b">
+        <v>1</v>
+      </c>
+      <c r="K116" t="s">
+        <v>654</v>
+      </c>
+      <c r="L116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116" t="s">
         <v>674</v>
       </c>
-      <c r="M116" t="s">
+      <c r="N116" t="s">
         <v>489</v>
       </c>
-      <c r="N116" t="s">
+      <c r="O116" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>491</v>
       </c>
@@ -7413,23 +7431,23 @@
       <c r="H117" t="b">
         <v>1</v>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="s">
-        <v>654</v>
-      </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="s">
+      <c r="J117" t="b">
+        <v>1</v>
+      </c>
+      <c r="K117" t="s">
+        <v>654</v>
+      </c>
+      <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117" t="s">
         <v>493</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>532</v>
       </c>
@@ -7448,26 +7466,26 @@
       <c r="H118" t="b">
         <v>1</v>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="J118" t="b">
+        <v>1</v>
+      </c>
+      <c r="K118" t="s">
         <v>653</v>
       </c>
-      <c r="K118" t="b">
+      <c r="L118" t="b">
         <v>0</v>
       </c>
-      <c r="L118" t="s">
+      <c r="M118" t="s">
         <v>543</v>
       </c>
-      <c r="M118" t="s">
+      <c r="N118" t="s">
         <v>541</v>
       </c>
-      <c r="O118" t="s">
+      <c r="P118" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>533</v>
       </c>
@@ -7486,26 +7504,26 @@
       <c r="H119" t="b">
         <v>1</v>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="J119" t="b">
+        <v>1</v>
+      </c>
+      <c r="K119" t="s">
         <v>653</v>
       </c>
-      <c r="K119" t="b">
+      <c r="L119" t="b">
         <v>0</v>
       </c>
-      <c r="L119" t="s">
+      <c r="M119" t="s">
         <v>544</v>
       </c>
-      <c r="M119" t="s">
+      <c r="N119" t="s">
         <v>542</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>534</v>
       </c>
@@ -7521,26 +7539,26 @@
       <c r="H120" t="b">
         <v>1</v>
       </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="s">
-        <v>654</v>
-      </c>
-      <c r="K120" t="b">
+      <c r="J120" t="b">
+        <v>1</v>
+      </c>
+      <c r="K120" t="s">
+        <v>654</v>
+      </c>
+      <c r="L120" t="b">
         <v>0</v>
       </c>
-      <c r="L120" t="s">
+      <c r="M120" t="s">
         <v>545</v>
       </c>
-      <c r="M120" s="1" t="s">
+      <c r="N120" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>535</v>
       </c>
@@ -7559,26 +7577,26 @@
       <c r="H121" t="b">
         <v>1</v>
       </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>654</v>
-      </c>
-      <c r="K121" t="b">
+      <c r="J121" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" t="s">
+        <v>654</v>
+      </c>
+      <c r="L121" t="b">
         <v>0</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>547</v>
       </c>
-      <c r="M121" t="s">
+      <c r="N121" t="s">
         <v>548</v>
       </c>
-      <c r="O121" t="s">
+      <c r="P121" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>647</v>
       </c>
@@ -7597,26 +7615,26 @@
       <c r="H122" t="b">
         <v>1</v>
       </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="J122" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" t="s">
         <v>653</v>
       </c>
-      <c r="K122" t="b">
+      <c r="L122" t="b">
         <v>0</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>549</v>
       </c>
-      <c r="M122" t="s">
+      <c r="N122" t="s">
         <v>550</v>
       </c>
-      <c r="O122" t="s">
+      <c r="P122" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>537</v>
       </c>
@@ -7632,26 +7650,26 @@
       <c r="H123" t="b">
         <v>0</v>
       </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="J123" t="b">
+        <v>1</v>
+      </c>
+      <c r="K123" t="s">
         <v>653</v>
       </c>
-      <c r="K123" t="b">
+      <c r="L123" t="b">
         <v>0</v>
       </c>
-      <c r="L123" t="s">
+      <c r="M123" t="s">
         <v>551</v>
       </c>
-      <c r="M123" t="s">
+      <c r="N123" t="s">
         <v>552</v>
       </c>
-      <c r="O123" t="s">
+      <c r="P123" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>649</v>
       </c>
@@ -7670,26 +7688,29 @@
       <c r="H124" t="b">
         <v>1</v>
       </c>
-      <c r="I124" t="b">
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="b">
         <v>0</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>653</v>
       </c>
-      <c r="K124" t="b">
+      <c r="L124" t="b">
         <v>0</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>557</v>
       </c>
-      <c r="M124" t="s">
+      <c r="N124" t="s">
         <v>553</v>
       </c>
-      <c r="O124" t="s">
+      <c r="P124" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>539</v>
       </c>
@@ -7708,26 +7729,29 @@
       <c r="H125" t="b">
         <v>1</v>
       </c>
-      <c r="I125" t="b">
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" t="b">
         <v>0</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>653</v>
       </c>
-      <c r="K125" t="b">
+      <c r="L125" t="b">
         <v>0</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>634</v>
       </c>
-      <c r="M125" t="s">
+      <c r="N125" t="s">
         <v>635</v>
       </c>
-      <c r="O125" t="s">
+      <c r="P125" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>680</v>
       </c>
@@ -7743,26 +7767,29 @@
       <c r="H126" t="b">
         <v>1</v>
       </c>
-      <c r="I126" t="b">
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="J126" t="b">
         <v>0</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>653</v>
       </c>
-      <c r="K126" t="b">
+      <c r="L126" t="b">
         <v>0</v>
       </c>
-      <c r="L126" t="s">
+      <c r="M126" t="s">
         <v>554</v>
       </c>
-      <c r="M126" t="s">
+      <c r="N126" t="s">
         <v>678</v>
       </c>
-      <c r="O126" t="s">
+      <c r="P126" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>681</v>
       </c>
@@ -7778,23 +7805,26 @@
       <c r="H127" t="b">
         <v>1</v>
       </c>
-      <c r="I127" t="b">
+      <c r="I127">
+        <v>8</v>
+      </c>
+      <c r="J127" t="b">
         <v>0</v>
       </c>
-      <c r="J127" t="s">
-        <v>654</v>
-      </c>
-      <c r="K127" t="b">
+      <c r="K127" t="s">
+        <v>654</v>
+      </c>
+      <c r="L127" t="b">
         <v>0</v>
       </c>
-      <c r="L127" t="s">
+      <c r="M127" t="s">
         <v>677</v>
       </c>
-      <c r="M127" t="s">
+      <c r="N127" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>638</v>
       </c>
@@ -7810,23 +7840,23 @@
       <c r="H128" t="b">
         <v>1</v>
       </c>
-      <c r="I128" t="b">
-        <v>1</v>
-      </c>
-      <c r="J128" t="s">
-        <v>654</v>
-      </c>
-      <c r="K128" t="b">
+      <c r="J128" t="b">
+        <v>1</v>
+      </c>
+      <c r="K128" t="s">
+        <v>654</v>
+      </c>
+      <c r="L128" t="b">
         <v>0</v>
       </c>
-      <c r="L128" t="s">
+      <c r="M128" t="s">
         <v>639</v>
       </c>
-      <c r="M128" t="s">
+      <c r="N128" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>558</v>
       </c>
@@ -7845,26 +7875,26 @@
       <c r="H129" t="b">
         <v>1</v>
       </c>
-      <c r="I129" t="b">
-        <v>1</v>
-      </c>
-      <c r="J129" t="s">
-        <v>654</v>
-      </c>
-      <c r="K129" t="b">
+      <c r="J129" t="b">
+        <v>1</v>
+      </c>
+      <c r="K129" t="s">
+        <v>654</v>
+      </c>
+      <c r="L129" t="b">
         <v>0</v>
-      </c>
-      <c r="L129" t="s">
-        <v>555</v>
       </c>
       <c r="M129" t="s">
         <v>555</v>
       </c>
-      <c r="O129" t="s">
+      <c r="N129" t="s">
+        <v>555</v>
+      </c>
+      <c r="P129" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>641</v>
       </c>
@@ -7880,23 +7910,23 @@
       <c r="H130" t="b">
         <v>0</v>
       </c>
-      <c r="I130" t="b">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>654</v>
-      </c>
-      <c r="K130" t="b">
+      <c r="J130" t="b">
+        <v>1</v>
+      </c>
+      <c r="K130" t="s">
+        <v>654</v>
+      </c>
+      <c r="L130" t="b">
         <v>0</v>
       </c>
-      <c r="L130" t="s">
+      <c r="M130" t="s">
         <v>642</v>
       </c>
-      <c r="M130" t="s">
+      <c r="N130" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>644</v>
       </c>
@@ -7912,23 +7942,23 @@
       <c r="H131" t="b">
         <v>0</v>
       </c>
-      <c r="I131" t="b">
-        <v>1</v>
-      </c>
-      <c r="J131" t="s">
-        <v>654</v>
-      </c>
-      <c r="K131" t="b">
+      <c r="J131" t="b">
+        <v>1</v>
+      </c>
+      <c r="K131" t="s">
+        <v>654</v>
+      </c>
+      <c r="L131" t="b">
         <v>0</v>
       </c>
-      <c r="L131" t="s">
+      <c r="M131" t="s">
         <v>554</v>
       </c>
-      <c r="M131" t="s">
+      <c r="N131" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>648</v>
       </c>
@@ -7944,23 +7974,23 @@
       <c r="H132" t="b">
         <v>1</v>
       </c>
-      <c r="I132" t="b">
-        <v>1</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="J132" t="b">
+        <v>1</v>
+      </c>
+      <c r="K132" t="s">
         <v>653</v>
       </c>
-      <c r="K132" t="b">
+      <c r="L132" t="b">
         <v>0</v>
-      </c>
-      <c r="L132" t="s">
-        <v>556</v>
       </c>
       <c r="M132" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>568</v>
       </c>
@@ -7979,26 +8009,26 @@
       <c r="H133" t="b">
         <v>1</v>
       </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="s">
-        <v>654</v>
-      </c>
-      <c r="K133" t="b">
+      <c r="J133" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" t="s">
+        <v>654</v>
+      </c>
+      <c r="L133" t="b">
         <v>0</v>
-      </c>
-      <c r="L133" t="s">
-        <v>576</v>
       </c>
       <c r="M133" t="s">
         <v>576</v>
       </c>
       <c r="N133" t="s">
+        <v>576</v>
+      </c>
+      <c r="O133" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>569</v>
       </c>
@@ -8017,26 +8047,26 @@
       <c r="H134" t="b">
         <v>1</v>
       </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="s">
-        <v>654</v>
-      </c>
-      <c r="K134" t="b">
+      <c r="J134" t="b">
+        <v>1</v>
+      </c>
+      <c r="K134" t="s">
+        <v>654</v>
+      </c>
+      <c r="L134" t="b">
         <v>0</v>
-      </c>
-      <c r="L134" t="s">
-        <v>577</v>
       </c>
       <c r="M134" t="s">
         <v>577</v>
       </c>
       <c r="N134" t="s">
+        <v>577</v>
+      </c>
+      <c r="O134" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>570</v>
       </c>
@@ -8055,26 +8085,26 @@
       <c r="H135" t="b">
         <v>1</v>
       </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="s">
-        <v>654</v>
-      </c>
-      <c r="K135" t="b">
+      <c r="J135" t="b">
+        <v>1</v>
+      </c>
+      <c r="K135" t="s">
+        <v>654</v>
+      </c>
+      <c r="L135" t="b">
         <v>0</v>
-      </c>
-      <c r="L135" t="s">
-        <v>579</v>
       </c>
       <c r="M135" t="s">
         <v>579</v>
       </c>
-      <c r="N135">
+      <c r="N135" t="s">
+        <v>579</v>
+      </c>
+      <c r="O135">
         <v>1.18</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>594</v>
       </c>
@@ -8093,26 +8123,26 @@
       <c r="H136" t="b">
         <v>1</v>
       </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="s">
-        <v>654</v>
-      </c>
-      <c r="K136" t="b">
+      <c r="J136" t="b">
+        <v>1</v>
+      </c>
+      <c r="K136" t="s">
+        <v>654</v>
+      </c>
+      <c r="L136" t="b">
         <v>0</v>
-      </c>
-      <c r="L136" t="s">
-        <v>629</v>
       </c>
       <c r="M136" t="s">
         <v>629</v>
       </c>
       <c r="N136" t="s">
+        <v>629</v>
+      </c>
+      <c r="O136" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>595</v>
       </c>
@@ -8131,26 +8161,26 @@
       <c r="H137" t="b">
         <v>1</v>
       </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="s">
-        <v>654</v>
-      </c>
-      <c r="K137" t="b">
+      <c r="J137" t="b">
+        <v>1</v>
+      </c>
+      <c r="K137" t="s">
+        <v>654</v>
+      </c>
+      <c r="L137" t="b">
         <v>0</v>
-      </c>
-      <c r="L137" t="s">
-        <v>630</v>
       </c>
       <c r="M137" t="s">
         <v>630</v>
       </c>
       <c r="N137" t="s">
+        <v>630</v>
+      </c>
+      <c r="O137" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>596</v>
       </c>
@@ -8169,26 +8199,26 @@
       <c r="H138" t="b">
         <v>1</v>
       </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="s">
-        <v>654</v>
-      </c>
-      <c r="K138" t="b">
+      <c r="J138" t="b">
+        <v>1</v>
+      </c>
+      <c r="K138" t="s">
+        <v>654</v>
+      </c>
+      <c r="L138" t="b">
         <v>0</v>
-      </c>
-      <c r="L138" t="s">
-        <v>627</v>
       </c>
       <c r="M138" t="s">
         <v>627</v>
       </c>
       <c r="N138" t="s">
+        <v>627</v>
+      </c>
+      <c r="O138" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>571</v>
       </c>
@@ -8207,26 +8237,26 @@
       <c r="H139" t="b">
         <v>1</v>
       </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="s">
-        <v>654</v>
-      </c>
-      <c r="K139" t="b">
+      <c r="J139" t="b">
+        <v>1</v>
+      </c>
+      <c r="K139" t="s">
+        <v>654</v>
+      </c>
+      <c r="L139" t="b">
         <v>0</v>
-      </c>
-      <c r="L139" t="s">
-        <v>580</v>
       </c>
       <c r="M139" t="s">
         <v>580</v>
       </c>
       <c r="N139" t="s">
+        <v>580</v>
+      </c>
+      <c r="O139" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>572</v>
       </c>
@@ -8245,26 +8275,26 @@
       <c r="H140" t="b">
         <v>1</v>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="s">
-        <v>654</v>
-      </c>
-      <c r="K140" t="b">
+      <c r="J140" t="b">
+        <v>1</v>
+      </c>
+      <c r="K140" t="s">
+        <v>654</v>
+      </c>
+      <c r="L140" t="b">
         <v>0</v>
-      </c>
-      <c r="L140" t="s">
-        <v>581</v>
       </c>
       <c r="M140" t="s">
         <v>581</v>
       </c>
-      <c r="N140">
+      <c r="N140" t="s">
+        <v>581</v>
+      </c>
+      <c r="O140">
         <v>1.2</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>573</v>
       </c>
@@ -8283,26 +8313,26 @@
       <c r="H141" t="b">
         <v>1</v>
       </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="s">
-        <v>654</v>
-      </c>
-      <c r="K141" t="b">
+      <c r="J141" t="b">
+        <v>1</v>
+      </c>
+      <c r="K141" t="s">
+        <v>654</v>
+      </c>
+      <c r="L141" t="b">
         <v>0</v>
-      </c>
-      <c r="L141" t="s">
-        <v>582</v>
       </c>
       <c r="M141" t="s">
         <v>582</v>
       </c>
       <c r="N141" t="s">
+        <v>582</v>
+      </c>
+      <c r="O141" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>574</v>
       </c>
@@ -8321,26 +8351,26 @@
       <c r="H142" t="b">
         <v>1</v>
       </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="s">
-        <v>654</v>
-      </c>
-      <c r="K142" t="b">
+      <c r="J142" t="b">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>654</v>
+      </c>
+      <c r="L142" t="b">
         <v>0</v>
-      </c>
-      <c r="L142" t="s">
-        <v>583</v>
       </c>
       <c r="M142" t="s">
         <v>583</v>
       </c>
-      <c r="N142">
+      <c r="N142" t="s">
+        <v>583</v>
+      </c>
+      <c r="O142">
         <v>1.2</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>575</v>
       </c>
@@ -8359,26 +8389,26 @@
       <c r="H143" t="b">
         <v>1</v>
       </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="s">
-        <v>654</v>
-      </c>
-      <c r="K143" t="b">
+      <c r="J143" t="b">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>654</v>
+      </c>
+      <c r="L143" t="b">
         <v>0</v>
       </c>
-      <c r="L143" t="s">
+      <c r="M143" t="s">
         <v>578</v>
       </c>
-      <c r="M143" t="s">
+      <c r="N143" t="s">
         <v>636</v>
       </c>
-      <c r="N143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>584</v>
       </c>
@@ -8397,27 +8427,26 @@
       <c r="H144" t="b">
         <v>1</v>
       </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="s">
+      <c r="J144" t="b">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
         <v>653</v>
       </c>
-      <c r="K144" t="b">
+      <c r="L144" t="b">
         <v>0</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>585</v>
       </c>
-      <c r="M144" t="s">
+      <c r="N144" t="s">
         <v>637</v>
       </c>
-      <c r="N144" t="s">
+      <c r="O144" t="s">
         <v>590</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O144" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1358572-622C-48DE-8EF2-D039B9BA9326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA75DE1-6F1E-43FB-8F02-59AAADDCE91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="airr_schema_defs" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$P$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">airr_schema_defs!$A$1:$Q$144</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="685">
   <si>
     <t>structured_name</t>
   </si>
@@ -2094,9 +2094,6 @@
     <t>Links to haplotype reports</t>
   </si>
   <si>
-    <t>genotypes</t>
-  </si>
-  <si>
     <t>haplotypes</t>
   </si>
   <si>
@@ -2107,6 +2104,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>bool_value</t>
   </si>
 </sst>
 </file>
@@ -2959,10 +2959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,12 +2972,12 @@
     <col min="3" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="39.28515625" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" customWidth="1"/>
-    <col min="14" max="14" width="148.28515625" customWidth="1"/>
-    <col min="15" max="15" width="58.42578125" customWidth="1"/>
+    <col min="13" max="14" width="35.42578125" customWidth="1"/>
+    <col min="15" max="15" width="148.28515625" customWidth="1"/>
+    <col min="16" max="16" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>650</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>651</v>
@@ -3018,16 +3018,19 @@
         <v>5</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3058,11 +3061,11 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3093,11 +3096,11 @@
       <c r="M3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -3128,11 +3131,11 @@
       <c r="M4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3172,14 +3175,14 @@
       <c r="M5" t="s">
         <v>25</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3210,14 +3213,14 @@
       <c r="M6" t="s">
         <v>30</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3248,11 +3251,11 @@
       <c r="M7" t="s">
         <v>660</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3283,11 +3286,11 @@
       <c r="M8" t="s">
         <v>35</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -3318,14 +3321,14 @@
       <c r="M9" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>43</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -3356,14 +3359,14 @@
       <c r="M10" t="s">
         <v>665</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>47</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -3394,14 +3397,14 @@
       <c r="M11" t="s">
         <v>51</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>52</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3438,14 +3441,14 @@
       <c r="M12" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3476,14 +3479,14 @@
       <c r="M13" t="s">
         <v>666</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -3517,14 +3520,14 @@
       <c r="M14" t="s">
         <v>65</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>66</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -3561,14 +3564,14 @@
       <c r="M15" t="s">
         <v>70</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>71</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3605,14 +3608,14 @@
       <c r="M16" t="s">
         <v>667</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3649,14 +3652,14 @@
       <c r="M17" t="s">
         <v>79</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>80</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>82</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -3719,14 +3722,14 @@
       <c r="M19" t="s">
         <v>87</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="O19" s="2">
+      <c r="P19" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>89</v>
       </c>
@@ -3757,14 +3760,14 @@
       <c r="M20" t="s">
         <v>91</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O20" s="2">
+      <c r="P20" s="2">
         <v>44229</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -3801,14 +3804,14 @@
       <c r="M21" t="s">
         <v>96</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>97</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -3839,11 +3842,11 @@
       <c r="M22" t="s">
         <v>102</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -3874,11 +3877,11 @@
       <c r="M23" t="s">
         <v>661</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -3909,11 +3912,11 @@
       <c r="M24" t="s">
         <v>662</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3944,11 +3947,11 @@
       <c r="M25" t="s">
         <v>655</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -3979,11 +3982,11 @@
       <c r="M26" t="s">
         <v>106</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -4020,14 +4023,14 @@
       <c r="M27" t="s">
         <v>115</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>116</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -4058,14 +4061,14 @@
       <c r="M28" t="s">
         <v>120</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>121</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -4096,14 +4099,14 @@
       <c r="M29" t="s">
         <v>124</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>126</v>
       </c>
@@ -4134,11 +4137,11 @@
       <c r="M30" t="s">
         <v>663</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>129</v>
       </c>
@@ -4169,11 +4172,11 @@
       <c r="M31" t="s">
         <v>128</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -4204,14 +4207,14 @@
       <c r="M32" t="s">
         <v>133</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -4286,14 +4289,14 @@
       <c r="M34" t="s">
         <v>140</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>141</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
@@ -4330,14 +4333,14 @@
       <c r="M35" t="s">
         <v>145</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>146</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>148</v>
       </c>
@@ -4368,14 +4371,14 @@
       <c r="M36" t="s">
         <v>150</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>151</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -4406,14 +4409,14 @@
       <c r="M37" t="s">
         <v>155</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>156</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>158</v>
       </c>
@@ -4444,14 +4447,14 @@
       <c r="M38" t="s">
         <v>160</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>161</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -4482,14 +4485,14 @@
       <c r="M39" t="s">
         <v>165</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>166</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>168</v>
       </c>
@@ -4526,14 +4529,14 @@
       <c r="M40" t="s">
         <v>170</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>171</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>173</v>
       </c>
@@ -4564,11 +4567,11 @@
       <c r="M41" t="s">
         <v>175</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -4605,11 +4608,11 @@
       <c r="M42" t="s">
         <v>175</v>
       </c>
-      <c r="N42" t="s">
+      <c r="O42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -4640,14 +4643,14 @@
       <c r="M43" t="s">
         <v>180</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>181</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -4678,14 +4681,14 @@
       <c r="M44" t="s">
         <v>185</v>
       </c>
-      <c r="N44" t="s">
+      <c r="O44" t="s">
         <v>186</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>188</v>
       </c>
@@ -4716,14 +4719,14 @@
       <c r="M45" t="s">
         <v>668</v>
       </c>
-      <c r="N45" t="s">
+      <c r="O45" t="s">
         <v>190</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>192</v>
       </c>
@@ -4754,14 +4757,14 @@
       <c r="M46" t="s">
         <v>194</v>
       </c>
-      <c r="N46" t="s">
+      <c r="O46" t="s">
         <v>195</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>197</v>
       </c>
@@ -4792,14 +4795,14 @@
       <c r="M47" t="s">
         <v>199</v>
       </c>
-      <c r="N47" t="s">
+      <c r="O47" t="s">
         <v>200</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>202</v>
       </c>
@@ -4830,14 +4833,14 @@
       <c r="M48" t="s">
         <v>204</v>
       </c>
-      <c r="N48" t="s">
+      <c r="O48" t="s">
         <v>205</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>207</v>
       </c>
@@ -4865,11 +4868,11 @@
       <c r="L49" t="b">
         <v>0</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>210</v>
       </c>
@@ -4897,11 +4900,11 @@
       <c r="L50" t="b">
         <v>0</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>213</v>
       </c>
@@ -4929,11 +4932,11 @@
       <c r="L51" t="b">
         <v>1</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>216</v>
       </c>
@@ -4961,11 +4964,11 @@
       <c r="L52" t="b">
         <v>1</v>
       </c>
-      <c r="O52" t="s">
+      <c r="P52" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>219</v>
       </c>
@@ -4993,11 +4996,11 @@
       <c r="L53" t="b">
         <v>1</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>222</v>
       </c>
@@ -5025,11 +5028,11 @@
       <c r="L54" t="b">
         <v>1</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>225</v>
       </c>
@@ -5060,14 +5063,14 @@
       <c r="M55" t="s">
         <v>227</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>228</v>
       </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>230</v>
       </c>
@@ -5098,11 +5101,11 @@
       <c r="M56" t="s">
         <v>233</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>235</v>
       </c>
@@ -5133,14 +5136,14 @@
       <c r="M57" t="s">
         <v>238</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>239</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>241</v>
       </c>
@@ -5171,14 +5174,14 @@
       <c r="M58" t="s">
         <v>243</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>244</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>246</v>
       </c>
@@ -5197,11 +5200,8 @@
       <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="s">
         <v>653</v>
@@ -5212,11 +5212,11 @@
       <c r="M59" t="s">
         <v>664</v>
       </c>
-      <c r="N59" t="s">
+      <c r="O59" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>249</v>
       </c>
@@ -5241,8 +5241,11 @@
       <c r="H60" t="b">
         <v>1</v>
       </c>
+      <c r="I60">
+        <v>5</v>
+      </c>
       <c r="J60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="s">
         <v>653</v>
@@ -5253,11 +5256,11 @@
       <c r="M60" t="s">
         <v>248</v>
       </c>
-      <c r="N60" t="s">
+      <c r="O60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>251</v>
       </c>
@@ -5288,14 +5291,14 @@
       <c r="M61" t="s">
         <v>253</v>
       </c>
-      <c r="N61" t="s">
+      <c r="O61" t="s">
         <v>254</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>256</v>
       </c>
@@ -5326,14 +5329,14 @@
       <c r="M62" t="s">
         <v>258</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>259</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>261</v>
       </c>
@@ -5367,14 +5370,14 @@
       <c r="M63" t="s">
         <v>263</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>264</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>265</v>
       </c>
@@ -5405,11 +5408,11 @@
       <c r="M64" t="s">
         <v>267</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>268</v>
       </c>
@@ -5440,11 +5443,11 @@
       <c r="M65" t="s">
         <v>267</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>270</v>
       </c>
@@ -5475,14 +5478,14 @@
       <c r="M66" t="s">
         <v>272</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>273</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>275</v>
       </c>
@@ -5513,14 +5516,14 @@
       <c r="M67" t="s">
         <v>277</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>278</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -5554,14 +5557,14 @@
       <c r="M68" t="s">
         <v>283</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>284</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>286</v>
       </c>
@@ -5592,11 +5595,11 @@
       <c r="M69" t="s">
         <v>658</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -5633,11 +5636,11 @@
       <c r="M70" t="s">
         <v>288</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>291</v>
       </c>
@@ -5674,14 +5677,14 @@
       <c r="M71" t="s">
         <v>293</v>
       </c>
-      <c r="N71" t="s">
+      <c r="O71" t="s">
         <v>294</v>
       </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>296</v>
       </c>
@@ -5712,11 +5715,11 @@
       <c r="M72" t="s">
         <v>659</v>
       </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>299</v>
       </c>
@@ -5753,11 +5756,11 @@
       <c r="M73" t="s">
         <v>298</v>
       </c>
-      <c r="N73" t="s">
+      <c r="O73" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>301</v>
       </c>
@@ -5788,11 +5791,11 @@
       <c r="M74" t="s">
         <v>303</v>
       </c>
-      <c r="N74" t="s">
+      <c r="O74" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>305</v>
       </c>
@@ -5823,14 +5826,14 @@
       <c r="M75" t="s">
         <v>308</v>
       </c>
-      <c r="N75" t="s">
+      <c r="O75" t="s">
         <v>309</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>1000000</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>310</v>
       </c>
@@ -5861,14 +5864,14 @@
       <c r="M76" t="s">
         <v>669</v>
       </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>312</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>50000</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>313</v>
       </c>
@@ -5899,14 +5902,14 @@
       <c r="M77" t="s">
         <v>315</v>
       </c>
-      <c r="N77" t="s">
+      <c r="O77" t="s">
         <v>316</v>
       </c>
-      <c r="O77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>317</v>
       </c>
@@ -5937,14 +5940,14 @@
       <c r="M78" t="s">
         <v>319</v>
       </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
         <v>320</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>322</v>
       </c>
@@ -5975,14 +5978,14 @@
       <c r="M79" t="s">
         <v>675</v>
       </c>
-      <c r="N79" t="s">
+      <c r="O79" t="s">
         <v>324</v>
       </c>
-      <c r="O79" s="1" t="s">
+      <c r="P79" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>326</v>
       </c>
@@ -6013,14 +6016,14 @@
       <c r="M80" t="s">
         <v>328</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="O80" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>331</v>
       </c>
@@ -6057,14 +6060,14 @@
       <c r="M81" t="s">
         <v>334</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="O81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="O81" t="s">
+      <c r="P81" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>337</v>
       </c>
@@ -6095,14 +6098,14 @@
       <c r="M82" t="s">
         <v>339</v>
       </c>
-      <c r="N82" t="s">
+      <c r="O82" t="s">
         <v>340</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>342</v>
       </c>
@@ -6133,14 +6136,14 @@
       <c r="M83" t="s">
         <v>344</v>
       </c>
-      <c r="N83" t="s">
+      <c r="O83" t="s">
         <v>345</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>1000</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>346</v>
       </c>
@@ -6169,13 +6172,13 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
-        <v>682</v>
-      </c>
-      <c r="N84" t="s">
+        <v>681</v>
+      </c>
+      <c r="O84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>348</v>
       </c>
@@ -6204,13 +6207,13 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
-        <v>683</v>
-      </c>
-      <c r="N85" t="s">
+        <v>682</v>
+      </c>
+      <c r="O85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -6247,14 +6250,14 @@
       <c r="M86" t="s">
         <v>352</v>
       </c>
-      <c r="N86" t="s">
+      <c r="O86" t="s">
         <v>353</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>355</v>
       </c>
@@ -6285,14 +6288,14 @@
       <c r="M87" t="s">
         <v>357</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>358</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>360</v>
       </c>
@@ -6323,14 +6326,14 @@
       <c r="M88" t="s">
         <v>362</v>
       </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>363</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>365</v>
       </c>
@@ -6367,14 +6370,14 @@
       <c r="M89" t="s">
         <v>367</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P89" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>370</v>
       </c>
@@ -6411,14 +6414,14 @@
       <c r="M90" t="s">
         <v>670</v>
       </c>
-      <c r="N90" t="s">
+      <c r="O90" t="s">
         <v>372</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>374</v>
       </c>
@@ -6455,14 +6458,14 @@
       <c r="M91" t="s">
         <v>671</v>
       </c>
-      <c r="N91" t="s">
+      <c r="O91" t="s">
         <v>376</v>
       </c>
-      <c r="O91" t="s">
+      <c r="P91" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>378</v>
       </c>
@@ -6496,14 +6499,14 @@
       <c r="M92" t="s">
         <v>380</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>383</v>
       </c>
@@ -6534,14 +6537,14 @@
       <c r="M93" t="s">
         <v>672</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>387</v>
       </c>
@@ -6572,14 +6575,14 @@
       <c r="M94" t="s">
         <v>390</v>
       </c>
-      <c r="N94" t="s">
+      <c r="O94" t="s">
         <v>391</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>393</v>
       </c>
@@ -6610,14 +6613,14 @@
       <c r="M95" t="s">
         <v>395</v>
       </c>
-      <c r="N95" t="s">
+      <c r="O95" t="s">
         <v>396</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>10365118</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>397</v>
       </c>
@@ -6654,14 +6657,14 @@
       <c r="M96" t="s">
         <v>399</v>
       </c>
-      <c r="N96" t="s">
+      <c r="O96" t="s">
         <v>400</v>
       </c>
-      <c r="O96" t="s">
+      <c r="P96" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>402</v>
       </c>
@@ -6692,14 +6695,14 @@
       <c r="M97" t="s">
         <v>404</v>
       </c>
-      <c r="N97" t="s">
+      <c r="O97" t="s">
         <v>405</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -6730,14 +6733,14 @@
       <c r="M98" t="s">
         <v>409</v>
       </c>
-      <c r="N98" t="s">
+      <c r="O98" t="s">
         <v>409</v>
       </c>
-      <c r="O98" s="2">
+      <c r="P98" s="2">
         <v>42720</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>410</v>
       </c>
@@ -6768,14 +6771,14 @@
       <c r="M99" t="s">
         <v>412</v>
       </c>
-      <c r="N99" t="s">
+      <c r="O99" t="s">
         <v>413</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>415</v>
       </c>
@@ -6806,11 +6809,11 @@
       <c r="M100" t="s">
         <v>417</v>
       </c>
-      <c r="N100" t="s">
+      <c r="O100" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>419</v>
       </c>
@@ -6841,14 +6844,14 @@
       <c r="M101" t="s">
         <v>421</v>
       </c>
-      <c r="N101" t="s">
+      <c r="O101" t="s">
         <v>422</v>
       </c>
-      <c r="O101" t="s">
+      <c r="P101" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>424</v>
       </c>
@@ -6879,14 +6882,14 @@
       <c r="M102" t="s">
         <v>426</v>
       </c>
-      <c r="N102" t="s">
+      <c r="O102" t="s">
         <v>427</v>
       </c>
-      <c r="O102" t="s">
+      <c r="P102" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>429</v>
       </c>
@@ -6923,14 +6926,14 @@
       <c r="M103" t="s">
         <v>431</v>
       </c>
-      <c r="N103" t="s">
+      <c r="O103" t="s">
         <v>432</v>
       </c>
-      <c r="O103">
+      <c r="P103">
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>433</v>
       </c>
@@ -6961,14 +6964,14 @@
       <c r="M104" t="s">
         <v>657</v>
       </c>
-      <c r="N104" t="s">
+      <c r="O104" t="s">
         <v>435</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>437</v>
       </c>
@@ -6999,14 +7002,14 @@
       <c r="M105" t="s">
         <v>439</v>
       </c>
-      <c r="N105" t="s">
+      <c r="O105" t="s">
         <v>440</v>
       </c>
-      <c r="O105" t="s">
+      <c r="P105" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>442</v>
       </c>
@@ -7037,14 +7040,14 @@
       <c r="M106" t="s">
         <v>444</v>
       </c>
-      <c r="N106" t="s">
+      <c r="O106" t="s">
         <v>445</v>
       </c>
-      <c r="O106">
+      <c r="P106">
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>446</v>
       </c>
@@ -7075,11 +7078,11 @@
       <c r="M107" t="s">
         <v>449</v>
       </c>
-      <c r="N107" t="s">
+      <c r="O107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>451</v>
       </c>
@@ -7110,11 +7113,11 @@
       <c r="M108" t="s">
         <v>453</v>
       </c>
-      <c r="N108" s="1" t="s">
+      <c r="O108" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>455</v>
       </c>
@@ -7145,14 +7148,14 @@
       <c r="M109" t="s">
         <v>673</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
         <v>457</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>459</v>
       </c>
@@ -7183,14 +7186,14 @@
       <c r="M110" t="s">
         <v>461</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>462</v>
       </c>
-      <c r="O110" t="s">
+      <c r="P110" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>464</v>
       </c>
@@ -7221,14 +7224,14 @@
       <c r="M111" t="s">
         <v>466</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>467</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>469</v>
       </c>
@@ -7259,14 +7262,14 @@
       <c r="M112" t="s">
         <v>471</v>
       </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>472</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>474</v>
       </c>
@@ -7297,14 +7300,14 @@
       <c r="M113" t="s">
         <v>476</v>
       </c>
-      <c r="N113" t="s">
+      <c r="O113" t="s">
         <v>477</v>
       </c>
-      <c r="O113" t="s">
+      <c r="P113" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>479</v>
       </c>
@@ -7335,14 +7338,14 @@
       <c r="M114" t="s">
         <v>481</v>
       </c>
-      <c r="N114" t="s">
+      <c r="O114" t="s">
         <v>482</v>
       </c>
-      <c r="O114" t="s">
+      <c r="P114" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>484</v>
       </c>
@@ -7374,7 +7377,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>487</v>
       </c>
@@ -7405,14 +7408,14 @@
       <c r="M116" t="s">
         <v>674</v>
       </c>
-      <c r="N116" t="s">
+      <c r="O116" t="s">
         <v>489</v>
       </c>
-      <c r="O116" t="s">
+      <c r="P116" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>491</v>
       </c>
@@ -7443,11 +7446,11 @@
       <c r="M117" t="s">
         <v>493</v>
       </c>
-      <c r="N117" t="s">
+      <c r="O117" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>532</v>
       </c>
@@ -7478,14 +7481,14 @@
       <c r="M118" t="s">
         <v>543</v>
       </c>
-      <c r="N118" t="s">
+      <c r="O118" t="s">
         <v>541</v>
       </c>
-      <c r="P118" t="s">
+      <c r="Q118" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>533</v>
       </c>
@@ -7516,14 +7519,14 @@
       <c r="M119" t="s">
         <v>544</v>
       </c>
-      <c r="N119" t="s">
+      <c r="O119" t="s">
         <v>542</v>
       </c>
-      <c r="P119" t="s">
+      <c r="Q119" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>534</v>
       </c>
@@ -7551,14 +7554,14 @@
       <c r="M120" t="s">
         <v>545</v>
       </c>
-      <c r="N120" s="1" t="s">
+      <c r="O120" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="P120" t="s">
+      <c r="Q120" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>535</v>
       </c>
@@ -7589,14 +7592,14 @@
       <c r="M121" t="s">
         <v>547</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>548</v>
       </c>
-      <c r="P121" t="s">
+      <c r="Q121" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>647</v>
       </c>
@@ -7627,14 +7630,14 @@
       <c r="M122" t="s">
         <v>549</v>
       </c>
-      <c r="N122" t="s">
+      <c r="O122" t="s">
         <v>550</v>
       </c>
-      <c r="P122" t="s">
+      <c r="Q122" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>537</v>
       </c>
@@ -7662,14 +7665,14 @@
       <c r="M123" t="s">
         <v>551</v>
       </c>
-      <c r="N123" t="s">
+      <c r="O123" t="s">
         <v>552</v>
       </c>
-      <c r="P123" t="s">
+      <c r="Q123" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>649</v>
       </c>
@@ -7703,14 +7706,14 @@
       <c r="M124" t="s">
         <v>557</v>
       </c>
-      <c r="N124" t="s">
+      <c r="O124" t="s">
         <v>553</v>
       </c>
-      <c r="P124" t="s">
+      <c r="Q124" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>539</v>
       </c>
@@ -7744,16 +7747,16 @@
       <c r="M125" t="s">
         <v>634</v>
       </c>
-      <c r="N125" t="s">
+      <c r="O125" t="s">
         <v>635</v>
       </c>
-      <c r="P125" t="s">
+      <c r="Q125" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>680</v>
+        <v>540</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>237</v>
@@ -7782,16 +7785,16 @@
       <c r="M126" t="s">
         <v>554</v>
       </c>
-      <c r="N126" t="s">
+      <c r="O126" t="s">
         <v>678</v>
       </c>
-      <c r="P126" t="s">
+      <c r="Q126" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>237</v>
@@ -7820,11 +7823,11 @@
       <c r="M127" t="s">
         <v>677</v>
       </c>
-      <c r="N127" t="s">
+      <c r="O127" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>638</v>
       </c>
@@ -7852,11 +7855,11 @@
       <c r="M128" t="s">
         <v>639</v>
       </c>
-      <c r="N128" t="s">
+      <c r="O128" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>558</v>
       </c>
@@ -7887,14 +7890,14 @@
       <c r="M129" t="s">
         <v>555</v>
       </c>
-      <c r="N129" t="s">
+      <c r="O129" t="s">
         <v>555</v>
       </c>
-      <c r="P129" t="s">
+      <c r="Q129" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>641</v>
       </c>
@@ -7922,11 +7925,11 @@
       <c r="M130" t="s">
         <v>642</v>
       </c>
-      <c r="N130" t="s">
+      <c r="O130" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>644</v>
       </c>
@@ -7954,11 +7957,11 @@
       <c r="M131" t="s">
         <v>554</v>
       </c>
-      <c r="N131" t="s">
+      <c r="O131" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>648</v>
       </c>
@@ -7986,11 +7989,11 @@
       <c r="M132" t="s">
         <v>556</v>
       </c>
-      <c r="N132" t="s">
+      <c r="O132" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>568</v>
       </c>
@@ -8021,14 +8024,14 @@
       <c r="M133" t="s">
         <v>576</v>
       </c>
-      <c r="N133" t="s">
+      <c r="O133" t="s">
         <v>576</v>
       </c>
-      <c r="O133" t="s">
+      <c r="P133" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>569</v>
       </c>
@@ -8059,14 +8062,14 @@
       <c r="M134" t="s">
         <v>577</v>
       </c>
-      <c r="N134" t="s">
+      <c r="O134" t="s">
         <v>577</v>
       </c>
-      <c r="O134" t="s">
+      <c r="P134" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>570</v>
       </c>
@@ -8097,14 +8100,14 @@
       <c r="M135" t="s">
         <v>579</v>
       </c>
-      <c r="N135" t="s">
+      <c r="O135" t="s">
         <v>579</v>
       </c>
-      <c r="O135">
+      <c r="P135">
         <v>1.18</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>594</v>
       </c>
@@ -8135,14 +8138,14 @@
       <c r="M136" t="s">
         <v>629</v>
       </c>
-      <c r="N136" t="s">
+      <c r="O136" t="s">
         <v>629</v>
       </c>
-      <c r="O136" t="s">
+      <c r="P136" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>595</v>
       </c>
@@ -8173,14 +8176,14 @@
       <c r="M137" t="s">
         <v>630</v>
       </c>
-      <c r="N137" t="s">
+      <c r="O137" t="s">
         <v>630</v>
       </c>
-      <c r="O137" t="s">
+      <c r="P137" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>596</v>
       </c>
@@ -8211,14 +8214,14 @@
       <c r="M138" t="s">
         <v>627</v>
       </c>
-      <c r="N138" t="s">
+      <c r="O138" t="s">
         <v>627</v>
       </c>
-      <c r="O138" t="s">
+      <c r="P138" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>571</v>
       </c>
@@ -8249,14 +8252,14 @@
       <c r="M139" t="s">
         <v>580</v>
       </c>
-      <c r="N139" t="s">
+      <c r="O139" t="s">
         <v>580</v>
       </c>
-      <c r="O139" t="s">
+      <c r="P139" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>572</v>
       </c>
@@ -8287,14 +8290,14 @@
       <c r="M140" t="s">
         <v>581</v>
       </c>
-      <c r="N140" t="s">
+      <c r="O140" t="s">
         <v>581</v>
       </c>
-      <c r="O140">
+      <c r="P140">
         <v>1.2</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>573</v>
       </c>
@@ -8325,14 +8328,14 @@
       <c r="M141" t="s">
         <v>582</v>
       </c>
-      <c r="N141" t="s">
+      <c r="O141" t="s">
         <v>582</v>
       </c>
-      <c r="O141" t="s">
+      <c r="P141" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>574</v>
       </c>
@@ -8363,14 +8366,14 @@
       <c r="M142" t="s">
         <v>583</v>
       </c>
-      <c r="N142" t="s">
+      <c r="O142" t="s">
         <v>583</v>
       </c>
-      <c r="O142">
+      <c r="P142">
         <v>1.2</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>575</v>
       </c>
@@ -8401,14 +8404,14 @@
       <c r="M143" t="s">
         <v>578</v>
       </c>
-      <c r="N143" t="s">
+      <c r="O143" t="s">
         <v>636</v>
       </c>
-      <c r="O143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>584</v>
       </c>
@@ -8439,10 +8442,10 @@
       <c r="M144" t="s">
         <v>585</v>
       </c>
-      <c r="N144" t="s">
+      <c r="O144" t="s">
         <v>637</v>
       </c>
-      <c r="O144" t="s">
+      <c r="P144" t="s">
         <v>590</v>
       </c>
     </row>

--- a/db/airr_schema_defs.xlsx
+++ b/db/airr_schema_defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\digby_backend\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA75DE1-6F1E-43FB-8F02-59AAADDCE91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C35F251-84CB-4447-9B12-4E3BB631DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2962,7 +2962,7 @@
   <dimension ref="A1:Q144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,11 +3505,8 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>654</v>
@@ -6478,6 +6475,12 @@
       <c r="D92" s="6" t="s">
         <v>529</v>
       </c>
+      <c r="E92" t="s">
+        <v>509</v>
+      </c>
+      <c r="F92" t="s">
+        <v>611</v>
+      </c>
       <c r="G92" t="s">
         <v>11</v>
       </c>
@@ -6901,12 +6904,6 @@
       </c>
       <c r="D103" s="6" t="s">
         <v>529</v>
-      </c>
-      <c r="E103" t="s">
-        <v>509</v>
-      </c>
-      <c r="F103" t="s">
-        <v>611</v>
       </c>
       <c r="G103" t="s">
         <v>307</v>
